--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
-  <si>
-    <t>ukuaiqi项目UI自动化测试报告</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+  <si>
+    <t>IsEDP项目正式环境自动化测试报告</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -84,33 +84,39 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 10.9%', '当前频率': '2482.0Hz', '用户占用率': '3.0%', '系统占用率': '16.7%', '空闲值': '78.8%'}</t>
+    <t>{'使用率': ' 17.2%', '当前频率': '782.0Hz', '用户占用率': '1.6%', '系统占用率': '9.4%', '空闲值': '88.9%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.474GB', '使用率': '56.1%', '占用': '4.43GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.48GB', '使用率': '43.3%', '占用': '3.424GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.32GB', '剩余量': '817.18GB', '使用率': '1.7%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.3GB', '剩余量': '817.19GB', '使用率': '1.7%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '168.94MB', '最大下行': '2431.4MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.29', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.1', 'DNS地址': '8.8.8.8', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'最大上行': '33.49MB', '最大下行': '654.MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '8.8.8.8', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>用例级别</t>
+  </si>
+  <si>
     <t>用例名称</t>
   </si>
   <si>
@@ -120,10 +126,7 @@
     <t>场景</t>
   </si>
   <si>
-    <t>最快响应时间(ms)</t>
-  </si>
-  <si>
-    <t>最慢响应时间(ms)</t>
+    <t>用例响应时间</t>
   </si>
   <si>
     <t>状态</t>
@@ -138,6 +141,12 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -147,41 +156,29 @@
     <t>符合规范的</t>
   </si>
   <si>
-    <t>336.225555577</t>
-  </si>
-  <si>
-    <t>8888.555555555</t>
-  </si>
-  <si>
-    <t>失败</t>
+    <t>1.256s</t>
+  </si>
+  <si>
+    <t>成功</t>
   </si>
   <si>
     <t>辅导费333</t>
   </si>
   <si>
+    <t>d:/</t>
+  </si>
+  <si>
     <t>苟富贵</t>
   </si>
   <si>
-    <t>登录首页</t>
-  </si>
-  <si>
-    <t>test/test/122</t>
-  </si>
-  <si>
-    <t>辅导费</t>
-  </si>
-  <si>
-    <t>hhj古典风格</t>
-  </si>
-  <si>
-    <t>成功</t>
+    <t>c:/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,12 +195,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -255,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -270,9 +261,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -297,14 +285,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3341</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937165</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54664</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="log.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -318,88 +306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="1965491" cy="1142750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3470</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3434</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="15422765199665.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15897225" y="190500"/>
-          <a:ext cx="1384595" cy="994034"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3470</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3434</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="15422765199665.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15897225" y="1181100"/>
-          <a:ext cx="1384595" cy="994034"/>
+          <a:ext cx="1918240" cy="435664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -778,7 +685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -789,18 +696,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="100.7109375" customWidth="1"/>
     <col min="11" max="11" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -828,97 +735,76 @@
       <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="78" customHeight="1">
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="78" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="78" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="78" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="78" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>51</v>
+      <c r="J3" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -938,13 +824,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
   <si>
     <t>IsEDP项目正式环境自动化测试报告</t>
   </si>
@@ -84,13 +84,13 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 17.2%', '当前频率': '782.0Hz', '用户占用率': '1.6%', '系统占用率': '9.4%', '空闲值': '88.9%'}</t>
+    <t>{'使用率': ' 7.7%', '当前频率': '782.0Hz', '用户占用率': '1.6%', '系统占用率': '4.7%', '空闲值': '93.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.48GB', '使用率': '43.3%', '占用': '3.424GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.711GB', '使用率': '53.1%', '占用': '4.19GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
@@ -102,10 +102,10 @@
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '33.49MB', '最大下行': '654.MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '8.8.8.8', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'最大上行': '113.64MB', '最大下行': '1443.4MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -141,37 +141,175 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>test/122</t>
-  </si>
-  <si>
-    <t>符合规范的</t>
-  </si>
-  <si>
-    <t>1.256s</t>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>test_accountBoundaryAfter</t>
+  </si>
+  <si>
+    <t>账号边界测试（后）</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>辅导费333</t>
-  </si>
-  <si>
-    <t>d:/</t>
-  </si>
-  <si>
-    <t>苟富贵</t>
-  </si>
-  <si>
-    <t>c:/</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>/#/login</t>
+  </si>
+  <si>
+    <t>4.353s</t>
+  </si>
+  <si>
+    <t>test_accountBoundaryFront</t>
+  </si>
+  <si>
+    <t>账号边界测试（前）</t>
+  </si>
+  <si>
+    <t>4.307s</t>
+  </si>
+  <si>
+    <t>test_accountError</t>
+  </si>
+  <si>
+    <t>错误的用户名</t>
+  </si>
+  <si>
+    <t>4.339s</t>
+  </si>
+  <si>
+    <t>test_accountLong</t>
+  </si>
+  <si>
+    <t>用户名长度120字节</t>
+  </si>
+  <si>
+    <t>4.738s</t>
+  </si>
+  <si>
+    <t>test_accountNull</t>
+  </si>
+  <si>
+    <t>用户名为空</t>
+  </si>
+  <si>
+    <t>3.315s</t>
+  </si>
+  <si>
+    <t>test_accountSpace</t>
+  </si>
+  <si>
+    <t>用户名为空格</t>
+  </si>
+  <si>
+    <t>4.297s</t>
+  </si>
+  <si>
+    <t>test_accountSymbol</t>
+  </si>
+  <si>
+    <t>用户名为特殊符号</t>
+  </si>
+  <si>
+    <t>4.383s</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>test_loginLogo</t>
+  </si>
+  <si>
+    <t>检查登录界面logo是否存在</t>
+  </si>
+  <si>
+    <t>/static/images/logo.bae1317.png</t>
+  </si>
+  <si>
+    <t>0.380s</t>
+  </si>
+  <si>
+    <t>test_passwordBoundaryAfter</t>
+  </si>
+  <si>
+    <t>密码边界测试（后）</t>
+  </si>
+  <si>
+    <t>4.560s</t>
+  </si>
+  <si>
+    <t>test_passwordBoundaryFront</t>
+  </si>
+  <si>
+    <t>密码边界测试（前）</t>
+  </si>
+  <si>
+    <t>4.309s</t>
+  </si>
+  <si>
+    <t>test_passwordError</t>
+  </si>
+  <si>
+    <t>错误的密码</t>
+  </si>
+  <si>
+    <t>4.316s</t>
+  </si>
+  <si>
+    <t>test_passwordForgetError</t>
+  </si>
+  <si>
+    <t>忘记密码(错误账号)</t>
+  </si>
+  <si>
+    <t>5.425s</t>
+  </si>
+  <si>
+    <t>test_passwordForgetNull</t>
+  </si>
+  <si>
+    <t>忘记密码(空账号)</t>
+  </si>
+  <si>
+    <t>3.340s</t>
+  </si>
+  <si>
+    <t>test_passwordLong</t>
+  </si>
+  <si>
+    <t>密码字符120字节</t>
+  </si>
+  <si>
+    <t>4.658s</t>
+  </si>
+  <si>
+    <t>test_passwordNull</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>3.275s</t>
+  </si>
+  <si>
+    <t>test_passwordSpace</t>
+  </si>
+  <si>
+    <t>密码为空格</t>
+  </si>
+  <si>
+    <t>4.305s</t>
+  </si>
+  <si>
+    <t>test_passwordSuccessAccount</t>
+  </si>
+  <si>
+    <t>忘记密码（正确账号）</t>
+  </si>
+  <si>
+    <t>5.344s</t>
   </si>
 </sst>
 </file>
@@ -685,7 +823,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -707,7 +845,7 @@
     <col min="11" max="11" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -739,68 +877,599 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="78" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="78" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43455.78194444445</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="78" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="78" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43455.78199074074</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="78" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>50</v>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43455.78204861111</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="78" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43455.78210648148</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="78" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4">
+        <v>43455.7821412037</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="78" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4">
+        <v>43455.78219907408</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="78" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43455.78224537037</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="78" customHeight="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43455.78225694445</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="78" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43455.78231481482</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="78" customHeight="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43455.78236111111</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="78" customHeight="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43455.78241898148</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="78" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="4">
+        <v>43455.78247685185</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="78" customHeight="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43455.78252314815</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="78" customHeight="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="4">
+        <v>43455.78258101852</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="78" customHeight="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43455.78261574074</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="78" customHeight="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4">
+        <v>43455.78267361111</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="78" customHeight="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="4">
+        <v>43455.78273148148</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>IsEDP项目正式环境自动化测试报告</t>
   </si>
@@ -84,25 +84,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 7.7%', '当前频率': '782.0Hz', '用户占用率': '1.6%', '系统占用率': '4.7%', '空闲值': '93.6%'}</t>
+    <t>{'使用率': ' 20.3%', '当前频率': '782.0Hz', '用户占用率': '1.5%', '系统占用率': '16.9%', '空闲值': '80.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.711GB', '使用率': '53.1%', '占用': '4.19GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.56GB', '使用率': '42.3%', '占用': '3.348GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.3GB', '剩余量': '817.19GB', '使用率': '1.7%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.32GB', '剩余量': '817.18GB', '使用率': '1.7%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '113.64MB', '最大下行': '1443.4MB'}</t>
+    <t>{'最大上行': '33.138MB', '最大下行': '363.14MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -126,7 +126,7 @@
     <t>场景</t>
   </si>
   <si>
-    <t>用例响应时间</t>
+    <t>用例执行时间</t>
   </si>
   <si>
     <t>状态</t>
@@ -141,182 +141,44 @@
     <t>备注</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>test_accountBoundaryAfter</t>
-  </si>
-  <si>
-    <t>账号边界测试（后）</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>test/122</t>
+  </si>
+  <si>
+    <t>符合规范的</t>
+  </si>
+  <si>
+    <t>1.256s</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>辅导费333</t>
+  </si>
+  <si>
+    <t>苟富贵</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>/#/login</t>
-  </si>
-  <si>
-    <t>4.353s</t>
-  </si>
-  <si>
-    <t>test_accountBoundaryFront</t>
-  </si>
-  <si>
-    <t>账号边界测试（前）</t>
-  </si>
-  <si>
-    <t>4.307s</t>
-  </si>
-  <si>
-    <t>test_accountError</t>
-  </si>
-  <si>
-    <t>错误的用户名</t>
-  </si>
-  <si>
-    <t>4.339s</t>
-  </si>
-  <si>
-    <t>test_accountLong</t>
-  </si>
-  <si>
-    <t>用户名长度120字节</t>
-  </si>
-  <si>
-    <t>4.738s</t>
-  </si>
-  <si>
-    <t>test_accountNull</t>
-  </si>
-  <si>
-    <t>用户名为空</t>
-  </si>
-  <si>
-    <t>3.315s</t>
-  </si>
-  <si>
-    <t>test_accountSpace</t>
-  </si>
-  <si>
-    <t>用户名为空格</t>
-  </si>
-  <si>
-    <t>4.297s</t>
-  </si>
-  <si>
-    <t>test_accountSymbol</t>
-  </si>
-  <si>
-    <t>用户名为特殊符号</t>
-  </si>
-  <si>
-    <t>4.383s</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>test_loginLogo</t>
-  </si>
-  <si>
-    <t>检查登录界面logo是否存在</t>
-  </si>
-  <si>
-    <t>/static/images/logo.bae1317.png</t>
-  </si>
-  <si>
-    <t>0.380s</t>
-  </si>
-  <si>
-    <t>test_passwordBoundaryAfter</t>
-  </si>
-  <si>
-    <t>密码边界测试（后）</t>
-  </si>
-  <si>
-    <t>4.560s</t>
-  </si>
-  <si>
-    <t>test_passwordBoundaryFront</t>
-  </si>
-  <si>
-    <t>密码边界测试（前）</t>
-  </si>
-  <si>
-    <t>4.309s</t>
-  </si>
-  <si>
-    <t>test_passwordError</t>
-  </si>
-  <si>
-    <t>错误的密码</t>
-  </si>
-  <si>
-    <t>4.316s</t>
-  </si>
-  <si>
-    <t>test_passwordForgetError</t>
-  </si>
-  <si>
-    <t>忘记密码(错误账号)</t>
-  </si>
-  <si>
-    <t>5.425s</t>
-  </si>
-  <si>
-    <t>test_passwordForgetNull</t>
-  </si>
-  <si>
-    <t>忘记密码(空账号)</t>
-  </si>
-  <si>
-    <t>3.340s</t>
-  </si>
-  <si>
-    <t>test_passwordLong</t>
-  </si>
-  <si>
-    <t>密码字符120字节</t>
-  </si>
-  <si>
-    <t>4.658s</t>
-  </si>
-  <si>
-    <t>test_passwordNull</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>3.275s</t>
-  </si>
-  <si>
-    <t>test_passwordSpace</t>
-  </si>
-  <si>
-    <t>密码为空格</t>
-  </si>
-  <si>
-    <t>4.305s</t>
-  </si>
-  <si>
-    <t>test_passwordSuccessAccount</t>
-  </si>
-  <si>
-    <t>忘记密码（正确账号）</t>
-  </si>
-  <si>
-    <t>5.344s</t>
+    <t>c:/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +195,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -384,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -399,6 +267,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -445,6 +316,49 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="1918240" cy="435664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1384402</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_createNull.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16583025" y="190500"/>
+          <a:ext cx="1384402" cy="993896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -837,7 +751,9 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="6" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="50.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
@@ -845,7 +761,7 @@
     <col min="11" max="11" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -877,603 +793,70 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="78" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
+    <row r="2" spans="1:10" ht="78" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="78" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="4">
-        <v>43455.78194444445</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="78" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43455.78199074074</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="78" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="4">
-        <v>43455.78204861111</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="78" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="4">
-        <v>43455.78210648148</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="78" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4">
-        <v>43455.7821412037</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="78" customHeight="1">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="4">
-        <v>43455.78219907408</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="78" customHeight="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="4">
-        <v>43455.78224537037</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="78" customHeight="1">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="4">
-        <v>43455.78225694445</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="78" customHeight="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="4">
-        <v>43455.78231481482</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="78" customHeight="1">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="4">
-        <v>43455.78236111111</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="78" customHeight="1">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="4">
-        <v>43455.78241898148</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="78" customHeight="1">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="4">
-        <v>43455.78247685185</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="78" customHeight="1">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="4">
-        <v>43455.78252314815</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="78" customHeight="1">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="4">
-        <v>43455.78258101852</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="78" customHeight="1">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="4">
-        <v>43455.78261574074</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="78" customHeight="1">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="4">
-        <v>43455.78267361111</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="78" customHeight="1">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="4">
-        <v>43455.78273148148</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1493,13 +876,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
-  <si>
-    <t>IsEDP项目正式环境自动化测试报告</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+  <si>
+    <t>IsEDP项目测试环境自动化测试报告</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -84,25 +84,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 20.3%', '当前频率': '782.0Hz', '用户占用率': '1.5%', '系统占用率': '16.9%', '空闲值': '80.0%'}</t>
+    <t>{'使用率': ' 10.9%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '6.2%', '空闲值': '93.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.56GB', '使用率': '42.3%', '占用': '3.348GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.08GB', '使用率': '48.4%', '占用': '3.82GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.32GB', '剩余量': '817.18GB', '使用率': '1.7%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.42GB', '剩余量': '817.08GB', '使用率': '1.7%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '33.138MB', '最大下行': '363.14MB'}</t>
+    <t>{'最大上行': '41.986MB', '最大下行': '448.9MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -138,47 +138,50 @@
     <t>截图</t>
   </si>
   <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>用例完成时间</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>test/122</t>
-  </si>
-  <si>
-    <t>符合规范的</t>
-  </si>
-  <si>
-    <t>1.256s</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>test_createNull</t>
+  </si>
+  <si>
+    <t>/#/system/navbarManage</t>
+  </si>
+  <si>
+    <t>创建菜单字段为空</t>
+  </si>
+  <si>
+    <t>0.0020s</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>辅导费333</t>
-  </si>
-  <si>
-    <t>苟富贵</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>c:/</t>
+    <t>1 != 2</t>
+  </si>
+  <si>
+    <t>D:/work_file/auto_script/auto_ui/img/test_createNull.png</t>
+  </si>
+  <si>
+    <t>2018-12-25 18:39:34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,12 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -252,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -267,9 +264,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -316,49 +310,6 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="1918240" cy="435664"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1384402</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3296</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_createNull.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16583025" y="190500"/>
-          <a:ext cx="1384402" cy="993896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -737,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -750,18 +701,19 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
-    <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="100.7109375" customWidth="1"/>
-    <col min="11" max="11" width="60.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -792,71 +744,53 @@
       <c r="J1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="78" customHeight="1">
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="78" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="78" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -876,13 +810,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>IsEDP项目测试环境自动化测试报告</t>
   </si>
@@ -84,13 +84,13 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 10.9%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '6.2%', '空闲值': '93.6%'}</t>
+    <t>{'使用率': ' 21.5%', '当前频率': '3401.0Hz', '用户占用率': '0.0%', '系统占用率': '7.8%', '空闲值': '92.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.08GB', '使用率': '48.4%', '占用': '3.82GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.335GB', '使用率': '57.8%', '占用': '4.57GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
@@ -102,7 +102,7 @@
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '41.986MB', '最大下行': '448.9MB'}</t>
+    <t>{'最大上行': '126.50MB', '最大下行': '943.8MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -138,7 +138,7 @@
     <t>截图</t>
   </si>
   <si>
-    <t>作者</t>
+    <t>负责人</t>
   </si>
   <si>
     <t>用例完成时间</t>
@@ -150,31 +150,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>test_createNull</t>
-  </si>
-  <si>
-    <t>/#/system/navbarManage</t>
-  </si>
-  <si>
-    <t>创建菜单字段为空</t>
-  </si>
-  <si>
-    <t>0.0020s</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>1 != 2</t>
-  </si>
-  <si>
-    <t>D:/work_file/auto_script/auto_ui/img/test_createNull.png</t>
-  </si>
-  <si>
-    <t>2018-12-25 18:39:34</t>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>test/122</t>
+  </si>
+  <si>
+    <t>符合规范的</t>
+  </si>
+  <si>
+    <t>1.256s</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>辅导费333</t>
+  </si>
+  <si>
+    <t>苟富贵</t>
+  </si>
+  <si>
+    <t>2018-12-25 17:34:10</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -688,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -777,16 +777,45 @@
         <v>50</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="78" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>IsEDP项目测试环境自动化测试报告</t>
   </si>
@@ -84,25 +84,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 21.5%', '当前频率': '3401.0Hz', '用户占用率': '0.0%', '系统占用率': '7.8%', '空闲值': '92.0%'}</t>
+    <t>{'使用率': ' 12.3%', '当前频率': '782.0Hz', '用户占用率': '3.0%', '系统占用率': '16.7%', '空闲值': '78.8%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.335GB', '使用率': '57.8%', '占用': '4.57GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.17GB', '使用率': '47.2%', '占用': '3.73GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.42GB', '剩余量': '817.08GB', '使用率': '1.7%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.66GB', '剩余量': '816.84GB', '使用率': '1.8%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '126.50MB', '最大下行': '943.8MB'}</t>
+    <t>{'最大上行': '311.36MB', '最大下行': '1212.8MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -165,23 +165,29 @@
     <t>1.256s</t>
   </si>
   <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>辅导费333</t>
+  </si>
+  <si>
+    <t>D:/work_file/auto_script/auto_ui/img/test_one.png</t>
+  </si>
+  <si>
+    <t>苟富贵</t>
+  </si>
+  <si>
+    <t>2018-12-25 17:34:10</t>
+  </si>
+  <si>
     <t>成功</t>
-  </si>
-  <si>
-    <t>辅导费333</t>
-  </si>
-  <si>
-    <t>苟富贵</t>
-  </si>
-  <si>
-    <t>2018-12-25 17:34:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +204,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -249,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -264,6 +276,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -289,9 +304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>937165</xdr:colOff>
+      <xdr:colOff>162199</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>54664</xdr:rowOff>
+      <xdr:rowOff>136937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -309,7 +324,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="1918240" cy="435664"/>
+          <a:ext cx="1143274" cy="517937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>674175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>842077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_one.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13916025" y="190500"/>
+          <a:ext cx="674175" cy="842077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,13 +835,13 @@
         <v>50</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78" customHeight="1">
@@ -805,8 +863,8 @@
       <c r="F3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>49</v>
+      <c r="G3" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>50</v>
@@ -815,11 +873,12 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -839,13 +898,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
-  <si>
-    <t>IsEDP项目测试环境自动化测试报告</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+  <si>
+    <t>SCRM项目测试环境自动化测试报告</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -84,28 +84,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 12.3%', '当前频率': '782.0Hz', '用户占用率': '3.0%', '系统占用率': '16.7%', '空闲值': '78.8%'}</t>
+    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '1.6%', '系统占用率': '6.2%', '空闲值': '92.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.17GB', '使用率': '47.2%', '占用': '3.73GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.713GB', '使用率': '65.7%', '占用': '5.19GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.66GB', '剩余量': '816.84GB', '使用率': '1.8%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '15.20GB', '剩余量': '816.30GB', '使用率': '1.8%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': '311.36MB', '最大下行': '1212.8MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'最大上行': 'MB', '最大下行': 'MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '114.114.114.114', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -117,6 +117,9 @@
     <t>用例级别</t>
   </si>
   <si>
+    <t>模块</t>
+  </si>
+  <si>
     <t>用例名称</t>
   </si>
   <si>
@@ -144,43 +147,80 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>预期结果</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>test/122</t>
-  </si>
-  <si>
-    <t>符合规范的</t>
-  </si>
-  <si>
-    <t>1.256s</t>
+    <t>低</t>
+  </si>
+  <si>
+    <t>TestLogin</t>
+  </si>
+  <si>
+    <t>test_accountError</t>
+  </si>
+  <si>
+    <t>/#/account/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证错误的用户名登录:
+        1、用户名输入框输入:15928564314999
+        2、密码输入框输入:Li123456
+        3、点击【登录】
+        </t>
+  </si>
+  <si>
+    <t>0.8840s</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-01-25 18:36:39</t>
+  </si>
+  <si>
+    <t>账号未注册</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_passwordError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证错误的用户名登录:
+        1、用户名输入框输入:15928564313
+        2、密码输入框输入:Li1234564444
+        3、点击【登录】
+        </t>
+  </si>
+  <si>
+    <t>11.7090s</t>
   </si>
   <si>
     <t>错误</t>
   </si>
   <si>
-    <t>辅导费333</t>
-  </si>
-  <si>
-    <t>D:/work_file/auto_script/auto_ui/img/test_one.png</t>
-  </si>
-  <si>
-    <t>苟富贵</t>
-  </si>
-  <si>
-    <t>2018-12-25 17:34:10</t>
-  </si>
-  <si>
-    <t>成功</t>
+    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[contains(text(), "账号未注册")]/.."}
+  (Session info: chrome=69.0.3497.92)
+  (Driver info: chromedriver=2.42.591088 (7b2b2dca23cca0862f674758c9a3933e685c27d5),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>D:/work_file/auto_script/auto_ui/img/test_passwordError.png</t>
+  </si>
+  <si>
+    <t>2019-01-25 18:36:52</t>
   </si>
 </sst>
 </file>
@@ -209,13 +249,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -303,10 +343,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>162199</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136937</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183147</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -324,50 +364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="1143274" cy="517937"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>674175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>842077</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_one.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13916025" y="190500"/>
-          <a:ext cx="674175" cy="842077"/>
+          <a:ext cx="2145297" cy="353463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,11 +743,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -759,19 +756,20 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -808,34 +806,37 @@
       <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="78" customHeight="1">
+      <c r="M1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>52</v>
@@ -843,42 +844,56 @@
       <c r="K2" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="78" customHeight="1">
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>SCRM项目测试环境自动化测试报告</t>
   </si>
@@ -84,13 +84,13 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '1.6%', '系统占用率': '6.2%', '空闲值': '92.0%'}</t>
+    <t>{'使用率': ' 9.4%', '当前频率': '2992.0Hz', '用户占用率': '6.2%', '系统占用率': '7.7%', '空闲值': '84.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '2.713GB', '使用率': '65.7%', '占用': '5.19GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.83GB', '使用率': '38.9%', '占用': '3.07GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
@@ -129,15 +129,18 @@
     <t>场景</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>异常原因</t>
+  </si>
+  <si>
     <t>用例执行时间</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>错误原因</t>
-  </si>
-  <si>
     <t>截图</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
   </si>
   <si>
     <t>用例完成时间</t>
-  </si>
-  <si>
-    <t>预期结果</t>
   </si>
   <si>
     <t>1</t>
@@ -173,22 +173,22 @@
         </t>
   </si>
   <si>
-    <t>0.8840s</t>
-  </si>
-  <si>
     <t>成功</t>
   </si>
   <si>
+    <t>账号未注册</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>1.4810s</t>
+  </si>
+  <si>
     <t>后超</t>
   </si>
   <si>
-    <t>2019-01-25 18:36:39</t>
-  </si>
-  <si>
-    <t>账号未注册</t>
+    <t>2019-01-29 09:55:22</t>
   </si>
   <si>
     <t>2</t>
@@ -198,36 +198,48 @@
   </si>
   <si>
     <t xml:space="preserve">
-        验证错误的用户名登录:
+        验证错误的密码登录:
         1、用户名输入框输入:15928564313
         2、密码输入框输入:Li1234564444
         3、点击【登录】
         </t>
   </si>
   <si>
-    <t>11.7090s</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[contains(text(), "账号未注册")]/.."}
-  (Session info: chrome=69.0.3497.92)
-  (Driver info: chromedriver=2.42.591088 (7b2b2dca23cca0862f674758c9a3933e685c27d5),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>D:/work_file/auto_script/auto_ui/img/test_passwordError.png</t>
-  </si>
-  <si>
-    <t>2019-01-25 18:36:52</t>
+    <t>密码错误请重新输入</t>
+  </si>
+  <si>
+    <t>1.4290s</t>
+  </si>
+  <si>
+    <t>2019-01-29 09:55:24</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_switchQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证切换二维码是否生成二维码:
+        1、点击【扫码登录】
+        </t>
+  </si>
+  <si>
+    <t>中企智营APP</t>
+  </si>
+  <si>
+    <t>3.5520s</t>
+  </si>
+  <si>
+    <t>2019-01-29 09:55:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,12 +262,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -316,9 +322,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -344,9 +347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>183147</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>162963</xdr:rowOff>
+      <xdr:colOff>21336</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,7 +367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="2145297" cy="353463"/>
+          <a:ext cx="1983486" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -760,13 +763,13 @@
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -829,20 +832,20 @@
       <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>54</v>
@@ -870,26 +873,67 @@
       <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="78" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -913,13 +957,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>SCRM项目测试环境自动化测试报告</t>
   </si>
@@ -84,13 +84,13 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 9.4%', '当前频率': '2992.0Hz', '用户占用率': '6.2%', '系统占用率': '7.7%', '空闲值': '84.6%'}</t>
+    <t>{'使用率': ' 14.1%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '4.6%', '空闲值': '92.3%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.83GB', '使用率': '38.9%', '占用': '3.07GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.473GB', '使用率': '43.4%', '占用': '3.436GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-        验证错误的用户名登录:
+        验证错误的密码进行登录:
         1、用户名输入框输入:15928564314999
         2、密码输入框输入:Li123456
         3、点击【登录】
@@ -182,13 +182,13 @@
     <t>...</t>
   </si>
   <si>
-    <t>1.4810s</t>
+    <t>0.9770s</t>
   </si>
   <si>
     <t>后超</t>
   </si>
   <si>
-    <t>2019-01-29 09:55:22</t>
+    <t>2019-01-31 15:55:53</t>
   </si>
   <si>
     <t>2</t>
@@ -208,10 +208,10 @@
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>1.4290s</t>
-  </si>
-  <si>
-    <t>2019-01-29 09:55:24</t>
+    <t>0.9390s</t>
+  </si>
+  <si>
+    <t>2019-01-31 15:55:55</t>
   </si>
   <si>
     <t>3</t>
@@ -229,10 +229,7 @@
     <t>中企智营APP</t>
   </si>
   <si>
-    <t>3.5520s</t>
-  </si>
-  <si>
-    <t>2019-01-29 09:55:28</t>
+    <t>0.5340s</t>
   </si>
 </sst>
 </file>
@@ -933,7 +930,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>SCRM项目测试环境自动化测试报告</t>
   </si>
@@ -84,19 +84,19 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 14.1%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '4.6%', '空闲值': '92.3%'}</t>
+    <t>{'使用率': ' 31.2%', '当前频率': '3401.0Hz', '用户占用率': '10.9%', '系统占用率': '17.2%', '空闲值': '71.8%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.473GB', '使用率': '43.4%', '占用': '3.436GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.810GB', '使用率': '51.8%', '占用': '4.09GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '15.20GB', '剩余量': '816.30GB', '使用率': '1.8%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '13.7GB', '剩余量': '817.8GB', '使用率': '1.6%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
@@ -162,7 +162,7 @@
     <t>test_accountError</t>
   </si>
   <si>
-    <t>/#/account/login</t>
+    <t>/platform/#/account/login</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -182,13 +182,13 @@
     <t>...</t>
   </si>
   <si>
-    <t>0.9770s</t>
+    <t>1.6850s</t>
   </si>
   <si>
     <t>后超</t>
   </si>
   <si>
-    <t>2019-01-31 15:55:53</t>
+    <t>2019-02-25 13:40:49</t>
   </si>
   <si>
     <t>2</t>
@@ -208,28 +208,10 @@
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>0.9390s</t>
-  </si>
-  <si>
-    <t>2019-01-31 15:55:55</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>test_switchQR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        验证切换二维码是否生成二维码:
-        1、点击【扫码登录】
-        </t>
-  </si>
-  <si>
-    <t>中企智营APP</t>
-  </si>
-  <si>
-    <t>0.5340s</t>
+    <t>1.8770s</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:40:51</t>
   </si>
 </sst>
 </file>
@@ -343,10 +325,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>21336</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>825246</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,7 +346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="1983486" cy="819150"/>
+          <a:ext cx="825246" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,7 +725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -889,47 +871,6 @@
         <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="78" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="4" t="s">
         <v>61</v>
       </c>
     </row>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>SCRM项目测试环境自动化测试报告</t>
   </si>
@@ -84,25 +84,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 31.2%', '当前频率': '3401.0Hz', '用户占用率': '10.9%', '系统占用率': '17.2%', '空闲值': '71.8%'}</t>
+    <t>{'使用率': ' 18.7%', '当前频率': '3401.0Hz', '用户占用率': '15.6%', '系统占用率': '31.2%', '空闲值': '53.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.810GB', '使用率': '51.8%', '占用': '4.09GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.918GB', '使用率': '50.5%', '占用': '3.990GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '13.7GB', '剩余量': '817.8GB', '使用率': '1.6%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '13.71GB', '剩余量': '817.79GB', '使用率': '1.6%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'最大上行': 'MB', '最大下行': 'MB'}</t>
+    <t>{'网卡最大上行': '3.0171MB', '网卡最大下行': '13.690MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '114.114.114.114', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -173,22 +173,22 @@
         </t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>账号未注册</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>1.6850s</t>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>账号未注册.</t>
+  </si>
+  <si>
+    <t>"账号未注册" != "账号未注册."</t>
+  </si>
+  <si>
+    <t>1.6940s</t>
   </si>
   <si>
     <t>后超</t>
   </si>
   <si>
-    <t>2019-02-25 13:40:49</t>
+    <t>2019-02-25 18:40:51</t>
   </si>
   <si>
     <t>2</t>
@@ -205,20 +205,57 @@
         </t>
   </si>
   <si>
+    <t>成功</t>
+  </si>
+  <si>
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>1.8770s</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:40:51</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>1.7060s</t>
+  </si>
+  <si>
+    <t>2019-02-25 18:40:53</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>TestStaffCustomManage</t>
+  </si>
+  <si>
+    <t>test_drag_and_drop</t>
+  </si>
+  <si>
+    <t>/platform/#/manage/employeeProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        员工属性管理，字段拖拽是否成功:
+        1、进入员工属性管理，选择字段属性(姓名)按住
+        2、拖拽到任意位置，释放字段属性
+        </t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>1.4710s</t>
+  </si>
+  <si>
+    <t>2019-02-25 18:41:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +277,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -286,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -301,6 +350,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -347,6 +402,87 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="825246" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>769839</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>839248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_accountError.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="190500"/>
+          <a:ext cx="769839" cy="839248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669848</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>839248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_drag_and_drop.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="2171700"/>
+          <a:ext cx="669848" cy="839248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,7 +861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -823,9 +959,6 @@
       <c r="J2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="4" t="s">
         <v>54</v>
       </c>
@@ -852,30 +985,69 @@
       <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>50</v>
+      <c r="G3" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="78" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -895,13 +1067,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>SCRM项目测试环境自动化测试报告</t>
   </si>
@@ -54,10 +54,10 @@
     <t>错误数</t>
   </si>
   <si>
-    <t>跳过数</t>
-  </si>
-  <si>
-    <t>总用时</t>
+    <t>最短耗时</t>
+  </si>
+  <si>
+    <t>最长耗时</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -84,25 +84,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 18.7%', '当前频率': '3401.0Hz', '用户占用率': '15.6%', '系统占用率': '31.2%', '空闲值': '53.0%'}</t>
+    <t>{'使用率': ' 29.7%', '当前频率': '3401.0Hz', '用户占用率': '25.0%', '系统占用率': '29.6%', '空闲值': '45.2%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.918GB', '使用率': '50.5%', '占用': '3.990GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.370GB', '使用率': '57.4%', '占用': '4.538GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '13.71GB', '剩余量': '817.79GB', '使用率': '1.6%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.47GB', '剩余量': '817.03GB', '使用率': '1.7%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '3.0171MB', '网卡最大下行': '13.690MB'}</t>
+    <t>{'网卡最大上行': '3.220MB', '网卡最大下行': '15.081MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '114.114.114.114', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -135,7 +135,7 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>异常原因</t>
+    <t>异常原因（实际结果）</t>
   </si>
   <si>
     <t>用例执行时间</t>
@@ -163,61 +163,55 @@
   </si>
   <si>
     <t>/platform/#/account/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证错误的用户名进行登录:
+        1、用户名输入框输入:15928564314999;
+        2、密码输入框输入:Li123456;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>账号未注册</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>1.6890s</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:43:10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_passwordError</t>
   </si>
   <si>
     <t xml:space="preserve">
         验证错误的密码进行登录:
-        1、用户名输入框输入:15928564314999
-        2、密码输入框输入:Li123456
-        3、点击【登录】
+        1、用户名输入框输入:15928564313;
+        2、密码输入框输入:Li1234564444;
+        3、点击【登录】。
         </t>
   </si>
   <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>账号未注册.</t>
-  </si>
-  <si>
-    <t>"账号未注册" != "账号未注册."</t>
-  </si>
-  <si>
-    <t>1.6940s</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2019-02-25 18:40:51</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>test_passwordError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        验证错误的密码登录:
-        1、用户名输入框输入:15928564313
-        2、密码输入框输入:Li1234564444
-        3、点击【登录】
-        </t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>1.7060s</t>
-  </si>
-  <si>
-    <t>2019-02-25 18:40:53</t>
+    <t>1.6860s</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:43:12</t>
   </si>
   <si>
     <t>3</t>
@@ -237,25 +231,31 @@
   <si>
     <t xml:space="preserve">
         员工属性管理，字段拖拽是否成功:
-        1、进入员工属性管理，选择字段属性(姓名)按住
-        2、拖拽到任意位置，释放字段属性
+        1、进入员工属性管理，选择字段属性(姓名)按住;
+        2、拖拽到任意位置，释放字段属性。
         </t>
   </si>
   <si>
     <t>错误</t>
   </si>
   <si>
-    <t>1.4710s</t>
-  </si>
-  <si>
-    <t>2019-02-25 18:41:13</t>
+    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`属性排序成功`]/."}
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>13.9650s</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:43:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +272,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -335,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -353,9 +347,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -380,8 +371,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>825246</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -401,7 +392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="825246" cy="762000"/>
+          <a:ext cx="1628775" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -419,18 +410,18 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>769839</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>839248</xdr:rowOff>
+      <xdr:colOff>1384402</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>876967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_accountError.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_drag_and_drop.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -443,46 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17211675" y="190500"/>
-          <a:ext cx="769839" cy="839248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>669848</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>839248</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_drag_and_drop.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="17211675" y="2171700"/>
-          <a:ext cx="669848" cy="839248"/>
+          <a:ext cx="1384402" cy="876967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,6 +912,9 @@
       <c r="J2" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>54</v>
       </c>
@@ -985,64 +941,64 @@
       <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1067,13 +1023,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>SCRM项目测试环境自动化测试报告</t>
   </si>
@@ -84,25 +84,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 29.7%', '当前频率': '3401.0Hz', '用户占用率': '25.0%', '系统占用率': '29.6%', '空闲值': '45.2%'}</t>
+    <t>{'使用率': ' 17.2%', '当前频率': '3401.0Hz', '用户占用率': '14.0%', '系统占用率': '20.3%', '空闲值': '65.5%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.370GB', '使用率': '57.4%', '占用': '4.538GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.341GB', '使用率': '57.8%', '占用': '4.56GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.47GB', '剩余量': '817.03GB', '使用率': '1.7%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '14.61GB', '剩余量': '816.8GB', '使用率': '1.8%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '3.220MB', '网卡最大下行': '15.081MB'}</t>
+    <t>{'网卡最大上行': '0.12425MB', '网卡最大下行': '0.9025MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '114.114.114.114', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -173,48 +173,151 @@
         </t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>账号未注册</t>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>账号未注册...</t>
+  </si>
+  <si>
+    <t>"账号未注册" != "账号未注册..."</t>
+  </si>
+  <si>
+    <t>2.0260s</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-02-28 18:16:19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_accountNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证用户名为空格登录:
+        1、用户名输入框输入:
+        ;
+        2、密码输入框输入:Li1234564444;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>请输入账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: invalid selector: Unable to locate an element with the xpath expression //*[text33()=`手机号/邮箱`]/../div[1]/input because of the following error:
+SyntaxError: Failed to execute `evaluate` on `Document`: The string `//*[text33()=`手机号/邮箱`]/../div[1]/input` is not a valid XPath expression.
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>0.3620s</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>1.6890s</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:43:10</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>2019-02-28 18:16:20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_passwordEnglish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证密码为全英文字节登录:
+        1、用户名输入框输入:
+        15928564313;
+        2、密码输入框输入:
+        ASDSDSFDSFDSFSDCSDCDSFCDSFDSFDSGDSGDSGDSFGDSFSDFSD;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>密码错误请重新输入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`密码错误请重新输入`]/.."}
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>12.2340s</t>
+  </si>
+  <si>
+    <t>2019-02-28 18:16:32</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>test_passwordError</t>
   </si>
   <si>
     <t xml:space="preserve">
-        验证错误的密码进行登录:
+        验证错误的密码登录:
         1、用户名输入框输入:15928564313;
         2、密码输入框输入:Li1234564444;
         3、点击【登录】。
         </t>
   </si>
   <si>
-    <t>密码错误请重新输入</t>
-  </si>
-  <si>
-    <t>1.6860s</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:43:12</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>密码错误请重新输入...</t>
+  </si>
+  <si>
+    <t>"密码错误请重新输入" != "密码错误请重新输入..."</t>
+  </si>
+  <si>
+    <t>1.9580s</t>
+  </si>
+  <si>
+    <t>2019-02-28 18:16:34</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>test_passwordNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证密码为空格登录:
+        1、用户名输入框输入:
+        15928564313;
+        2、密码输入框输入:
+        ;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: invalid selector: Unable to locate an element with the xpath expression //*[text333()=`手机号/邮箱`]/../div[1]/input because of the following error:
+SyntaxError: Failed to execute `evaluate` on `Document`: The string `//*[text333()=`手机号/邮箱`]/../div[1]/input` is not a valid XPath expression.
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>0.5530s</t>
+  </si>
+  <si>
+    <t>2019-02-28 18:16:35</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>中</t>
@@ -236,26 +339,23 @@
         </t>
   </si>
   <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`属性排序成功`]/."}
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>13.9650s</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:43:40</t>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>属性排序成功</t>
+  </si>
+  <si>
+    <t>6.2630s</t>
+  </si>
+  <si>
+    <t>2019-02-28 18:16:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +377,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -329,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -347,6 +453,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -410,18 +519,18 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1384402</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>876967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_drag_and_drop.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_accountError.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -434,8 +543,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="17211675" y="190500"/>
+          <a:ext cx="1591056" cy="876967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>876967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_passwordEnglish.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="17211675" y="2171700"/>
-          <a:ext cx="1384402" cy="876967"/>
+          <a:ext cx="1591056" cy="876967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>876967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="test_passwordError.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="3162300"/>
+          <a:ext cx="1591056" cy="876967"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,7 +999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -912,9 +1097,6 @@
       <c r="J2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="4" t="s">
         <v>54</v>
       </c>
@@ -941,52 +1123,52 @@
       <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>50</v>
+      <c r="G3" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>69</v>
@@ -999,6 +1181,126 @@
       </c>
       <c r="M4" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="78" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="78" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="78" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1023,13 +1325,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -60,10 +60,22 @@
     <t>用例最长耗时</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Warn</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
     <t>V2.1.10.11</t>
   </si>
   <si>
-    <t>测试环境</t>
+    <t>内贸项目测试环境</t>
   </si>
   <si>
     <t>python3+selenium+unittest</t>
@@ -72,10 +84,16 @@
     <t>None</t>
   </si>
   <si>
+    <t>5条</t>
+  </si>
+  <si>
+    <t>33条</t>
+  </si>
+  <si>
     <t>None条</t>
   </si>
   <si>
-    <t>33条</t>
+    <t>45条</t>
   </si>
   <si>
     <t>Nones</t>
@@ -105,31 +123,31 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 32.3%', '当前频率': '3401.0Hz', '用户占用率': '31.2%', '系统占用率': '28.1%', '空闲值': '40.6%'}</t>
-  </si>
-  <si>
-    <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
-  </si>
-  <si>
-    <t>{'容量': '7.90GB', '空闲': '2.977GB', '使用率': '62.3%', '占用': '4.93GB'}</t>
-  </si>
-  <si>
-    <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
-  </si>
-  <si>
-    <t>{'容量': '831.GB', '已使用量': '14.62GB', '剩余量': '816.88GB', '使用率': '1.8%'}</t>
-  </si>
-  <si>
-    <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
-  </si>
-  <si>
-    <t>{'网卡最大上行': '0.4798MB', '网卡最大下行': '2.330MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '114.114.114.114', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
-  </si>
-  <si>
-    <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
+    <t>{'使用率': ' 21.9%', '当前频率': '1600.0Hz', '用户占用率': '13.6%', '系统占用率': '6.1%', '空闲值': '77.3%'}</t>
+  </si>
+  <si>
+    <t>{'名称': 'Intel(R) Core(TM) i5-2300 CPU @ 2.80GHz', '核心数': 4, '位数': 64, '最大速度': 3101, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'DESKTOP-RAFN6EL'}</t>
+  </si>
+  <si>
+    <t>{'容量': '7.96GB', '空闲': '4.15GB', '使用率': '47.9%', '占用': '3.816GB'}</t>
+  </si>
+  <si>
+    <t>{'条数': '2', '容量': '8.0GB', '位数': 64, '型号': '99U5471-056.A00LF', '频率': '1333MHz', '厂家': 'Kingston'}</t>
+  </si>
+  <si>
+    <t>{'容量': '221.0GB', '已使用量': '50.6GB', '剩余量': '170.393GB', '使用率': '22.9%'}</t>
+  </si>
+  <si>
+    <t>{'品牌': 'ST1000DM003-1ER162 ATA Device', '型号': 'S4Y2BGNM', '容量': '0.90TB'}</t>
+  </si>
+  <si>
+    <t>{'网卡最大上行': '0.9067MB', '网卡最大下行': '1.8543MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.1.3', '子网掩码': '255.255.255.0', 'MAC地址': 'FC:AA:14:35:55:52', '网关地址': '192.168.1.1', 'DNS地址': '61.139.2.69', '网卡类别': 'Realtek PCIe GBE Family Controller'}</t>
+  </si>
+  <si>
+    <t>{'电脑名称': 'DESKTOP-RAFN6EL', '操作系统': 'Windows-10-10.0.16299-SP0', '操作系统位数': ('32bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
   </si>
   <si>
     <t>#</t>
@@ -318,6 +336,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SCRM简报统计图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -326,22 +362,46 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>分析</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF9900"/>
-            </a:solidFill>
-          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00CD00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>&lt;xlsxwriter.worksheet.Worksheet object at 0x00000000034B3128&gt;!$A$1:$D$1</c:f>
+              <c:f>SCRM简报统计图!$A$11:$D$11</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>&lt;xlsxwriter.worksheet.Worksheet object at 0x00000000034B3128&gt;!$A$2:$D$2</c:f>
+              <c:f>SCRM简报统计图!$A$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="0"/>
@@ -358,24 +418,6 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" baseline="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" baseline="0"/>
-                  <a:t>错误</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
@@ -388,41 +430,11 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="20"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" baseline="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-                  <a:t>的</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr i="1" baseline="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -447,15 +459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -800,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,13 +841,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -843,13 +855,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -857,13 +869,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -871,13 +883,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -885,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -899,13 +911,41 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>333</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -948,111 +988,111 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1086,13 +1126,13 @@
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1107,10 +1147,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1124,13 +1164,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1145,10 +1185,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1162,13 +1202,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1183,10 +1223,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1200,13 +1240,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1221,10 +1261,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1238,13 +1278,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1259,10 +1299,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -60,25 +60,13 @@
     <t>用例最长耗时</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Warn</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
     <t>V2.1.10.11</t>
   </si>
   <si>
     <t>内贸项目测试环境</t>
   </si>
   <si>
-    <t>python3+selenium+unittest</t>
+    <t>Python3.6.5</t>
   </si>
   <si>
     <t>None</t>
@@ -123,25 +111,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 21.9%', '当前频率': '1600.0Hz', '用户占用率': '13.6%', '系统占用率': '6.1%', '空闲值': '77.3%'}</t>
+    <t>{'使用率': ' 18.8%', '当前频率': '1600.0Hz', '用户占用率': '0.0%', '系统占用率': '0.0%', '空闲值': '100.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-2300 CPU @ 2.80GHz', '核心数': 4, '位数': 64, '最大速度': 3101, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'DESKTOP-RAFN6EL'}</t>
   </si>
   <si>
-    <t>{'容量': '7.96GB', '空闲': '4.15GB', '使用率': '47.9%', '占用': '3.816GB'}</t>
+    <t>{'容量': '7.96GB', '空闲': '4.38GB', '使用率': '45.0%', '占用': '3.585GB'}</t>
   </si>
   <si>
     <t>{'条数': '2', '容量': '8.0GB', '位数': 64, '型号': '99U5471-056.A00LF', '频率': '1333MHz', '厂家': 'Kingston'}</t>
   </si>
   <si>
-    <t>{'容量': '221.0GB', '已使用量': '50.6GB', '剩余量': '170.393GB', '使用率': '22.9%'}</t>
+    <t>{'容量': '221.0GB', '已使用量': '50.6GB', '剩余量': '170.382GB', '使用率': '22.9%'}</t>
   </si>
   <si>
     <t>{'品牌': 'ST1000DM003-1ER162 ATA Device', '型号': 'S4Y2BGNM', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.9067MB', '网卡最大下行': '1.8543MB'}</t>
+    <t>{'网卡最大上行': '0.9127MB', '网卡最大下行': '1.8602MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.1.3', '子网掩码': '255.255.255.0', 'MAC地址': 'FC:AA:14:35:55:52', '网关地址': '192.168.1.1', 'DNS地址': '61.139.2.69', '网卡类别': 'Realtek PCIe GBE Family Controller'}</t>
@@ -332,160 +320,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SCRM简报统计图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00CD00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>SCRM简报统计图!$A$11:$D$11</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SCRM简报统计图!$A$12:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -501,13 +337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -812,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -855,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -869,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -883,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -897,13 +733,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -911,40 +747,12 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>333</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
         <v>22</v>
       </c>
     </row>
@@ -988,111 +796,111 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1126,13 +934,13 @@
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1147,10 +955,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1164,13 +972,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1185,10 +993,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1202,13 +1010,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1223,10 +1031,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1240,13 +1048,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1261,10 +1069,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1278,13 +1086,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1299,10 +1107,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -66,25 +66,34 @@
     <t>内贸项目测试环境</t>
   </si>
   <si>
-    <t>Python3.6.5</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>5条</t>
-  </si>
-  <si>
-    <t>33条</t>
-  </si>
-  <si>
-    <t>None条</t>
-  </si>
-  <si>
-    <t>45条</t>
-  </si>
-  <si>
-    <t>Nones</t>
+    <t>Python3.7.0</t>
+  </si>
+  <si>
+    <t>['后超']</t>
+  </si>
+  <si>
+    <t>2019-03-04 16:05:24</t>
+  </si>
+  <si>
+    <t>2019-03-04 16:06:16</t>
+  </si>
+  <si>
+    <t>6条</t>
+  </si>
+  <si>
+    <t>4条</t>
+  </si>
+  <si>
+    <t>0条</t>
+  </si>
+  <si>
+    <t>2条</t>
+  </si>
+  <si>
+    <t>1.8s</t>
+  </si>
+  <si>
+    <t>12.237s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -111,31 +120,31 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 18.8%', '当前频率': '1600.0Hz', '用户占用率': '0.0%', '系统占用率': '0.0%', '空闲值': '100.0%'}</t>
-  </si>
-  <si>
-    <t>{'名称': 'Intel(R) Core(TM) i5-2300 CPU @ 2.80GHz', '核心数': 4, '位数': 64, '最大速度': 3101, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'DESKTOP-RAFN6EL'}</t>
-  </si>
-  <si>
-    <t>{'容量': '7.96GB', '空闲': '4.38GB', '使用率': '45.0%', '占用': '3.585GB'}</t>
-  </si>
-  <si>
-    <t>{'条数': '2', '容量': '8.0GB', '位数': 64, '型号': '99U5471-056.A00LF', '频率': '1333MHz', '厂家': 'Kingston'}</t>
-  </si>
-  <si>
-    <t>{'容量': '221.0GB', '已使用量': '50.6GB', '剩余量': '170.382GB', '使用率': '22.9%'}</t>
-  </si>
-  <si>
-    <t>{'品牌': 'ST1000DM003-1ER162 ATA Device', '型号': 'S4Y2BGNM', '容量': '0.90TB'}</t>
-  </si>
-  <si>
-    <t>{'网卡最大上行': '0.9127MB', '网卡最大下行': '1.8602MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.1.3', '子网掩码': '255.255.255.0', 'MAC地址': 'FC:AA:14:35:55:52', '网关地址': '192.168.1.1', 'DNS地址': '61.139.2.69', '网卡类别': 'Realtek PCIe GBE Family Controller'}</t>
-  </si>
-  <si>
-    <t>{'电脑名称': 'DESKTOP-RAFN6EL', '操作系统': 'Windows-10-10.0.16299-SP0', '操作系统位数': ('32bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
+    <t>{'使用率': ' 17.2%', '当前频率': '3401.0Hz', '用户占用率': '35.9%', '系统占用率': '20.3%', '空闲值': '43.7%'}</t>
+  </si>
+  <si>
+    <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
+  </si>
+  <si>
+    <t>{'容量': '7.90GB', '空闲': '3.673GB', '使用率': '53.6%', '占用': '4.23GB'}</t>
+  </si>
+  <si>
+    <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
+  </si>
+  <si>
+    <t>{'容量': '831.GB', '已使用量': '14.75GB', '剩余量': '816.75GB', '使用率': '1.8%'}</t>
+  </si>
+  <si>
+    <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
+  </si>
+  <si>
+    <t>{'网卡最大上行': '0.12764MB', '网卡最大下行': '0.8046MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+  </si>
+  <si>
+    <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
   </si>
   <si>
     <t>#</t>
@@ -180,37 +189,176 @@
     <t>1</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>test/122</t>
-  </si>
-  <si>
-    <t>符合规范的</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>1.256s</t>
+    <t>低</t>
+  </si>
+  <si>
+    <t>TestLogin</t>
+  </si>
+  <si>
+    <t>test_accountError</t>
+  </si>
+  <si>
+    <t>/platform/#/account/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证错误的用户名进行登录:
+        1、用户名输入框输入:15928564314999;
+        2、密码输入框输入:Li123456;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>账号未注册</t>
+  </si>
+  <si>
+    <t>1.9000s</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_accountNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证用户名为空格登录:
+        1、用户名输入框输入:
+        ;
+        2、密码输入框输入:Li1234564444;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>请输入账号</t>
+  </si>
+  <si>
+    <t>1.8000s</t>
+  </si>
+  <si>
+    <t>2019-03-04 16:05:26</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_passwordEnglish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证密码为全英文字节登录:
+        1、用户名输入框输入:
+        15928564313;
+        2、密码输入框输入:
+        ASDSDSFDSFDSFSDCSDCDSFCDSFDSFDSGDSGDSGDSFGDSFSDFSD;
+        3、点击【登录】。
+        </t>
   </si>
   <si>
     <t>错误</t>
   </si>
   <si>
-    <t>辅导费333</t>
-  </si>
-  <si>
-    <t>苟富贵</t>
-  </si>
-  <si>
-    <t>2018-12-25 17:34:10</t>
-  </si>
-  <si>
-    <t>成功</t>
+    <t>密码错误请重新输入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`密码错误请重新输入`]/.."}
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>12.0560s</t>
+  </si>
+  <si>
+    <t>2019-03-04 16:05:39</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>test_passwordError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证错误的密码登录:
+        1、用户名输入框输入:15928564313;
+        2、密码输入框输入:Li1234564444;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>1.8340s</t>
+  </si>
+  <si>
+    <t>2019-03-04 16:05:41</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>test_passwordNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        验证密码为空格登录:
+        1、用户名输入框输入:
+        15928564313;
+        2、密码输入框输入:
+        ;
+        3、点击【登录】。
+        </t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>1.8260s</t>
+  </si>
+  <si>
+    <t>2019-03-04 16:05:43</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>TestStaffCustomManage</t>
+  </si>
+  <si>
+    <t>test_drag_and_drop</t>
+  </si>
+  <si>
+    <t>/platform/#/manage/employeeProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        员工属性管理，字段拖拽是否成功:
+        1、进入员工属性管理，选择字段属性(姓名)按住;
+        2、拖拽到任意位置，释放字段属性。
+        </t>
+  </si>
+  <si>
+    <t>属性排序成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`属性排序成功`]/."}
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>12.2370s</t>
   </si>
 </sst>
 </file>
@@ -239,13 +387,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -352,6 +500,87 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="2388870" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>974408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_passwordEnglish.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="2171700"/>
+          <a:ext cx="1591056" cy="974408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>974408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_drag_and_drop.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="5143500"/>
+          <a:ext cx="1591056" cy="974408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,13 +934,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -719,13 +948,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -733,13 +962,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -747,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -796,115 +1025,288 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="78" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="78" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="78" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="78" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -925,7 +1327,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -934,13 +1336,13 @@
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -955,10 +1357,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -972,13 +1374,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -993,10 +1395,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1010,13 +1412,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1031,10 +1433,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1048,13 +1450,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1069,10 +1471,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1086,13 +1488,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1107,10 +1509,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -72,28 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-04 16:05:24</t>
-  </si>
-  <si>
-    <t>2019-03-04 16:06:16</t>
-  </si>
-  <si>
-    <t>6条</t>
-  </si>
-  <si>
-    <t>4条</t>
-  </si>
-  <si>
-    <t>0条</t>
-  </si>
-  <si>
-    <t>2条</t>
-  </si>
-  <si>
-    <t>1.8s</t>
-  </si>
-  <si>
-    <t>12.237s</t>
+    <t>2019-03-05 17:28:59</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:29:43</t>
+  </si>
+  <si>
+    <t>1.802s</t>
+  </si>
+  <si>
+    <t>12.278s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -120,28 +108,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 17.2%', '当前频率': '3401.0Hz', '用户占用率': '35.9%', '系统占用率': '20.3%', '空闲值': '43.7%'}</t>
+    <t>{'使用率': ' 7.8%', '当前频率': '782.0Hz', '用户占用率': '1.5%', '系统占用率': '12.3%', '空闲值': '84.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.673GB', '使用率': '53.6%', '占用': '4.23GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.83GB', '使用率': '51.6%', '占用': '4.07GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '14.75GB', '剩余量': '816.75GB', '使用率': '1.8%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '15GB', '剩余量': '816.50GB', '使用率': '1.8%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.12764MB', '网卡最大下行': '0.8046MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': '192.168.5.210', '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'网卡最大上行': '0.42718MB', '网卡最大下行': '2.431MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -198,7 +186,7 @@
     <t>test_accountError</t>
   </si>
   <si>
-    <t>/platform/#/account/login</t>
+    <t>http://test.platform.app.gouuse.cn/platform/#/account/login</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -215,7 +203,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>1.9000s</t>
+    <t>1.8500s</t>
   </si>
   <si>
     <t>.......</t>
@@ -242,10 +230,10 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>1.8000s</t>
-  </si>
-  <si>
-    <t>2019-03-04 16:05:26</t>
+    <t>1.8020s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:29:01</t>
   </si>
   <si>
     <t>3</t>
@@ -276,10 +264,10 @@
 </t>
   </si>
   <si>
-    <t>12.0560s</t>
-  </si>
-  <si>
-    <t>2019-03-04 16:05:39</t>
+    <t>12.2780s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:29:13</t>
   </si>
   <si>
     <t>4</t>
@@ -296,10 +284,10 @@
         </t>
   </si>
   <si>
-    <t>1.8340s</t>
-  </si>
-  <si>
-    <t>2019-03-04 16:05:41</t>
+    <t>1.9130s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:29:15</t>
   </si>
   <si>
     <t>5</t>
@@ -321,10 +309,10 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>1.8260s</t>
-  </si>
-  <si>
-    <t>2019-03-04 16:05:43</t>
+    <t>1.8380s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:29:18</t>
   </si>
   <si>
     <t>6</t>
@@ -339,7 +327,7 @@
     <t>test_drag_and_drop</t>
   </si>
   <si>
-    <t>/platform/#/manage/employeeProperty</t>
+    <t>http://test.platform.app.gouuse.cn/platform/#/manage/employeeProperty</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -349,23 +337,23 @@
         </t>
   </si>
   <si>
+    <t>失败</t>
+  </si>
+  <si>
     <t>属性排序成功</t>
   </si>
   <si>
-    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`属性排序成功`]/."}
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>12.2370s</t>
+    <t>"" != "属性排序成功"</t>
+  </si>
+  <si>
+    <t>4.5320s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +382,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -439,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -456,6 +450,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -468,8 +465,196 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SCRM简报统计图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>(测试报告总览!$C$5,测试报告总览!$E$5,测试报告总览!$C$6,测试报告总览!$E$6)</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(测试报告总览!$D$5,测试报告总览!$F$5,测试报告总览!$D$6,测试报告总览!$F$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="0"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>状态</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>个数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -485,13 +670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -947,28 +1132,28 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="2">
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
+      <c r="F5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -976,13 +1161,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1025,81 +1210,81 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
@@ -1107,206 +1292,214 @@
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="78" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="78" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="78" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="/account/login"/>
+    <hyperlink ref="E3" r:id="rId2" location="/account/login"/>
+    <hyperlink ref="E4" r:id="rId3" location="/account/login"/>
+    <hyperlink ref="E5" r:id="rId4" location="/account/login"/>
+    <hyperlink ref="E6" r:id="rId5" location="/account/login"/>
+    <hyperlink ref="E7" r:id="rId6" location="/manage/employeeProperty"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1326,23 +1519,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1357,10 +1550,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1374,13 +1567,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1395,10 +1588,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1412,13 +1605,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1433,10 +1626,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1450,13 +1643,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1471,10 +1664,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1488,13 +1681,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1509,10 +1702,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -72,16 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-05 17:28:59</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:29:43</t>
-  </si>
-  <si>
-    <t>1.802s</t>
-  </si>
-  <si>
-    <t>12.278s</t>
+    <t>2019-03-05 17:39:25</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:39:43</t>
+  </si>
+  <si>
+    <t>1.752s</t>
+  </si>
+  <si>
+    <t>12.158s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +108,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 7.8%', '当前频率': '782.0Hz', '用户占用率': '1.5%', '系统占用率': '12.3%', '空闲值': '84.6%'}</t>
+    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '6.2%', '空闲值': '90.5%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.83GB', '使用率': '51.6%', '占用': '4.07GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.825GB', '使用率': '51.6%', '占用': '4.084GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '15GB', '剩余量': '816.50GB', '使用率': '1.8%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '15.0GB', '剩余量': '816.50GB', '使用率': '1.8%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.42718MB', '网卡最大下行': '2.431MB'}</t>
+    <t>{'网卡最大上行': '0.4318MB', '网卡最大下行': '2.4556MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -203,7 +203,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>1.8500s</t>
+    <t>1.8360s</t>
   </si>
   <si>
     <t>.......</t>
@@ -230,10 +230,10 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>1.8020s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:29:01</t>
+    <t>1.7910s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:39:27</t>
   </si>
   <si>
     <t>3</t>
@@ -264,10 +264,10 @@
 </t>
   </si>
   <si>
-    <t>12.2780s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:29:13</t>
+    <t>12.1580s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:39:39</t>
   </si>
   <si>
     <t>4</t>
@@ -284,10 +284,10 @@
         </t>
   </si>
   <si>
-    <t>1.9130s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:29:15</t>
+    <t>1.8700s</t>
+  </si>
+  <si>
+    <t>2019-03-05 17:39:41</t>
   </si>
   <si>
     <t>5</t>
@@ -309,51 +309,14 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>1.8380s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:29:18</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>TestStaffCustomManage</t>
-  </si>
-  <si>
-    <t>test_drag_and_drop</t>
-  </si>
-  <si>
-    <t>http://test.platform.app.gouuse.cn/platform/#/manage/employeeProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        员工属性管理，字段拖拽是否成功:
-        1、进入员工属性管理，选择字段属性(姓名)按住;
-        2、拖拽到任意位置，释放字段属性。
-        </t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>属性排序成功</t>
-  </si>
-  <si>
-    <t>"" != "属性排序成功"</t>
-  </si>
-  <si>
-    <t>4.5320s</t>
+    <t>1.7520s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,12 +345,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -433,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -448,9 +405,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -727,44 +681,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17211675" y="2171700"/>
-          <a:ext cx="1591056" cy="974408"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>974408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_drag_and_drop.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17211675" y="5143500"/>
           <a:ext cx="1591056" cy="974408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1133,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -1147,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1182,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1448,44 +1364,6 @@
         <v>62</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="78" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1496,10 +1374,9 @@
     <hyperlink ref="E4" r:id="rId3" location="/account/login"/>
     <hyperlink ref="E5" r:id="rId4" location="/account/login"/>
     <hyperlink ref="E6" r:id="rId5" location="/account/login"/>
-    <hyperlink ref="E7" r:id="rId6" location="/manage/employeeProperty"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1519,13 +1396,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -72,16 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-05 17:39:25</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:39:43</t>
-  </si>
-  <si>
-    <t>1.752s</t>
-  </si>
-  <si>
-    <t>12.158s</t>
+    <t>2019-03-05 18:18:17</t>
+  </si>
+  <si>
+    <t>2019-03-05 18:19:10</t>
+  </si>
+  <si>
+    <t>1.82s</t>
+  </si>
+  <si>
+    <t>12.172s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +108,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '6.2%', '空闲值': '90.5%'}</t>
+    <t>{'使用率': ' 46.9%', '当前频率': '782.0Hz', '用户占用率': '9.4%', '系统占用率': '1.6%', '空闲值': '88.9%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.825GB', '使用率': '51.6%', '占用': '4.084GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.09GB', '使用率': '60.8%', '占用': '4.81GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '15.0GB', '剩余量': '816.50GB', '使用率': '1.8%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '15.00GB', '剩余量': '816.50GB', '使用率': '1.8%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.4318MB', '网卡最大下行': '2.4556MB'}</t>
+    <t>{'网卡最大上行': '0.4448MB', '网卡最大下行': '2.543MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -203,7 +203,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>1.8360s</t>
+    <t>1.8400s</t>
   </si>
   <si>
     <t>.......</t>
@@ -230,10 +230,10 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>1.7910s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:39:27</t>
+    <t>1.8200s</t>
+  </si>
+  <si>
+    <t>2019-03-05 18:18:19</t>
   </si>
   <si>
     <t>3</t>
@@ -264,10 +264,10 @@
 </t>
   </si>
   <si>
-    <t>12.1580s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:39:39</t>
+    <t>12.0990s</t>
+  </si>
+  <si>
+    <t>2019-03-05 18:18:32</t>
   </si>
   <si>
     <t>4</t>
@@ -284,10 +284,7 @@
         </t>
   </si>
   <si>
-    <t>1.8700s</t>
-  </si>
-  <si>
-    <t>2019-03-05 17:39:41</t>
+    <t>2019-03-05 18:18:34</t>
   </si>
   <si>
     <t>5</t>
@@ -309,7 +306,41 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>1.7520s</t>
+    <t>2019-03-05 18:18:36</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>TestStaffCustomManage</t>
+  </si>
+  <si>
+    <t>test_drag_and_drop</t>
+  </si>
+  <si>
+    <t>http://test.platform.app.gouuse.cn/platform/#/manage/employeeProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+        员工属性管理，字段拖拽是否成功:
+        1、进入员工属性管理，选择字段属性(姓名)按住;
+        2、拖拽到任意位置，释放字段属性。
+        </t>
+  </si>
+  <si>
+    <t>属性排序成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`属性排序成功`]/."}
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>12.1720s</t>
   </si>
 </sst>
 </file>
@@ -690,6 +721,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>974408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_drag_and_drop.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="5143500"/>
+          <a:ext cx="1591056" cy="974408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1049,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -1069,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1098,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1314,7 +1383,7 @@
         <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>61</v>
@@ -1323,12 +1392,12 @@
         <v>62</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="78" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -1337,25 +1406,25 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>61</v>
@@ -1364,6 +1433,44 @@
         <v>62</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="78" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1374,9 +1481,10 @@
     <hyperlink ref="E4" r:id="rId3" location="/account/login"/>
     <hyperlink ref="E5" r:id="rId4" location="/account/login"/>
     <hyperlink ref="E6" r:id="rId5" location="/account/login"/>
+    <hyperlink ref="E7" r:id="rId6" location="/manage/employeeProperty"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -72,16 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-05 18:18:17</t>
-  </si>
-  <si>
-    <t>2019-03-05 18:19:10</t>
-  </si>
-  <si>
-    <t>1.82s</t>
-  </si>
-  <si>
-    <t>12.172s</t>
+    <t>2019-03-11 14:45:49</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:46:43</t>
+  </si>
+  <si>
+    <t>7.861s</t>
+  </si>
+  <si>
+    <t>15.428s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +108,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 46.9%', '当前频率': '782.0Hz', '用户占用率': '9.4%', '系统占用率': '1.6%', '空闲值': '88.9%'}</t>
+    <t>{'使用率': ' 6.2%', '当前频率': '782.0Hz', '用户占用率': '4.6%', '系统占用率': '10.8%', '空闲值': '83.1%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.09GB', '使用率': '60.8%', '占用': '4.81GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.450GB', '使用率': '56.4%', '占用': '4.45GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '15.00GB', '剩余量': '816.50GB', '使用率': '1.8%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '15.93GB', '剩余量': '815.57GB', '使用率': '1.9%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.4448MB', '网卡最大下行': '2.543MB'}</t>
+    <t>{'网卡最大上行': '0.1506MB', '网卡最大下行': '0.8816MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -186,15 +186,13 @@
     <t>test_accountError</t>
   </si>
   <si>
-    <t>http://test.platform.app.gouuse.cn/platform/#/account/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        验证错误的用户名进行登录:
-        1、用户名输入框输入:15928564314999;
-        2、密码输入框输入:Li123456;
-        3、点击【登录】。
-        </t>
+    <t>https://www.scrm365.cn/#/account/login</t>
+  </si>
+  <si>
+    <t>验证错误的用户名进行登录:
+ 1、用户名输入框输入:{15928564314999};
+ 2、密码输入框输入:{Li123456};
+ 3、点击【登录】。</t>
   </si>
   <si>
     <t>成功</t>
@@ -203,7 +201,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>1.8400s</t>
+    <t>15.4280s</t>
   </si>
   <si>
     <t>.......</t>
@@ -218,22 +216,19 @@
     <t>test_accountNull</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        验证用户名为空格登录:
-        1、用户名输入框输入:
-        ;
-        2、密码输入框输入:Li1234564444;
-        3、点击【登录】。
-        </t>
+    <t>验证用户名为空格登录:
+ 1、用户名输入框输入:{ };
+ 2、密码输入框输入:{Li123456};
+ 3、点击【登录】。</t>
   </si>
   <si>
     <t>请输入账号</t>
   </si>
   <si>
-    <t>1.8200s</t>
-  </si>
-  <si>
-    <t>2019-03-05 18:18:19</t>
+    <t>11.1640s</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:46:00</t>
   </si>
   <si>
     <t>3</t>
@@ -242,32 +237,19 @@
     <t>test_passwordEnglish</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        验证密码为全英文字节登录:
-        1、用户名输入框输入:
-        15928564313;
-        2、密码输入框输入:
-        ASDSDSFDSFDSFSDCSDCDSFCDSFDSFDSGDSGDSGDSFGDSFSDFSD;
-        3、点击【登录】。
-        </t>
-  </si>
-  <si>
-    <t>错误</t>
+    <t>验证密码为全英文字节登录:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{AAVDVDVD23325GDFGDFG~!@#$%^&amp;*()_};
+ 3、点击【登录】。</t>
   </si>
   <si>
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`密码错误请重新输入`]/.."}
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>12.0990s</t>
-  </si>
-  <si>
-    <t>2019-03-05 18:18:32</t>
+    <t>11.3750s</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:46:12</t>
   </si>
   <si>
     <t>4</t>
@@ -276,15 +258,16 @@
     <t>test_passwordError</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        验证错误的密码登录:
-        1、用户名输入框输入:15928564313;
-        2、密码输入框输入:Li1234564444;
-        3、点击【登录】。
-        </t>
-  </si>
-  <si>
-    <t>2019-03-05 18:18:34</t>
+    <t>验证错误的密码登录:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{Li1234564444};
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>11.1990s</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:46:23</t>
   </si>
   <si>
     <t>5</t>
@@ -293,54 +276,41 @@
     <t>test_passwordNull</t>
   </si>
   <si>
-    <t xml:space="preserve">
-        验证密码为空格登录:
-        1、用户名输入框输入:
-        15928564313;
-        2、密码输入框输入:
-        ;
-        3、点击【登录】。
-        </t>
+    <t>验证密码为空格登录:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{ };
+ 3、点击【登录】。</t>
   </si>
   <si>
     <t>请输入密码</t>
   </si>
   <si>
-    <t>2019-03-05 18:18:36</t>
+    <t>11.1890s</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:46:34</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>TestStaffCustomManage</t>
-  </si>
-  <si>
-    <t>test_drag_and_drop</t>
-  </si>
-  <si>
-    <t>http://test.platform.app.gouuse.cn/platform/#/manage/employeeProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-        员工属性管理，字段拖拽是否成功:
-        1、进入员工属性管理，选择字段属性(姓名)按住;
-        2、拖拽到任意位置，释放字段属性。
-        </t>
-  </si>
-  <si>
-    <t>属性排序成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//*[text()=`属性排序成功`]/."}
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>12.1720s</t>
+    <t>test_success</t>
+  </si>
+  <si>
+    <t>验证账号密码正确:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{Li123456};
+ 3、选择公司:{草草后};
+ 4、点击【登录】。</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>"超超" != "密码错误请重新输入"</t>
+  </si>
+  <si>
+    <t>7.8610s</t>
   </si>
 </sst>
 </file>
@@ -375,7 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -649,9 +619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1141095</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -669,7 +639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190500"/>
-          <a:ext cx="2388870" cy="762000"/>
+          <a:ext cx="2057400" cy="660083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,44 +657,6 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>974408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_passwordEnglish.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17211675" y="2171700"/>
-          <a:ext cx="1591056" cy="974408"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -736,13 +668,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_drag_and_drop.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_success.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1124,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1132,13 +1064,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1335,28 +1267,31 @@
       <c r="F4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>75</v>
+      <c r="K4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="78" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
@@ -1365,25 +1300,25 @@
         <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>61</v>
@@ -1392,12 +1327,12 @@
         <v>62</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="78" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -1406,25 +1341,25 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>61</v>
@@ -1441,31 +1376,31 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>62</v>
@@ -1481,7 +1416,7 @@
     <hyperlink ref="E4" r:id="rId3" location="/account/login"/>
     <hyperlink ref="E5" r:id="rId4" location="/account/login"/>
     <hyperlink ref="E6" r:id="rId5" location="/account/login"/>
-    <hyperlink ref="E7" r:id="rId6" location="/manage/employeeProperty"/>
+    <hyperlink ref="E7" r:id="rId6" location="/account/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -72,16 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-11 14:45:49</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:46:43</t>
-  </si>
-  <si>
-    <t>7.861s</t>
-  </si>
-  <si>
-    <t>15.428s</t>
+    <t>2019-03-12 17:50:01</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:51:04</t>
+  </si>
+  <si>
+    <t>11.126s</t>
+  </si>
+  <si>
+    <t>15.648s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +108,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 6.2%', '当前频率': '782.0Hz', '用户占用率': '4.6%', '系统占用率': '10.8%', '空闲值': '83.1%'}</t>
+    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '9.4%', '空闲值': '87.4%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.450GB', '使用率': '56.4%', '占用': '4.45GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.915GB', '使用率': '63.1%', '占用': '4.994GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '15.93GB', '剩余量': '815.57GB', '使用率': '1.9%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '15.94GB', '剩余量': '815.5GB', '使用率': '1.9%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.1506MB', '网卡最大下行': '0.8816MB'}</t>
+    <t>{'网卡最大上行': '0.6728MB', '网卡最大下行': '3.065MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -201,7 +201,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>15.4280s</t>
+    <t>15.5110s</t>
   </si>
   <si>
     <t>.......</t>
@@ -225,10 +225,10 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>11.1640s</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:46:00</t>
+    <t>12.0620s</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:50:14</t>
   </si>
   <si>
     <t>3</t>
@@ -246,10 +246,10 @@
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>11.3750s</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:46:12</t>
+    <t>11.3990s</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:50:26</t>
   </si>
   <si>
     <t>4</t>
@@ -264,10 +264,10 @@
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>11.1990s</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:46:23</t>
+    <t>11.1860s</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:50:37</t>
   </si>
   <si>
     <t>5</t>
@@ -285,10 +285,10 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>11.1890s</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:46:34</t>
+    <t>11.1260s</t>
+  </si>
+  <si>
+    <t>2019-03-12 17:50:48</t>
   </si>
   <si>
     <t>6</t>
@@ -310,7 +310,7 @@
     <t>"超超" != "密码错误请重新输入"</t>
   </si>
   <si>
-    <t>7.8610s</t>
+    <t>15.6480s</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -72,16 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-12 17:50:01</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:51:04</t>
-  </si>
-  <si>
-    <t>11.126s</t>
-  </si>
-  <si>
-    <t>15.648s</t>
+    <t>2019-03-20 09:17:47</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:18:29</t>
+  </si>
+  <si>
+    <t>3.677s</t>
+  </si>
+  <si>
+    <t>25.385s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +108,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 9.4%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '9.4%', '空闲值': '87.4%'}</t>
+    <t>{'使用率': ' 21.9%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '1.5%', '空闲值': '96.9%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '2.915GB', '使用率': '63.1%', '占用': '4.994GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.217GB', '使用率': '59.3%', '占用': '4.691GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '15.94GB', '剩余量': '815.5GB', '使用率': '1.9%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '16.24GB', '剩余量': '815.26GB', '使用率': '2.0%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.6728MB', '网卡最大下行': '3.065MB'}</t>
+    <t>{'网卡最大上行': '1.2124MB', '网卡最大下行': '4.300MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -174,7 +174,7 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>1</t>
+    <t>7</t>
   </si>
   <si>
     <t>低</t>
@@ -190,8 +190,8 @@
   </si>
   <si>
     <t>验证错误的用户名进行登录:
- 1、用户名输入框输入:{15928564314999};
- 2、密码输入框输入:{Li123456};
+ 1、用户名输入框输入:{159285643130MX};
+ 2、密码输入框输入:{123456};
  3、点击【登录】。</t>
   </si>
   <si>
@@ -201,7 +201,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>15.5110s</t>
+    <t>3.9170s</t>
   </si>
   <si>
     <t>.......</t>
@@ -210,7 +210,7 @@
     <t>后超</t>
   </si>
   <si>
-    <t>2</t>
+    <t>8</t>
   </si>
   <si>
     <t>test_accountNull</t>
@@ -218,20 +218,20 @@
   <si>
     <t>验证用户名为空格登录:
  1、用户名输入框输入:{ };
- 2、密码输入框输入:{Li123456};
+ 2、密码输入框输入:{123456};
  3、点击【登录】。</t>
   </si>
   <si>
     <t>请输入账号</t>
   </si>
   <si>
-    <t>12.0620s</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:50:14</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>3.6770s</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:17:51</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>test_passwordEnglish</t>
@@ -239,20 +239,20 @@
   <si>
     <t>验证密码为全英文字节登录:
  1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{AAVDVDVD23325GDFGDFG~!@#$%^&amp;*()_};
+ 2、密码输入框输入:{~!@#$%^&amp;*()};
  3、点击【登录】。</t>
   </si>
   <si>
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>11.3990s</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:50:26</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>3.9970s</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:17:55</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>test_passwordError</t>
@@ -260,17 +260,17 @@
   <si>
     <t>验证错误的密码登录:
  1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{Li1234564444};
+ 2、密码输入框输入:{1234564444};
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>11.1860s</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:50:37</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3.9130s</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:17:59</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>test_passwordNull</t>
@@ -285,13 +285,13 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>11.1260s</t>
-  </si>
-  <si>
-    <t>2019-03-12 17:50:48</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>3.8240s</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:18:03</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>test_success</t>
@@ -300,17 +300,22 @@
     <t>验证账号密码正确:
  1、用户名输入框输入:{15928564313};
  2、密码输入框输入:{Li123456};
- 3、选择公司:{草草后};
- 4、点击【登录】。</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>"超超" != "密码错误请重新输入"</t>
-  </si>
-  <si>
-    <t>15.6480s</t>
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>超人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message: timeout
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>25.3850s</t>
   </si>
 </sst>
 </file>
@@ -345,7 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -640,49 +645,6 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="2057400" cy="660083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>974408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_success.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17211675" y="5143500"/>
-          <a:ext cx="1591056" cy="974408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1050,13 +1012,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1064,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1394,13 +1356,16 @@
         <v>89</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>62</v>
@@ -1419,7 +1384,6 @@
     <hyperlink ref="E7" r:id="rId6" location="/account/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -72,16 +72,16 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-03-20 09:17:47</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:18:29</t>
-  </si>
-  <si>
-    <t>3.677s</t>
-  </si>
-  <si>
-    <t>25.385s</t>
+    <t>2019-03-20 16:55:52</t>
+  </si>
+  <si>
+    <t>2019-03-20 16:56:20</t>
+  </si>
+  <si>
+    <t>3.731s</t>
+  </si>
+  <si>
+    <t>12.186s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +108,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 21.9%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '1.5%', '空闲值': '96.9%'}</t>
+    <t>{'使用率': ' 4.7%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '4.7%', '空闲值': '95.2%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.217GB', '使用率': '59.3%', '占用': '4.691GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.828GB', '使用率': '64.2%', '占用': '5.08GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '16.24GB', '剩余量': '815.26GB', '使用率': '2.0%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '16.2GB', '剩余量': '815.26GB', '使用率': '2.0%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.2124MB', '网卡最大下行': '4.300MB'}</t>
+    <t>{'网卡最大上行': '1.487MB', '网卡最大下行': '5.709MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -174,7 +174,7 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>7</t>
+    <t>1</t>
   </si>
   <si>
     <t>低</t>
@@ -201,7 +201,7 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>3.9170s</t>
+    <t>3.8640s</t>
   </si>
   <si>
     <t>.......</t>
@@ -210,7 +210,7 @@
     <t>后超</t>
   </si>
   <si>
-    <t>8</t>
+    <t>2</t>
   </si>
   <si>
     <t>test_accountNull</t>
@@ -225,13 +225,13 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>3.6770s</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:17:51</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>3.7310s</t>
+  </si>
+  <si>
+    <t>2019-03-20 16:55:56</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>test_passwordEnglish</t>
@@ -246,13 +246,13 @@
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>3.9970s</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:17:55</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>3.9480s</t>
+  </si>
+  <si>
+    <t>2019-03-20 16:56:00</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>test_passwordError</t>
@@ -264,13 +264,13 @@
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>3.9130s</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:17:59</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>3.8480s</t>
+  </si>
+  <si>
+    <t>2019-03-20 16:56:04</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>test_passwordNull</t>
@@ -285,13 +285,13 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>3.8240s</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:18:03</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>3.7720s</t>
+  </si>
+  <si>
+    <t>2019-03-20 16:56:08</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>test_success</t>
@@ -303,26 +303,17 @@
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>错误</t>
-  </si>
-  <si>
     <t>超人</t>
   </si>
   <si>
-    <t xml:space="preserve">Message: timeout
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>25.3850s</t>
+    <t>12.1860s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,12 +336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -396,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -408,9 +393,6 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1012,13 +994,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1032,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1352,17 +1334,17 @@
       <c r="F7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>61</v>
@@ -1403,13 +1385,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -54,6 +54,12 @@
     <t>错误数</t>
   </si>
   <si>
+    <t>跳过数</t>
+  </si>
+  <si>
+    <t>其他情况</t>
+  </si>
+  <si>
     <t>用例最短耗时</t>
   </si>
   <si>
@@ -69,19 +75,19 @@
     <t>Python3.7.0</t>
   </si>
   <si>
-    <t>['后超']</t>
-  </si>
-  <si>
-    <t>2019-03-20 16:55:52</t>
-  </si>
-  <si>
-    <t>2019-03-20 16:56:20</t>
-  </si>
-  <si>
-    <t>3.731s</t>
-  </si>
-  <si>
-    <t>12.186s</t>
+    <t>['None', '后超']</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:09:54</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:22</t>
+  </si>
+  <si>
+    <t>0.822s</t>
+  </si>
+  <si>
+    <t>22.237s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 4.7%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '4.7%', '空闲值': '95.2%'}</t>
+    <t>{'使用率': ' 7.7%', '当前频率': '782.0Hz', '用户占用率': '10.9%', '系统占用率': '9.4%', '空闲值': '79.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '2.828GB', '使用率': '64.2%', '占用': '5.08GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.805GB', '使用率': '51.9%', '占用': '4.10GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '16.2GB', '剩余量': '815.26GB', '使用率': '2.0%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '16.26GB', '剩余量': '815.2GB', '使用率': '2.0%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.487MB', '网卡最大下行': '5.709MB'}</t>
+    <t>{'网卡最大上行': '1.762MB', '网卡最大下行': '7.253MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -178,6 +184,121 @@
   </si>
   <si>
     <t>低</t>
+  </si>
+  <si>
+    <t>TestContactsReport</t>
+  </si>
+  <si>
+    <t>test_contactsDownload</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/dataReport</t>
+  </si>
+  <si>
+    <t>进入联系人报表下载报告是否成功:
+ 1、通过url访问数据报表;
+ 2、点击下载报告;
+ 3、验证是否成功下载;</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>"报表下载完成" 不等于 "正确"</t>
+  </si>
+  <si>
+    <t>11.2350s</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_contactsIncrease</t>
+  </si>
+  <si>
+    <t>进入联系人报表选择公司验证新增联系人分布，新增联系人后是否+1:
+ 1、通过url访问数据报表;
+ 2、进入新增联系人统计报告数值;
+ 3、新增联系人;
+ 4、在进入新增联系人统计报告是否+1</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>22.2370s</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:10:17</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_contactsIncreaseStock</t>
+  </si>
+  <si>
+    <t>进入联系人报表选择公司验证存量联系人分布，新增联系人后是否+1:
+ 1、通过url访问数据报表;
+ 2、进入存量联系人统计报告数值;
+ 3、新增联系人;
+ 4、在进入存量联系人统计报告是否+1</t>
+  </si>
+  <si>
+    <t>20.6190s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:10:38</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>test_selectTrimester</t>
+  </si>
+  <si>
+    <t>进入联系人报表时间选择进3个月是否成功:
+ 1、通过url访问数据报表;
+ 2、点击近三个月;
+ 3、验证是否选择成功;</t>
+  </si>
+  <si>
+    <t>近3个月</t>
+  </si>
+  <si>
+    <t>0.8220s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:10:39</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>test_valueDefault</t>
+  </si>
+  <si>
+    <t>进入联系人报表选择公司验证默认选中按钮:
+ 1、通过url访问数据报表;
+ 2、验证是否选中【自己】;</t>
+  </si>
+  <si>
+    <t>12.3710s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:10:51</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>TestLogin</t>
@@ -195,22 +316,16 @@
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
     <t>账号未注册</t>
   </si>
   <si>
-    <t>3.8640s</t>
-  </si>
-  <si>
-    <t>.......</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3.9240s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:03</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>test_accountNull</t>
@@ -225,13 +340,13 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>3.7310s</t>
-  </si>
-  <si>
-    <t>2019-03-20 16:55:56</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>3.7040s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:07</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>test_passwordEnglish</t>
@@ -246,13 +361,13 @@
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>3.9480s</t>
-  </si>
-  <si>
-    <t>2019-03-20 16:56:00</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>4.0430s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:12</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>test_passwordError</t>
@@ -264,13 +379,13 @@
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>3.8480s</t>
-  </si>
-  <si>
-    <t>2019-03-20 16:56:04</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3.9650s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:16</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>test_passwordNull</t>
@@ -285,35 +400,32 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>3.7720s</t>
-  </si>
-  <si>
-    <t>2019-03-20 16:56:08</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>3.8400s</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:11:20</t>
+  </si>
+  <si>
+    <t>test_switchCompany</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>跳过原因: 暂时跳过！</t>
   </si>
   <si>
     <t>test_success</t>
   </si>
   <si>
-    <t>验证账号密码正确:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{Li123456};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>超人</t>
-  </si>
-  <si>
-    <t>12.1860s</t>
+    <t>跳过原因: 暂时跳过该用例，调试困难</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,7 +447,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -381,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -393,6 +517,12 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -469,14 +599,22 @@
               </a:solidFill>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>(测试报告总览!$C$5,测试报告总览!$E$5,测试报告总览!$C$6,测试报告总览!$E$6)</c:f>
+              <c:f>(测试报告总览!$C$5,测试报告总览!$E$5,测试报告总览!$C$6,测试报告总览!$E$6,测试报告总览!$C$7)</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(测试报告总览!$D$5,测试报告总览!$F$5,测试报告总览!$D$6,测试报告总览!$F$6)</c:f>
+              <c:f>(测试报告总览!$D$5,测试报告总览!$F$5,测试报告总览!$D$6,测试报告总览!$F$6,测试报告总览!$D$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="0"/>
@@ -627,6 +765,49 @@
         <a:xfrm>
           <a:off x="0" y="190500"/>
           <a:ext cx="2057400" cy="660083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>923068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_contactsDownload.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="190500"/>
+          <a:ext cx="1591056" cy="923068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,13 +1133,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -966,13 +1147,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -980,13 +1161,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -994,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1008,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1021,14 +1202,26 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
+      <c r="D7" s="2">
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1071,301 +1264,549 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="78" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="78" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="78" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="78" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="78" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="78" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="78" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="78" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="78" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
+      <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="/account/login"/>
-    <hyperlink ref="E3" r:id="rId2" location="/account/login"/>
-    <hyperlink ref="E4" r:id="rId3" location="/account/login"/>
-    <hyperlink ref="E5" r:id="rId4" location="/account/login"/>
-    <hyperlink ref="E6" r:id="rId5" location="/account/login"/>
+    <hyperlink ref="E2" r:id="rId1" location="/dataReport"/>
+    <hyperlink ref="E3" r:id="rId2" location="/dataReport"/>
+    <hyperlink ref="E4" r:id="rId3" location="/dataReport"/>
+    <hyperlink ref="E5" r:id="rId4" location="/dataReport"/>
+    <hyperlink ref="E6" r:id="rId5" location="/dataReport"/>
     <hyperlink ref="E7" r:id="rId6" location="/account/login"/>
+    <hyperlink ref="E8" r:id="rId7" location="/account/login"/>
+    <hyperlink ref="E9" r:id="rId8" location="/account/login"/>
+    <hyperlink ref="E10" r:id="rId9" location="/account/login"/>
+    <hyperlink ref="E11" r:id="rId10" location="/account/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1385,23 +1826,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1416,10 +1857,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1433,13 +1874,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1454,10 +1895,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1471,13 +1912,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1492,10 +1933,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1509,13 +1950,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1530,10 +1971,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1547,13 +1988,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1568,10 +2009,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -78,16 +78,16 @@
     <t>['None', '后超']</t>
   </si>
   <si>
-    <t>2019-03-21 14:09:54</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:11:22</t>
-  </si>
-  <si>
-    <t>0.822s</t>
-  </si>
-  <si>
-    <t>22.237s</t>
+    <t>2019-03-21 15:08:58</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:10:25</t>
+  </si>
+  <si>
+    <t>0.799s</t>
+  </si>
+  <si>
+    <t>24.563s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -114,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 7.7%', '当前频率': '782.0Hz', '用户占用率': '10.9%', '系统占用率': '9.4%', '空闲值': '79.6%'}</t>
+    <t>{'使用率': ' 14.1%', '当前频率': '782.0Hz', '用户占用率': '9.4%', '系统占用率': '3.1%', '空闲值': '87.4%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.805GB', '使用率': '51.9%', '占用': '4.10GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.18GB', '使用率': '59.7%', '占用': '4.72GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '16.26GB', '剩余量': '815.2GB', '使用率': '2.0%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '16.26GB', '剩余量': '815.24GB', '使用率': '2.0%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.762MB', '网卡最大下行': '7.253MB'}</t>
+    <t>{'网卡最大上行': '1.7990MB', '网卡最大下行': '7.443MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -210,7 +210,7 @@
     <t>"报表下载完成" 不等于 "正确"</t>
   </si>
   <si>
-    <t>11.2350s</t>
+    <t>13.1030s</t>
   </si>
   <si>
     <t>后超</t>
@@ -229,16 +229,13 @@
  4、在进入新增联系人统计报告是否+1</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>22.2370s</t>
-  </si>
-  <si>
-    <t>.......</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:10:17</t>
+    <t>"不正确" 不等于 "正确"</t>
+  </si>
+  <si>
+    <t>22.7390s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:09:21</t>
   </si>
   <si>
     <t>3</t>
@@ -254,10 +251,16 @@
  4、在进入存量联系人统计报告是否+1</t>
   </si>
   <si>
-    <t>20.6190s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:10:38</t>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>24.5630s</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:09:46</t>
   </si>
   <si>
     <t>4</t>
@@ -275,10 +278,10 @@
     <t>近3个月</t>
   </si>
   <si>
-    <t>0.8220s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:10:39</t>
+    <t>0.7990s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:09:47</t>
   </si>
   <si>
     <t>5</t>
@@ -292,10 +295,10 @@
  2、验证是否选中【自己】;</t>
   </si>
   <si>
-    <t>12.3710s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:10:51</t>
+    <t>6.3670s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:09:54</t>
   </si>
   <si>
     <t>6</t>
@@ -319,10 +322,10 @@
     <t>账号未注册</t>
   </si>
   <si>
-    <t>3.9240s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:11:03</t>
+    <t>3.8540s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:10:06</t>
   </si>
   <si>
     <t>7</t>
@@ -340,10 +343,10 @@
     <t>请输入账号</t>
   </si>
   <si>
-    <t>3.7040s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:11:07</t>
+    <t>3.6590s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:10:10</t>
   </si>
   <si>
     <t>8</t>
@@ -361,10 +364,10 @@
     <t>密码错误请重新输入</t>
   </si>
   <si>
-    <t>4.0430s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:11:12</t>
+    <t>4.0290s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:10:14</t>
   </si>
   <si>
     <t>9</t>
@@ -379,10 +382,10 @@
  3、点击【登录】。</t>
   </si>
   <si>
-    <t>3.9650s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:11:16</t>
+    <t>3.9220s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:10:19</t>
   </si>
   <si>
     <t>10</t>
@@ -400,10 +403,10 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>3.8400s</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:11:20</t>
+    <t>3.8280s</t>
+  </si>
+  <si>
+    <t>2019-03-21 15:10:23</t>
   </si>
   <si>
     <t>test_switchCompany</t>
@@ -816,6 +819,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>923068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_contactsIncrease.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="1181100"/>
+          <a:ext cx="1591056" cy="923068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1181,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1189,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1360,31 +1401,28 @@
       <c r="F3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="L3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>55</v>
@@ -1393,16 +1431,16 @@
         <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>61</v>
@@ -1414,18 +1452,18 @@
         <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="78" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>55</v>
@@ -1434,39 +1472,39 @@
         <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="78" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>55</v>
@@ -1475,16 +1513,16 @@
         <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>61</v>
@@ -1493,259 +1531,259 @@
         <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="78" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="78" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="78" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="78" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="78" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="78" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>21</v>
@@ -1753,40 +1791,40 @@
     </row>
     <row r="13" spans="1:13" ht="78" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>21</v>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -75,19 +75,10 @@
     <t>Python3.7.0</t>
   </si>
   <si>
-    <t>['None', '后超']</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:08:58</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:10:25</t>
-  </si>
-  <si>
-    <t>0.799s</t>
-  </si>
-  <si>
-    <t>24.563s</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Nones</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -114,13 +105,13 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 14.1%', '当前频率': '782.0Hz', '用户占用率': '9.4%', '系统占用率': '3.1%', '空闲值': '87.4%'}</t>
+    <t>{'使用率': ' 9.2%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '4.7%', '空闲值': '92.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.18GB', '使用率': '59.7%', '占用': '4.72GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.906GB', '使用率': '63.3%', '占用': '5.00GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
@@ -132,7 +123,7 @@
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.7990MB', '网卡最大下行': '7.443MB'}</t>
+    <t>{'网卡最大上行': '1.8730MB', '网卡最大下行': '7.890MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -183,252 +174,44 @@
     <t>1</t>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>TestContactsReport</t>
-  </si>
-  <si>
-    <t>test_contactsDownload</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/dataReport</t>
-  </si>
-  <si>
-    <t>进入联系人报表下载报告是否成功:
- 1、通过url访问数据报表;
- 2、点击下载报告;
- 3、验证是否成功下载;</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>"报表下载完成" 不等于 "正确"</t>
-  </si>
-  <si>
-    <t>13.1030s</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>test_contactsIncrease</t>
-  </si>
-  <si>
-    <t>进入联系人报表选择公司验证新增联系人分布，新增联系人后是否+1:
- 1、通过url访问数据报表;
- 2、进入新增联系人统计报告数值;
- 3、新增联系人;
- 4、在进入新增联系人统计报告是否+1</t>
-  </si>
-  <si>
-    <t>"不正确" 不等于 "正确"</t>
-  </si>
-  <si>
-    <t>22.7390s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:09:21</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>test_contactsIncreaseStock</t>
-  </si>
-  <si>
-    <t>进入联系人报表选择公司验证存量联系人分布，新增联系人后是否+1:
- 1、通过url访问数据报表;
- 2、进入存量联系人统计报告数值;
- 3、新增联系人;
- 4、在进入存量联系人统计报告是否+1</t>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>test/122</t>
+  </si>
+  <si>
+    <t>符合规范的</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>1.256s</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>辅导费333</t>
+  </si>
+  <si>
+    <t>苟富贵</t>
+  </si>
+  <si>
+    <t>2018-12-25 17:34:10</t>
   </si>
   <si>
     <t>成功</t>
-  </si>
-  <si>
-    <t>24.5630s</t>
-  </si>
-  <si>
-    <t>.......</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:09:46</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>test_selectTrimester</t>
-  </si>
-  <si>
-    <t>进入联系人报表时间选择进3个月是否成功:
- 1、通过url访问数据报表;
- 2、点击近三个月;
- 3、验证是否选择成功;</t>
-  </si>
-  <si>
-    <t>近3个月</t>
-  </si>
-  <si>
-    <t>0.7990s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:09:47</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>test_valueDefault</t>
-  </si>
-  <si>
-    <t>进入联系人报表选择公司验证默认选中按钮:
- 1、通过url访问数据报表;
- 2、验证是否选中【自己】;</t>
-  </si>
-  <si>
-    <t>6.3670s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:09:54</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TestLogin</t>
-  </si>
-  <si>
-    <t>test_accountError</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/account/login</t>
-  </si>
-  <si>
-    <t>验证错误的用户名进行登录:
- 1、用户名输入框输入:{159285643130MX};
- 2、密码输入框输入:{123456};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>账号未注册</t>
-  </si>
-  <si>
-    <t>3.8540s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:10:06</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>test_accountNull</t>
-  </si>
-  <si>
-    <t>验证用户名为空格登录:
- 1、用户名输入框输入:{ };
- 2、密码输入框输入:{123456};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>请输入账号</t>
-  </si>
-  <si>
-    <t>3.6590s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:10:10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>test_passwordEnglish</t>
-  </si>
-  <si>
-    <t>验证密码为全英文字节登录:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{~!@#$%^&amp;*()};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>密码错误请重新输入</t>
-  </si>
-  <si>
-    <t>4.0290s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:10:14</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>test_passwordError</t>
-  </si>
-  <si>
-    <t>验证错误的密码登录:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{1234564444};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>3.9220s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:10:19</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>test_passwordNull</t>
-  </si>
-  <si>
-    <t>验证密码为空格登录:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{ };
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>请输入密码</t>
-  </si>
-  <si>
-    <t>3.8280s</t>
-  </si>
-  <si>
-    <t>2019-03-21 15:10:23</t>
-  </si>
-  <si>
-    <t>test_switchCompany</t>
-  </si>
-  <si>
-    <t>跳过</t>
-  </si>
-  <si>
-    <t>跳过原因: 暂时跳过！</t>
-  </si>
-  <si>
-    <t>test_success</t>
-  </si>
-  <si>
-    <t>跳过原因: 暂时跳过该用例，调试困难</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,19 +233,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF6600"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -508,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -523,9 +300,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -742,13 +516,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>88582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -766,89 +540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
+          <a:off x="0" y="571500"/>
           <a:ext cx="2057400" cy="660083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>923068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_contactsDownload.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17211675" y="190500"/>
-          <a:ext cx="1591056" cy="923068"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>923068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_contactsIncrease.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17211675" y="1181100"/>
-          <a:ext cx="1591056" cy="923068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1216,13 +909,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>12</v>
+        <v>7810</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>8</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1230,22 +923,20 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1256,19 +947,19 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="A2:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1277,7 +968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1305,546 +996,115 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="78" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="78" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="78" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="78" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="78" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="78" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="78" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="78" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="78" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="78" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="/dataReport"/>
-    <hyperlink ref="E3" r:id="rId2" location="/dataReport"/>
-    <hyperlink ref="E4" r:id="rId3" location="/dataReport"/>
-    <hyperlink ref="E5" r:id="rId4" location="/dataReport"/>
-    <hyperlink ref="E6" r:id="rId5" location="/dataReport"/>
-    <hyperlink ref="E7" r:id="rId6" location="/account/login"/>
-    <hyperlink ref="E8" r:id="rId7" location="/account/login"/>
-    <hyperlink ref="E9" r:id="rId8" location="/account/login"/>
-    <hyperlink ref="E10" r:id="rId9" location="/account/login"/>
-    <hyperlink ref="E11" r:id="rId10" location="/account/login"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1864,23 +1124,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1895,10 +1155,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1912,13 +1172,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1933,10 +1193,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1950,13 +1210,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1971,10 +1231,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1988,13 +1248,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2009,10 +1269,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2026,13 +1286,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2047,10 +1307,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>SCRM内贸项目测试环境UI自动化测试报告</t>
   </si>
@@ -75,10 +75,19 @@
     <t>Python3.7.0</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Nones</t>
+    <t>['后超', 'None']</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:22:19</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:25:14</t>
+  </si>
+  <si>
+    <t>0.762s</t>
+  </si>
+  <si>
+    <t>19.056s</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -105,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 9.2%', '当前频率': '782.0Hz', '用户占用率': '3.1%', '系统占用率': '4.7%', '空闲值': '92.0%'}</t>
+    <t>{'使用率': ' 28.1%', '当前频率': '2788.0Hz', '用户占用率': '1.6%', '系统占用率': '20.3%', '空闲值': '78.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '2.906GB', '使用率': '63.3%', '占用': '5.00GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '1GB', '使用率': '75.4%', '占用': '5.96GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '16.26GB', '剩余量': '815.24GB', '使用率': '2.0%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '16.60GB', '剩余量': '814.90GB', '使用率': '2.0%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.8730MB', '网卡最大下行': '7.890MB'}</t>
+    <t>{'网卡最大上行': '0.6344MB', '网卡最大下行': '2.478MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -174,44 +183,330 @@
     <t>1</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>test/122</t>
-  </si>
-  <si>
-    <t>符合规范的</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>1.256s</t>
+    <t>低</t>
+  </si>
+  <si>
+    <t>TestContactsReport</t>
+  </si>
+  <si>
+    <t>test_contactsDownload</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/dataReport</t>
+  </si>
+  <si>
+    <t>进入联系人报表下载报告是否成功:
+ 1、通过url访问数据报表;
+ 2、点击下载报告;
+ 3、验证是否成功下载;</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>"报表下载完成" 不等于 "正确"</t>
+  </si>
+  <si>
+    <t>14.0950s</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_contactsIncrease</t>
+  </si>
+  <si>
+    <t>进入联系人报表选择公司验证新增联系人分布，新增联系人后是否+1:
+ 1、通过url访问数据报表;
+ 2、进入新增联系人统计报告数值;
+ 3、新增联系人;
+ 4、在进入新增联系人统计报告是否+1</t>
   </si>
   <si>
     <t>错误</t>
   </si>
   <si>
-    <t>辅导费333</t>
-  </si>
-  <si>
-    <t>苟富贵</t>
-  </si>
-  <si>
-    <t>2018-12-25 17:34:10</t>
+    <t>新增联系人分布(总数26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 142, in is_click
+    self.operation_element(element).click()
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 80, in click
+    self._execute(Command.CLICK_ELEMENT)
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 633, in _execute
+    return self._parent.execute(command, params)
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webdriver.py", line 321, in execute
+    self.error_handler.check_response(response)
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/errorhandler.py", line 242, in check_response
+    raise exception_class(message, screen, stacktrace)
+selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;button data-v-97fed99e="" type="button" class="ivu-btn ivu-btn-text ivu-btn-large g-btn-yes"&gt;...&lt;/button&gt; is not clickable at point (1220, 695). Other element would receive the click: &lt;div data-v-97fed99e="" class="loading-bg" style=""&gt;...&lt;/div&gt;
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "D:/work_file/auto_script/UI/SCRM/data_report/contacts_report_st.py", line 85, in test_contactsIncrease
+    driver.add_contacts(location=2, text="请输入邮箱", content=content, save=6)
+  File "D:/work_file/auto_script/UI/SCRM/data_report/currency.py", line 115, in add_contacts
+    self.is_click(self.str_conversion(self.add_contacts_button, save), wait_time=4)
+  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 146, in is_click
+    self.operation_element(element).click()
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 80, in click
+    self._execute(Command.CLICK_ELEMENT)
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 633, in _execute
+    return self._parent.execute(command, params)
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webdriver.py", line 321, in execute
+    self.error_handler.check_response(response)
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/errorhandler.py", line 242, in check_response
+    raise exception_class(message, screen, stacktrace)
+selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;button data-v-97fed99e="" type="button" class="ivu-btn ivu-btn-text ivu-btn-large g-btn-yes"&gt;...&lt;/button&gt; is not clickable at point (1220, 695). Other element would receive the click: &lt;div data-v-97fed99e="" class="loading-bg" style=""&gt;...&lt;/div&gt;
+  (Session info: chrome=72.0.3626.119)
+  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
+</t>
+  </si>
+  <si>
+    <t>10.5270s</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:22:30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_contactsIncreaseStock</t>
+  </si>
+  <si>
+    <t>进入联系人报表选择公司验证存量联系人分布，新增联系人后是否+1:
+ 1、通过url访问数据报表;
+ 2、进入存量联系人统计报告数值;
+ 3、新增联系人;
+ 4、在进入存量联系人统计报告是否+1</t>
+  </si>
+  <si>
+    <t>存量联系人分布(总数39)
+截止当前时间</t>
+  </si>
+  <si>
+    <t>"存量联系人分布(总数39)
+截止当前时间" 等于 "存量联系人分布(总数39)
+截止当前时间"</t>
+  </si>
+  <si>
+    <t>19.0560s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:22:49</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>test_selectTrimester</t>
+  </si>
+  <si>
+    <t>进入联系人报表时间选择进3个月是否成功:
+ 1、通过url访问数据报表;
+ 2、点击近三个月;
+ 3、验证是否选择成功;</t>
   </si>
   <si>
     <t>成功</t>
+  </si>
+  <si>
+    <t>近3个月</t>
+  </si>
+  <si>
+    <t>0.7620s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:22:50</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>test_valueDefault</t>
+  </si>
+  <si>
+    <t>进入联系人报表选择公司验证默认选中按钮:
+ 1、通过url访问数据报表;
+ 2、验证是否选中【自己】;</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>16.3670s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:23:06</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TestLogin</t>
+  </si>
+  <si>
+    <t>test_accountError</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/account/login</t>
+  </si>
+  <si>
+    <t>验证错误的用户名进行登录:
+ 1、用户名输入框输入:{159285643130MX};
+ 2、密码输入框输入:{123456};
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>账号未注册</t>
+  </si>
+  <si>
+    <t>4.4080s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:24:00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>test_accountNull</t>
+  </si>
+  <si>
+    <t>验证用户名为空格登录:
+ 1、用户名输入框输入:{ };
+ 2、密码输入框输入:{123456};
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>请输入账号</t>
+  </si>
+  <si>
+    <t>3.6610s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:24:04</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>test_passwordEnglish</t>
+  </si>
+  <si>
+    <t>验证密码为全英文字节登录:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{~!@#$%^&amp;*()};
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>密码错误请重新输入</t>
+  </si>
+  <si>
+    <t>4.1540s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:24:08</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>test_passwordError</t>
+  </si>
+  <si>
+    <t>验证错误的密码登录:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{1234564444};
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>3.8970s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:24:12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>test_passwordNull</t>
+  </si>
+  <si>
+    <t>验证密码为空格登录:
+ 1、用户名输入框输入:{15928564313};
+ 2、密码输入框输入:{ };
+ 3、点击【登录】。</t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>4.0790s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:24:17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>TestMarketingTransformation</t>
+  </si>
+  <si>
+    <t>test_mailCopy</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/market/email/list/release</t>
+  </si>
+  <si>
+    <t>进入邮件营销库，复制第一条营销邮件:
+ 1、通过url访问邮箱邮件库;
+ 2、hover后点击复制;
+ 3、验证是否能正常跳转到复制页面</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>4.9860s</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:25:11</t>
+  </si>
+  <si>
+    <t>test_switchCompany</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>跳过原因: 暂时跳过！</t>
+  </si>
+  <si>
+    <t>test_success</t>
+  </si>
+  <si>
+    <t>跳过原因: 暂时跳过该用例，调试困难</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +528,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -240,6 +541,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -285,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -300,6 +607,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -542,6 +855,87 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="2057400" cy="660083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>923068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_contactsDownload.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="190500"/>
+          <a:ext cx="1591056" cy="923068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>923068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_contactsIncreaseStock.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="2171700"/>
+          <a:ext cx="1591056" cy="923068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -909,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>7810</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>7810</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -923,20 +1317,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -947,13 +1343,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -996,115 +1392,588 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="78" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="78" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="78" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="78" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="78" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="78" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="78" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="78" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="78" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="78" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="78" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="/dataReport"/>
+    <hyperlink ref="E3" r:id="rId2" location="/dataReport"/>
+    <hyperlink ref="E4" r:id="rId3" location="/dataReport"/>
+    <hyperlink ref="E5" r:id="rId4" location="/dataReport"/>
+    <hyperlink ref="E6" r:id="rId5" location="/dataReport"/>
+    <hyperlink ref="E7" r:id="rId6" location="/account/login"/>
+    <hyperlink ref="E8" r:id="rId7" location="/account/login"/>
+    <hyperlink ref="E9" r:id="rId8" location="/account/login"/>
+    <hyperlink ref="E10" r:id="rId9" location="/account/login"/>
+    <hyperlink ref="E11" r:id="rId10" location="/account/login"/>
+    <hyperlink ref="E12" r:id="rId11" location="/market/email/list/release"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1124,23 +1993,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1155,10 +2024,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1172,13 +2041,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1193,10 +2062,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1210,13 +2079,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1231,10 +2100,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1248,13 +2117,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1269,10 +2138,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1286,13 +2155,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1307,10 +2176,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
-  <si>
-    <t>SCRM内贸项目测试环境UI自动化测试报告</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="294">
+  <si>
+    <t>Manufacture线上环境UI自动化测试报告</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -57,7 +57,7 @@
     <t>跳过数</t>
   </si>
   <si>
-    <t>其他情况</t>
+    <t>执行用例总耗时</t>
   </si>
   <si>
     <t>用例最短耗时</t>
@@ -66,28 +66,31 @@
     <t>用例最长耗时</t>
   </si>
   <si>
-    <t>V2.1.10.11</t>
-  </si>
-  <si>
-    <t>内贸项目测试环境</t>
+    <t>V0.0.0</t>
+  </si>
+  <si>
+    <t>线上环境</t>
   </si>
   <si>
     <t>Python3.7.0</t>
   </si>
   <si>
-    <t>['后超', 'None']</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:22:19</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:25:14</t>
-  </si>
-  <si>
-    <t>0.762s</t>
-  </si>
-  <si>
-    <t>19.056s</t>
+    <t>['None', '王海宾', '后超']</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:36:42</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:57</t>
+  </si>
+  <si>
+    <t>4.250分钟</t>
+  </si>
+  <si>
+    <t>4.1340秒</t>
+  </si>
+  <si>
+    <t>24.8910秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -114,25 +117,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 28.1%', '当前频率': '2788.0Hz', '用户占用率': '1.6%', '系统占用率': '20.3%', '空闲值': '78.0%'}</t>
+    <t>{'使用率': ' 6.3%', '当前频率': '1394.0Hz', '用户占用率': '3.1%', '系统占用率': '10.8%', '空闲值': '84.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '1GB', '使用率': '75.4%', '占用': '5.96GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.613GB', '使用率': '54.3%', '占用': '4.29GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '16.60GB', '剩余量': '814.90GB', '使用率': '2.0%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '17GB', '剩余量': '813.64GB', '使用率': '2.1%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.6344MB', '网卡最大下行': '2.478MB'}</t>
+    <t>{'网卡最大上行': '2.258MB', '网卡最大下行': '9.960MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -183,330 +186,828 @@
     <t>1</t>
   </si>
   <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>TestMarketing</t>
+  </si>
+  <si>
+    <t>test_market</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn</t>
+  </si>
+  <si>
+    <t>验证marketing是否能正常打开;
+ 1、打开首页;
+ 2、点击marketing;
+ 3、断言跳转的url是否包含{/nav/13.html}</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>16.6140秒</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>王海宾</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_market_concept</t>
+  </si>
+  <si>
+    <t>验证marketing页中concept页签是否能正常打开;
+ 1、打开首页;
+ 2、点击marketing;
+ 3、点击Concept;
+ 4、断言跳转的url是否包含{/intro/10.html}</t>
+  </si>
+  <si>
+    <t>13.6960秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:36:56</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_market_marketing_knowledge</t>
+  </si>
+  <si>
+    <t>验证marketing页中concept页签是否能正常打开;
+ 1、打开首页;
+ 2、点击marketing;
+ 3、点击Marketing knowledge;
+ 4、断言跳转的url是否包含{/intro/12.html}</t>
+  </si>
+  <si>
+    <t>9.8520秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:06</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>test_market_network</t>
+  </si>
+  <si>
+    <t>验证marketing页中concept页签是否能正常打开;
+ 1、打开首页;
+ 2、点击marketing;
+ 3、点击Network;
+ 4、断言跳转的url是否包含{/intro/11.html}</t>
+  </si>
+  <si>
+    <t>9.9030秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:16</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>低</t>
   </si>
   <si>
-    <t>TestContactsReport</t>
-  </si>
-  <si>
-    <t>test_contactsDownload</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/dataReport</t>
-  </si>
-  <si>
-    <t>进入联系人报表下载报告是否成功:
- 1、通过url访问数据报表;
- 2、点击下载报告;
- 3、验证是否成功下载;</t>
+    <t>TestCompanyNewsTable</t>
+  </si>
+  <si>
+    <t>test_company_news_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/news/2/</t>
+  </si>
+  <si>
+    <t>验证CompanyNews图片新闻是否能进入详情并跳转;
+ 1、打开CompanyNews;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/48.html}</t>
+  </si>
+  <si>
+    <t>8.1580秒</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:31</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>test_download</t>
+  </si>
+  <si>
+    <t>验证Download是否正常跳转;
+ 1、打开CompanyNews;
+ 2、点击Download;
+ 3、断言跳转的url是否包含{/news/8/}</t>
+  </si>
+  <si>
+    <t>4.8810秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:36</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>test_download_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/news/8/</t>
+  </si>
+  <si>
+    <t>验证Download图片新闻是否能进入详情并跳转;
+ 1、打开Download;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/24.html}</t>
+  </si>
+  <si>
+    <t>4.7790秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:41</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>test_equipment</t>
+  </si>
+  <si>
+    <t>验证Equipment是否正常跳转;
+ 1、打开CompanyNews;
+ 2、点击Equipment;
+ 3、断言跳转的url是否包含{/news/9/}</t>
+  </si>
+  <si>
+    <t>4.9870秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:46</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>test_equipment_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/news/9/</t>
+  </si>
+  <si>
+    <t>验证Equipment图片新闻是否能进入详情并跳转;
+ 1、打开Equipment;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/62.html}</t>
+  </si>
+  <si>
+    <t>4.6570秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:51</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>test_industry_dynamics_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/news/10/</t>
+  </si>
+  <si>
+    <t>验证IndustryDynamics图片新闻是否能进入详情并跳转;
+ 1、打开IndustryDynamics;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/70.html}</t>
+  </si>
+  <si>
+    <t>4.3310秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:37:55</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>test_knowledge_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/news/4/</t>
+  </si>
+  <si>
+    <t>验证Knowledge图片新闻是否能进入详情并跳转;
+ 1、打开Knowledge;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/14.html}</t>
+  </si>
+  <si>
+    <t>4.7770秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>test_notice_info</t>
+  </si>
+  <si>
+    <t>验证Notice图片新闻是否能进入详情并跳转;
+ 1、打开Notice;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/14.html}</t>
+  </si>
+  <si>
+    <t>4.4250秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:05</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>test_public_welfare</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/news/6/</t>
+  </si>
+  <si>
+    <t>验证PublicWelfare图片新闻是否能进入详情并跳转;
+ 1、打开PublicWelfare;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/71.html}</t>
+  </si>
+  <si>
+    <t>4.7510秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>test_technology</t>
+  </si>
+  <si>
+    <t>验证Technology是否正常跳转;
+ 1、打开CompanyNews;
+ 2、点击Technology;
+ 3、断言跳转的url是否包含{/news/10/}</t>
+  </si>
+  <si>
+    <t>5.1650秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:15</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>test_technology_info</t>
+  </si>
+  <si>
+    <t>验证Technology图片新闻是否能进入详情并跳转;
+ 1、打开Technology;
+ 2、点击第{1}张新闻图片;
+ 3、断言跳转的url是否包含{/news/70.html}</t>
+  </si>
+  <si>
+    <t>4.3420秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:20</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>TestNewsTable</t>
+  </si>
+  <si>
+    <t>test_company_news</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/nav/10.html</t>
+  </si>
+  <si>
+    <t>验证CompanyNews是否能正常跳转;
+ 1、打开News;
+ 2、点击CompanyNews;
+ 3、断言跳转的url是否包含{/news/2/}</t>
+  </si>
+  <si>
+    <t>5.8620秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:32</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>test_industry_dynamics</t>
+  </si>
+  <si>
+    <t>验证IndustryDynamics是否能正常跳转;
+ 1、打开News;
+ 2、点击IndustryDynamics;
+ 3、断言跳转的url是否包含{/news/3/}</t>
+  </si>
+  <si>
+    <t>4.8500秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:37</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>test_knowledge</t>
+  </si>
+  <si>
+    <t>验证Knowledge是否能正常跳转;
+ 1、打开News;
+ 2、点击Knowledge;
+ 3、断言跳转的url是否包含{/news/5/}</t>
+  </si>
+  <si>
+    <t>5.0160秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:43</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>test_news_center</t>
+  </si>
+  <si>
+    <t>验证NewsCenter是否能正常跳转;
+ 1、打开News;
+ 2、点击NewsCenter中的第{1}条数据;
+ 3、断言跳转的url是否包含{/news/}</t>
+  </si>
+  <si>
+    <t>4.4990秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:38:47</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>test_news_center_next_page</t>
+  </si>
+  <si>
+    <t>验证NewsCenter点击下一页是否正常跳转;
+ 1、打开News;
+ 2、点击NewsCenter;
+ 3、点击下一页;
+ 4、断言跳转的url是否包含{/nav/10.html#c_news_list-15487307331178472}</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>"报表下载完成" 不等于 "正确"</t>
-  </si>
-  <si>
-    <t>14.0950s</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>test_contactsIncrease</t>
-  </si>
-  <si>
-    <t>进入联系人报表选择公司验证新增联系人分布，新增联系人后是否+1:
- 1、通过url访问数据报表;
- 2、进入新增联系人统计报告数值;
- 3、新增联系人;
- 4、在进入新增联系人统计报告是否+1</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>新增联系人分布(总数26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 142, in is_click
-    self.operation_element(element).click()
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 633, in _execute
-    return self._parent.execute(command, params)
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webdriver.py", line 321, in execute
-    self.error_handler.check_response(response)
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/errorhandler.py", line 242, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;button data-v-97fed99e="" type="button" class="ivu-btn ivu-btn-text ivu-btn-large g-btn-yes"&gt;...&lt;/button&gt; is not clickable at point (1220, 695). Other element would receive the click: &lt;div data-v-97fed99e="" class="loading-bg" style=""&gt;...&lt;/div&gt;
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "D:/work_file/auto_script/UI/SCRM/data_report/contacts_report_st.py", line 85, in test_contactsIncrease
-    driver.add_contacts(location=2, text="请输入邮箱", content=content, save=6)
-  File "D:/work_file/auto_script/UI/SCRM/data_report/currency.py", line 115, in add_contacts
-    self.is_click(self.str_conversion(self.add_contacts_button, save), wait_time=4)
-  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 146, in is_click
-    self.operation_element(element).click()
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webelement.py", line 633, in _execute
-    return self._parent.execute(command, params)
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/webdriver.py", line 321, in execute
-    self.error_handler.check_response(response)
-  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/remote/errorhandler.py", line 242, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.WebDriverException: Message: unknown error: Element &lt;button data-v-97fed99e="" type="button" class="ivu-btn ivu-btn-text ivu-btn-large g-btn-yes"&gt;...&lt;/button&gt; is not clickable at point (1220, 695). Other element would receive the click: &lt;div data-v-97fed99e="" class="loading-bg" style=""&gt;...&lt;/div&gt;
-  (Session info: chrome=72.0.3626.119)
-  (Driver info: chromedriver=72.0.3626.69 (3c16f8a135abc0d4da2dff33804db79b849a7c38),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>10.5270s</t>
-  </si>
-  <si>
-    <t>.......</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:22:30</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>test_contactsIncreaseStock</t>
-  </si>
-  <si>
-    <t>进入联系人报表选择公司验证存量联系人分布，新增联系人后是否+1:
- 1、通过url访问数据报表;
- 2、进入存量联系人统计报告数值;
- 3、新增联系人;
- 4、在进入存量联系人统计报告是否+1</t>
-  </si>
-  <si>
-    <t>存量联系人分布(总数39)
-截止当前时间</t>
-  </si>
-  <si>
-    <t>"存量联系人分布(总数39)
-截止当前时间" 等于 "存量联系人分布(总数39)
-截止当前时间"</t>
-  </si>
-  <si>
-    <t>19.0560s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:22:49</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>test_selectTrimester</t>
-  </si>
-  <si>
-    <t>进入联系人报表时间选择进3个月是否成功:
- 1、通过url访问数据报表;
- 2、点击近三个月;
- 3、验证是否选择成功;</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>近3个月</t>
-  </si>
-  <si>
-    <t>0.7620s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:22:50</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>test_valueDefault</t>
-  </si>
-  <si>
-    <t>进入联系人报表选择公司验证默认选中按钮:
- 1、通过url访问数据报表;
- 2、验证是否选中【自己】;</t>
-  </si>
-  <si>
-    <t>自己</t>
-  </si>
-  <si>
-    <t>16.3670s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:23:06</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TestLogin</t>
-  </si>
-  <si>
-    <t>test_accountError</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/account/login</t>
-  </si>
-  <si>
-    <t>验证错误的用户名进行登录:
- 1、用户名输入框输入:{159285643130MX};
- 2、密码输入框输入:{123456};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>账号未注册</t>
-  </si>
-  <si>
-    <t>4.4080s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:24:00</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>test_accountNull</t>
-  </si>
-  <si>
-    <t>验证用户名为空格登录:
- 1、用户名输入框输入:{ };
- 2、密码输入框输入:{123456};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>请输入账号</t>
-  </si>
-  <si>
-    <t>3.6610s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:24:04</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>test_passwordEnglish</t>
-  </si>
-  <si>
-    <t>验证密码为全英文字节登录:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{~!@#$%^&amp;*()};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>密码错误请重新输入</t>
-  </si>
-  <si>
-    <t>4.1540s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:24:08</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>test_passwordError</t>
-  </si>
-  <si>
-    <t>验证错误的密码登录:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{1234564444};
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>3.8970s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:24:12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>test_passwordNull</t>
-  </si>
-  <si>
-    <t>验证密码为空格登录:
- 1、用户名输入框输入:{15928564313};
- 2、密码输入框输入:{ };
- 3、点击【登录】。</t>
-  </si>
-  <si>
-    <t>请输入密码</t>
-  </si>
-  <si>
-    <t>4.0790s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:24:17</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>TestMarketingTransformation</t>
-  </si>
-  <si>
-    <t>test_mailCopy</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/market/email/list/release</t>
-  </si>
-  <si>
-    <t>进入邮件营销库，复制第一条营销邮件:
- 1、通过url访问邮箱邮件库;
- 2、hover后点击复制;
- 3、验证是否能正常跳转到复制页面</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>4.9860s</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:25:11</t>
-  </si>
-  <si>
-    <t>test_switchCompany</t>
+    <t>"False" 不等于 "True"</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:12</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>test_notice</t>
+  </si>
+  <si>
+    <t>验证Notice是否能正常跳转;
+ 1、打开News;
+ 2、点击Notice;
+ 3、断言跳转的url是否包含{/news/4/}</t>
+  </si>
+  <si>
+    <t>5.0260秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>验证PublicWelfare是否能正常跳转;
+ 1、打开News;
+ 2、点击PublicWelfare;
+ 3、断言跳转的url是否包含{/news/6/}</t>
+  </si>
+  <si>
+    <t>4.7870秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:23</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>InModuleInfo</t>
+  </si>
+  <si>
+    <t>test_automotive_brake_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/7/</t>
+  </si>
+  <si>
+    <t>验证automotive_brake图片详情是否能正常跳转;
+ 1、打开automotive_brake;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/152.html}</t>
+  </si>
+  <si>
+    <t>6.8480秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:36</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>test_automotive_filter_series_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/5/</t>
+  </si>
+  <si>
+    <t>验证AutomotiveFilterSeries图片详情是否能正常跳转;
+ 1、打开AutomotiveFilterSeries;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/162.html}</t>
+  </si>
+  <si>
+    <t>5.0860秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:41</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>test_compressor_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/8/</t>
+  </si>
+  <si>
+    <t>验证Compressor图片详情是否能正常跳转;
+ 1、打开Compressor;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/145.html}</t>
+  </si>
+  <si>
+    <t>4.4180秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:46</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>test_general_rubber_parts_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/13/</t>
+  </si>
+  <si>
+    <t>验证general_rubber_parts图片详情是否能正常跳转;
+ 1、打开general_rubber_parts;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/126.html}</t>
+  </si>
+  <si>
+    <t>4.3360秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:51</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>test_motor_drain_valve_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/10/</t>
+  </si>
+  <si>
+    <t>验证motor_drain_valve图片详情是否能正常跳转;
+ 1、打开motor_drain_valve;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/138.html}</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:39:55</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>test_rubber_miscellaneous_items_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/12/</t>
+  </si>
+  <si>
+    <t>验证rubber_miscellaneous_items图片详情是否能正常跳转;
+ 1、打开rubber_miscellaneous_items;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/135.html}</t>
+  </si>
+  <si>
+    <t>4.5430秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:00</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>test_seal_series_or_oil_seal_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/9/</t>
+  </si>
+  <si>
+    <t>验证seal_series_or_oil_seal图片详情是否能正常跳转;
+ 1、打开seal_series_or_oil_seal;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/139.html}</t>
+  </si>
+  <si>
+    <t>4.3680秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:04</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>test_shock_absorber_info</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/product/11/</t>
+  </si>
+  <si>
+    <t>验证shock_absorber图片详情是否能正常跳转;
+ 1、打开shock_absorber;
+ 2、点击第{1}张图片;
+ 3、断言跳转的url是否包含{/product/137.html}</t>
+  </si>
+  <si>
+    <t>6.0080秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:11</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>TestTechnologyTable</t>
+  </si>
+  <si>
+    <t>4.9530秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:28</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>4.4120秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:33</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>test_switch_download</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn/nav/12.html</t>
+  </si>
+  <si>
+    <t>验证Download是否能正常跳转;
+ 1、打开Technology;
+ 2、点击Download;
+ 3、断言跳转的url是否包含{/news/8/}</t>
+  </si>
+  <si>
+    <t>4.8850秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:38</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>test_switch_equipment</t>
+  </si>
+  <si>
+    <t>验证Equipment是否能正常跳转;
+ 1、打开Technology;
+ 2、点击Equipment;
+ 3、断言跳转的url是否包含{/news/9/}</t>
+  </si>
+  <si>
+    <t>5.7740秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:44</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>test_switch_technology</t>
+  </si>
+  <si>
+    <t>验证Technology是否能正常跳转;
+ 1、打开Technology;
+ 2、点击Technology;
+ 3、断言跳转的url是否包含{/news/10/}</t>
+  </si>
+  <si>
+    <t>5.5250秒</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:50</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2019-03-29 16:40:55</t>
+  </si>
+  <si>
+    <t>TestAboutUs</t>
+  </si>
+  <si>
+    <t>test_honor</t>
   </si>
   <si>
     <t>跳过</t>
   </si>
   <si>
-    <t>跳过原因: 暂时跳过！</t>
-  </si>
-  <si>
-    <t>test_success</t>
-  </si>
-  <si>
-    <t>跳过原因: 暂时跳过该用例，调试困难</t>
+    <t>跳过原因: 为了执行速度，暂时跳过</t>
+  </si>
+  <si>
+    <t>test_honor_img</t>
+  </si>
+  <si>
+    <t>test_honor_next_page</t>
+  </si>
+  <si>
+    <t>test_organization</t>
+  </si>
+  <si>
+    <t>test_philosophy</t>
+  </si>
+  <si>
+    <t>test_profile</t>
+  </si>
+  <si>
+    <t>test_speech</t>
+  </si>
+  <si>
+    <t>test_staff_style</t>
+  </si>
+  <si>
+    <t>test_staff_style_img</t>
+  </si>
+  <si>
+    <t>test_staff_style_next_page</t>
+  </si>
+  <si>
+    <t>TestHome</t>
+  </si>
+  <si>
+    <t>test_about_us</t>
+  </si>
+  <si>
+    <t>test_contact_us</t>
+  </si>
+  <si>
+    <t>test_product_center</t>
+  </si>
+  <si>
+    <t>test_technological_strength</t>
+  </si>
+  <si>
+    <t>TestNewCenter</t>
+  </si>
+  <si>
+    <t>test_good_news_table_one</t>
+  </si>
+  <si>
+    <t>test_good_news_table_two</t>
+  </si>
+  <si>
+    <t>test_launching</t>
+  </si>
+  <si>
+    <t>test_market_about</t>
+  </si>
+  <si>
+    <t>跳过原因: 暂时跳过</t>
+  </si>
+  <si>
+    <t>test_market_contact</t>
+  </si>
+  <si>
+    <t>test_market_home</t>
+  </si>
+  <si>
+    <t>test_market_news</t>
+  </si>
+  <si>
+    <t>test_market_product</t>
+  </si>
+  <si>
+    <t>test_market_technology</t>
+  </si>
+  <si>
+    <t>TestProductsCenterTable</t>
+  </si>
+  <si>
+    <t>test_automotive_brake</t>
+  </si>
+  <si>
+    <t>test_automotive_filter_series</t>
+  </si>
+  <si>
+    <t>test_compressor</t>
+  </si>
+  <si>
+    <t>test_general_rubber_parts</t>
+  </si>
+  <si>
+    <t>test_motor_drain_valve</t>
+  </si>
+  <si>
+    <t>test_rubber_miscellaneous_items</t>
+  </si>
+  <si>
+    <t>test_seal_series_or_oil_seal</t>
+  </si>
+  <si>
+    <t>test_shock_absorber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,19 +1029,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -592,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -610,9 +1105,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -642,7 +1134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SCRM简报统计图</a:t>
+              <a:t>Manufacture简报统计图</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -833,10 +1325,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88582</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -854,7 +1346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="571500"/>
-          <a:ext cx="2057400" cy="660083"/>
+          <a:ext cx="1200150" cy="346710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,18 +1364,18 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>923068</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>974408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_contactsDownload.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_news_center_next_page.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -896,46 +1388,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17211675" y="190500"/>
-          <a:ext cx="1591056" cy="923068"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>923068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="test_contactsIncreaseStock.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17211675" y="2171700"/>
-          <a:ext cx="1591056" cy="923068"/>
+          <a:off x="17211675" y="19011900"/>
+          <a:ext cx="1591056" cy="974408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1317,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1331,25 +1785,27 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1392,69 +1848,69 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="78" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>62</v>
@@ -1462,8 +1918,11 @@
       <c r="J2" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>20</v>
@@ -1471,509 +1930,2748 @@
     </row>
     <row r="3" spans="1:13" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="78" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="78" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="78" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="78" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="78" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="78" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="78" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
+        <v>109</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="78" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="78" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>84</v>
+        <v>121</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="78" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="78" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="78" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="G15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="78" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="78" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="78" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="78" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="78" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="78" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="78" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="78" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="78" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="78" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="78" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="78" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="78" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="78" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="78" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="78" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="78" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="78" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="78" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="78" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="78" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="78" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="78" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="78" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="78" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="78" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="78" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="78" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="78" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="78" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="78" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="78" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="78" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="78" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="78" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="78" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="78" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="78" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="78" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="78" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="78" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="78" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="78" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="78" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="78" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="78" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="78" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="78" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="78" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="78" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="78" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="78" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="78" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="/dataReport"/>
-    <hyperlink ref="E3" r:id="rId2" location="/dataReport"/>
-    <hyperlink ref="E4" r:id="rId3" location="/dataReport"/>
-    <hyperlink ref="E5" r:id="rId4" location="/dataReport"/>
-    <hyperlink ref="E6" r:id="rId5" location="/dataReport"/>
-    <hyperlink ref="E7" r:id="rId6" location="/account/login"/>
-    <hyperlink ref="E8" r:id="rId7" location="/account/login"/>
-    <hyperlink ref="E9" r:id="rId8" location="/account/login"/>
-    <hyperlink ref="E10" r:id="rId9" location="/account/login"/>
-    <hyperlink ref="E11" r:id="rId10" location="/account/login"/>
-    <hyperlink ref="E12" r:id="rId11" location="/market/email/list/release"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -1993,23 +4691,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2024,10 +4722,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2041,13 +4739,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2062,10 +4760,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2079,13 +4777,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2100,10 +4798,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2117,13 +4815,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2138,10 +4836,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2155,13 +4853,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2176,10 +4874,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="198">
   <si>
     <t>Manufacture线上环境UI自动化测试报告</t>
   </si>
@@ -72,16 +72,25 @@
     <t>线上环境</t>
   </si>
   <si>
-    <t>Python3.7.0</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>2019-04-03 18:13:12</t>
-  </si>
-  <si>
-    <t>0.0000秒</t>
+    <t>Python3.6.5</t>
+  </si>
+  <si>
+    <t>['后超']</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:18:56</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:23:19</t>
+  </si>
+  <si>
+    <t>4.383分钟</t>
+  </si>
+  <si>
+    <t>2.4750秒</t>
+  </si>
+  <si>
+    <t>7.5540秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -108,31 +117,31 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 1.6%', '当前频率': '1190.0Hz', '用户占用率': '1.6%', '系统占用率': '12.5%', '空闲值': '85.8%'}</t>
-  </si>
-  <si>
-    <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
-  </si>
-  <si>
-    <t>{'容量': '7.90GB', '空闲': '2.583GB', '使用率': '67.3%', '占用': '5.32GB'}</t>
-  </si>
-  <si>
-    <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
-  </si>
-  <si>
-    <t>{'容量': '831.GB', '已使用量': '17.89GB', '剩余量': '813.61GB', '使用率': '2.2%'}</t>
-  </si>
-  <si>
-    <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
-  </si>
-  <si>
-    <t>{'网卡最大上行': '0.9454MB', '网卡最大下行': '3.6845MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
-  </si>
-  <si>
-    <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
+    <t>{'使用率': ' 0.0%', '当前频率': '1600.0Hz', '用户占用率': '0.0%', '系统占用率': '3.1%', '空闲值': '96.9%'}</t>
+  </si>
+  <si>
+    <t>{'名称': 'Intel(R) Core(TM) i5-2300 CPU @ 2.80GHz', '核心数': 4, '位数': 64, '最大速度': 3101, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'DESKTOP-RAFN6EL'}</t>
+  </si>
+  <si>
+    <t>{'容量': '7.96GB', '空闲': '4.307GB', '使用率': '45.9%', '占用': '3.65GB'}</t>
+  </si>
+  <si>
+    <t>{'条数': '2', '容量': '8.0GB', '位数': 64, '型号': '99U5471-056.A00LF', '频率': '1333MHz', '厂家': 'Kingston'}</t>
+  </si>
+  <si>
+    <t>{'容量': '200.0GB', '已使用量': '87.1GB', '剩余量': '112.82GB', '使用率': '43.6%'}</t>
+  </si>
+  <si>
+    <t>{'品牌': 'ST1000DM003-1ER162 ATA Device', '型号': 'S4Y2BGNM', '容量': '0.90TB'}</t>
+  </si>
+  <si>
+    <t>{'网卡最大上行': '0.5811MB', '网卡最大下行': '1.164MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.1.3', '子网掩码': '255.255.255.0', 'MAC地址': 'FC:AA:14:35:55:52', '网关地址': '192.168.1.1', 'DNS地址': ('61.139.2.69', '192.168.1.1'), '网卡类别': 'Realtek PCIe GBE Family Controller'}</t>
+  </si>
+  <si>
+    <t>{'电脑名称': 'DESKTOP-RAFN6EL', '操作系统': 'Windows-10-10.0.16299-SP0', '操作系统位数': ('32bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
   </si>
   <si>
     <t>#</t>
@@ -174,7 +183,217 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>.......</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>TestNewCenter</t>
+  </si>
+  <si>
+    <t>test_good_news_table_one</t>
+  </si>
+  <si>
+    <t>http://1903265005.pool4-site.make.yun300.cn</t>
+  </si>
+  <si>
+    <t>验证GoodNews是否能正常打开并跳转;
+ 1、打开首页;
+ 2、点击GoodNews;
+ 3、断言跳转的url是否包含{/news/71.html}</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>7.5547秒</t>
+  </si>
+  <si>
+    <t>.........</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:20:28</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test_good_news_table_two</t>
+  </si>
+  <si>
+    <t>验证GoodNewsTwo是否能正常打开并跳转;
+ 1、打开首页;
+ 2、点击GoodNewsTwo;
+ 3、断言跳转的url是否包含{/news/48.html}</t>
+  </si>
+  <si>
+    <t>2.4759秒</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:20:31</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>test_launching</t>
+  </si>
+  <si>
+    <t>验证launching是否能正常打开并跳转;
+ 1、打开首页;
+ 2、点击launching;
+ 3、断言跳转的url是否包含{/news/47.html}</t>
+  </si>
+  <si>
+    <t>2.4929秒</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:20:35</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6.3906秒</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:21:29</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.4177秒</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:21:33</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.6209秒</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:21:38</t>
+  </si>
+  <si>
+    <t>InModuleInfo</t>
+  </si>
+  <si>
+    <t>test_automotive_brake_info</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>跳过原因: DS</t>
+  </si>
+  <si>
+    <t>2019-04-05 15:22:42</t>
+  </si>
+  <si>
+    <t>test_automotive_filter_series_info</t>
+  </si>
+  <si>
+    <t>test_compressor_info</t>
+  </si>
+  <si>
+    <t>test_general_rubber_parts_info</t>
+  </si>
+  <si>
+    <t>test_motor_drain_valve_info</t>
+  </si>
+  <si>
+    <t>test_rubber_miscellaneous_items_info</t>
+  </si>
+  <si>
+    <t>test_seal_series_or_oil_seal_info</t>
+  </si>
+  <si>
+    <t>test_shock_absorber_info</t>
+  </si>
+  <si>
+    <t>TestAboutUs</t>
+  </si>
+  <si>
+    <t>test_honor</t>
+  </si>
+  <si>
+    <t>跳过原因: K</t>
+  </si>
+  <si>
+    <t>test_honor_img</t>
+  </si>
+  <si>
+    <t>test_honor_next_page</t>
+  </si>
+  <si>
+    <t>test_organization</t>
+  </si>
+  <si>
+    <t>test_philosophy</t>
+  </si>
+  <si>
+    <t>test_profile</t>
+  </si>
+  <si>
+    <t>test_speech</t>
+  </si>
+  <si>
+    <t>test_staff_style</t>
+  </si>
+  <si>
+    <t>test_staff_style_img</t>
+  </si>
+  <si>
+    <t>test_staff_style_next_page</t>
+  </si>
+  <si>
+    <t>TestCompanyNewsTable</t>
+  </si>
+  <si>
+    <t>test_company_news_info</t>
+  </si>
+  <si>
+    <t>跳过原因: D</t>
+  </si>
+  <si>
+    <t>test_download</t>
+  </si>
+  <si>
+    <t>test_download_info</t>
+  </si>
+  <si>
+    <t>test_equipment</t>
+  </si>
+  <si>
+    <t>test_equipment_info</t>
+  </si>
+  <si>
+    <t>test_industry_dynamics_info</t>
+  </si>
+  <si>
+    <t>test_knowledge_info</t>
+  </si>
+  <si>
+    <t>test_notice_info</t>
+  </si>
+  <si>
+    <t>test_public_welfare</t>
+  </si>
+  <si>
+    <t>test_technology</t>
+  </si>
+  <si>
+    <t>test_technology_info</t>
   </si>
   <si>
     <t>TestContact</t>
@@ -183,9 +402,6 @@
     <t>test_ContactUs</t>
   </si>
   <si>
-    <t>跳过</t>
-  </si>
-  <si>
     <t>跳过原因: KJ</t>
   </si>
   <si>
@@ -193,13 +409,223 @@
   </si>
   <si>
     <t>test_contact</t>
+  </si>
+  <si>
+    <t>TestHome</t>
+  </si>
+  <si>
+    <t>test_about_us</t>
+  </si>
+  <si>
+    <t>跳过原因: B</t>
+  </si>
+  <si>
+    <t>test_contact_us</t>
+  </si>
+  <si>
+    <t>test_product_center</t>
+  </si>
+  <si>
+    <t>test_technological_strength</t>
+  </si>
+  <si>
+    <t>TestMarketing</t>
+  </si>
+  <si>
+    <t>test_market</t>
+  </si>
+  <si>
+    <t>跳过原因: G</t>
+  </si>
+  <si>
+    <t>test_market_about</t>
+  </si>
+  <si>
+    <t>test_market_concept</t>
+  </si>
+  <si>
+    <t>test_market_contact</t>
+  </si>
+  <si>
+    <t>test_market_home</t>
+  </si>
+  <si>
+    <t>test_market_marketing_knowledge</t>
+  </si>
+  <si>
+    <t>test_market_network</t>
+  </si>
+  <si>
+    <t>test_market_news</t>
+  </si>
+  <si>
+    <t>test_market_product</t>
+  </si>
+  <si>
+    <t>test_market_technology</t>
+  </si>
+  <si>
+    <t>TestMarketingContactAbout</t>
+  </si>
+  <si>
+    <t>test_market_contact_about</t>
+  </si>
+  <si>
+    <t>跳过原因: PK</t>
+  </si>
+  <si>
+    <t>test_market_contact_about_organization</t>
+  </si>
+  <si>
+    <t>test_market_contact_about_philosophy</t>
+  </si>
+  <si>
+    <t>test_market_contact_about_stafStyle</t>
+  </si>
+  <si>
+    <t>test_market_contect_about_honor</t>
+  </si>
+  <si>
+    <t>test_market_contect_about_profile</t>
+  </si>
+  <si>
+    <t>test_market_contect_about_speech</t>
+  </si>
+  <si>
+    <t>test_market_contect_about_system</t>
+  </si>
+  <si>
+    <t>TestMarketingContactNews</t>
+  </si>
+  <si>
+    <t>test_market_contact_knowledge</t>
+  </si>
+  <si>
+    <t>跳过原因: OP</t>
+  </si>
+  <si>
+    <t>test_market_contact_news</t>
+  </si>
+  <si>
+    <t>test_market_contact_publicWelfare</t>
+  </si>
+  <si>
+    <t>test_market_contect_companyNews</t>
+  </si>
+  <si>
+    <t>test_market_contect_industryDynamics</t>
+  </si>
+  <si>
+    <t>test_market_contect_notice</t>
+  </si>
+  <si>
+    <t>TestMarketingContactProducts</t>
+  </si>
+  <si>
+    <t>test_market_contact_products</t>
+  </si>
+  <si>
+    <t>跳过原因: HJ</t>
+  </si>
+  <si>
+    <t>test_market_contect_automoticeFilterSeries</t>
+  </si>
+  <si>
+    <t>test_market_contect_automotiveBrake</t>
+  </si>
+  <si>
+    <t>test_market_contect_compressor</t>
+  </si>
+  <si>
+    <t>test_market_contect_generalRubberParts</t>
+  </si>
+  <si>
+    <t>test_market_contect_motorDrainValue</t>
+  </si>
+  <si>
+    <t>test_market_contect_rubberMiscellaneousItems</t>
+  </si>
+  <si>
+    <t>test_market_contect_sealSeriesOilSeal</t>
+  </si>
+  <si>
+    <t>test_market_contect_shockAbsorber</t>
+  </si>
+  <si>
+    <t>TestNewsTable</t>
+  </si>
+  <si>
+    <t>test_company_news</t>
+  </si>
+  <si>
+    <t>跳过原因: I</t>
+  </si>
+  <si>
+    <t>test_industry_dynamics</t>
+  </si>
+  <si>
+    <t>test_knowledge</t>
+  </si>
+  <si>
+    <t>test_news_center</t>
+  </si>
+  <si>
+    <t>test_news_center_next_page</t>
+  </si>
+  <si>
+    <t>test_notice</t>
+  </si>
+  <si>
+    <t>TestProductsCenterTable</t>
+  </si>
+  <si>
+    <t>test_automotive_brake</t>
+  </si>
+  <si>
+    <t>跳过原因: Y</t>
+  </si>
+  <si>
+    <t>test_automotive_filter_series</t>
+  </si>
+  <si>
+    <t>test_compressor</t>
+  </si>
+  <si>
+    <t>test_general_rubber_parts</t>
+  </si>
+  <si>
+    <t>test_motor_drain_valve</t>
+  </si>
+  <si>
+    <t>test_rubber_miscellaneous_items</t>
+  </si>
+  <si>
+    <t>test_seal_series_or_oil_seal</t>
+  </si>
+  <si>
+    <t>test_shock_absorber</t>
+  </si>
+  <si>
+    <t>TestTechnologyTable</t>
+  </si>
+  <si>
+    <t>跳过原因: H</t>
+  </si>
+  <si>
+    <t>test_switch_download</t>
+  </si>
+  <si>
+    <t>test_switch_equipment</t>
+  </si>
+  <si>
+    <t>test_switch_technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +642,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -267,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -279,6 +711,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -880,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -888,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -916,13 +1351,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -930,13 +1365,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -979,169 +1414,7680 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="78" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="120" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="78" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="120" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="78" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>20</v>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="120" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="120" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="120" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="120" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="120" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="120" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="120" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="120" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="120" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="120" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="120" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="120" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="120" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="120" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="120" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="120" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="120" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="120" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="120" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="120" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="120" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="120" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="120" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="120" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="120" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="120" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="120" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="120" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="120" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="120" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="120" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="120" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="120" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="120" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="120" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="120" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="120" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="120" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="120" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="120" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="120" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="120" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="120" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="120" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="120" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="120" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="120" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="120" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="120" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="120" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="120" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="120" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="120" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="120" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="120" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="120" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="120" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="120" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="120" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="120" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="120" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="120" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="120" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="120" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="120" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="120" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="120" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="120" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="120" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="120" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="120" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="120" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="120" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="120" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="120" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="120" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="120" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="120" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="120" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="120" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="120" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="120" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="120" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="120" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="120" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="120" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="120" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="120" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="120" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="120" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="120" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="120" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="120" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="120" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="120" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="120" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="120" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="120" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="120" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="120" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="120" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="120" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="120" customHeight="1">
+      <c r="A118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="120" customHeight="1">
+      <c r="A119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="120" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="120" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="120" customHeight="1">
+      <c r="A122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="120" customHeight="1">
+      <c r="A123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="120" customHeight="1">
+      <c r="A124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="120" customHeight="1">
+      <c r="A125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="120" customHeight="1">
+      <c r="A126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="120" customHeight="1">
+      <c r="A127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="120" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="120" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="120" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="120" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="120" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="120" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="120" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="120" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="120" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="120" customHeight="1">
+      <c r="A137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="120" customHeight="1">
+      <c r="A138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="120" customHeight="1">
+      <c r="A139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="120" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="120" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="120" customHeight="1">
+      <c r="A142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="120" customHeight="1">
+      <c r="A143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="120" customHeight="1">
+      <c r="A144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="120" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="120" customHeight="1">
+      <c r="A146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="120" customHeight="1">
+      <c r="A147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="120" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="120" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="120" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="120" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="120" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="120" customHeight="1">
+      <c r="A153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="120" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="120" customHeight="1">
+      <c r="A155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="120" customHeight="1">
+      <c r="A156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="120" customHeight="1">
+      <c r="A157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="120" customHeight="1">
+      <c r="A158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="120" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="120" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="120" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="120" customHeight="1">
+      <c r="A162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="120" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="120" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="120" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="120" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="120" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="120" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="120" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="120" customHeight="1">
+      <c r="A170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="120" customHeight="1">
+      <c r="A171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="120" customHeight="1">
+      <c r="A172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="120" customHeight="1">
+      <c r="A173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="120" customHeight="1">
+      <c r="A174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="120" customHeight="1">
+      <c r="A175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="120" customHeight="1">
+      <c r="A176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="120" customHeight="1">
+      <c r="A177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="120" customHeight="1">
+      <c r="A178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="120" customHeight="1">
+      <c r="A179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="120" customHeight="1">
+      <c r="A180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="120" customHeight="1">
+      <c r="A181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="120" customHeight="1">
+      <c r="A182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="120" customHeight="1">
+      <c r="A183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="120" customHeight="1">
+      <c r="A184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="120" customHeight="1">
+      <c r="A185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="120" customHeight="1">
+      <c r="A186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="120" customHeight="1">
+      <c r="A187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1162,23 +9108,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1193,10 +9139,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1210,13 +9156,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1231,10 +9177,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1248,13 +9194,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1269,10 +9215,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1286,13 +9232,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1307,10 +9253,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1324,13 +9270,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1345,10 +9291,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -78,16 +78,19 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-04-10 17:11:14</t>
-  </si>
-  <si>
-    <t>2019-04-10 17:11:23</t>
-  </si>
-  <si>
-    <t>9.0000秒</t>
-  </si>
-  <si>
-    <t>2.4600秒</t>
+    <t>2019-04-11 17:31:18</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:34:13</t>
+  </si>
+  <si>
+    <t>2.917分钟</t>
+  </si>
+  <si>
+    <t>9.1470秒</t>
+  </si>
+  <si>
+    <t>46.8290秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -114,25 +117,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 18.7%', '当前频率': '1870.0Hz', '用户占用率': '3.1%', '系统占用率': '4.6%', '空闲值': '90.8%'}</t>
+    <t>{'使用率': ' 4.7%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '6.2%', '空闲值': '93.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.07GB', '使用率': '48.5%', '占用': '3.83GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.49GB', '使用率': '68.5%', '占用': '5.41GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.35GB', '剩余量': '813.15GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.05GB', '剩余量': '813.45GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.9758MB', '网卡最大下行': '6.43MB'}</t>
+    <t>{'网卡最大上行': '2.3432MB', '网卡最大下行': '8.33MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -180,56 +183,262 @@
     <t>用例完成时间</t>
   </si>
   <si>
+    <t>SCRM.workbench.shortcut_function_st</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>ShortcutFunction</t>
+  </si>
+  <si>
+    <t>test_create_mail</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/home</t>
+  </si>
+  <si>
+    <t>验证新建邮件快捷功能是否能正常跳转
+ 1、点击{新建邮件};</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>收件人:</t>
+  </si>
+  <si>
+    <t>9.5040秒</t>
+  </si>
+  <si>
+    <t>.........</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:31:45</t>
+  </si>
+  <si>
+    <t>SCRM.workbench.three_table_st</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>ThreeTable</t>
+  </si>
+  <si>
+    <t>test_mail_star</t>
+  </si>
+  <si>
+    <t>验证星标邮件是否成功
+ 1、选择第{1}条邮件;
+ 2、点击星标</t>
+  </si>
+  <si>
+    <t>标记为星标邮件成功</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:31:47</t>
+  </si>
+  <si>
+    <t>test_today_task</t>
+  </si>
+  <si>
+    <t>验证新增任务后今日任务统计是否+1
+ 1、点击{新增任务};
+ 2、任务主题输入{测试任务主题};
+ 3、负责人选择当前登录的人员;
+ 4、点击【确定】，并提示{任务新增成功}，刷新浏览器</t>
+  </si>
+  <si>
+    <t>今日任务(7)</t>
+  </si>
+  <si>
+    <t>今日任务(6)</t>
+  </si>
+  <si>
+    <t>24.1230秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:32:11</t>
+  </si>
+  <si>
+    <t>test_create_task</t>
+  </si>
+  <si>
+    <t>验证新增任务快捷功能是否能正常跳转
+ 1、点击{新增任务};</t>
+  </si>
+  <si>
+    <t>任务主题 *</t>
+  </si>
+  <si>
+    <t>29.5750秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:32:15</t>
+  </si>
+  <si>
     <t>SCRM.workbench.work_effectiveness_st</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>WorkEffectiveness</t>
   </si>
   <si>
+    <t>test_create_contacts</t>
+  </si>
+  <si>
+    <t>验证新增联系人后，工作台【新增联系人】是否会+1
+ 1、点击{新增联系人}并提示{联系人已成功创建！};
+ 2、输入邮箱地址{201904111236@qq.com};
+ 3、点击【保存】;
+ 4、刷新浏览器查看是否+1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:32:30</t>
+  </si>
+  <si>
+    <t>test_marketing_fixed</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件流程固定日期快捷功能是否能正常跳转
+ 1、点击{新建营销邮件流程};
+ 2、选择{固定日期型}，点击{确定};
+ 3、验证跳转的URL是否包含{/flow/flow_new?type=2&amp;value=}</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>23.6920秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:32:39</t>
+  </si>
+  <si>
+    <t>test_marketing_standard</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件流程标准快捷功能是否能正常跳转
+ 1、点击{新建营销邮件流程};
+ 2、选择{标准}，点击{确定};
+ 3、验证跳转的URL是否包含{/flow/flow_new?type=1}</t>
+  </si>
+  <si>
+    <t>16.5550秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:32:55</t>
+  </si>
+  <si>
+    <t>test_create_customer</t>
+  </si>
+  <si>
+    <t>验证新增客户后，工作台【新增客户】是否会+1
+ 1、点击{新增客户}并提示{保存成功！};
+ 2、输入国家选择{中国};
+ 3、输入{测试客户}后，点击【保存】;
+ 4、刷新浏览器查看是否+1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30.1520秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:33:00</t>
+  </si>
+  <si>
+    <t>SCRM.workbench.work_effectiveness_st.WorkEffectiveness</t>
+  </si>
+  <si>
     <t>test_send_ordinary_mail</t>
   </si>
   <si>
-    <t>https://www.scrm365.cn/#/home</t>
-  </si>
-  <si>
-    <t>验证发送普通邮件后，工作台【发送普通邮件】是否会+1
- 1、点击{新建邮件}；
- 2、收件人输入{1063116271@qq.com}；
- 3、主题输入{自动化测试}；
- 4、刷新浏览器查看是否+1</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:/work_file/auto_script/UI/SCRM/workbench/work_effectiveness_st.py", line 40, in test_send_ordinary_mail
-    self.assertEqual(self.first, self.second)
-  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 851, in assertEqual
-    assertion_func(first, second, msg=msg)
-  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 844, in _baseAssertEqual
-    raise self.failureException(msg)
-AssertionError: `` != None
-</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2019-04-10 17:11:20</t>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>跳过原因: 创建邮件后，延迟比较严重..</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:33:03</t>
+  </si>
+  <si>
+    <t>test_marketing_week</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件流程周期快捷功能是否能正常跳转
+ 1、点击{新建营销邮件流程};
+ 2、选择{周期型}，选择{生日}，点击{确定};
+ 3、验证跳转的URL是否包含{/flow_new?type=3&amp;value=birth_day}</t>
+  </si>
+  <si>
+    <t>27.5630秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:33:23</t>
+  </si>
+  <si>
+    <t>test_quick_create_contacts</t>
+  </si>
+  <si>
+    <t>验证新增联系人快捷功能是否能正常跳转
+ 1、点击{新增联系人};</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>13.6840秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:33:37</t>
+  </si>
+  <si>
+    <t>test_quick_create_customer</t>
+  </si>
+  <si>
+    <t>验证新增客户快捷功能是否能正常跳转
+ 1、点击{新增客户};</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>17.1080秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:33:55</t>
+  </si>
+  <si>
+    <t>test_quick_create_marketing</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件快捷功能是否能正常跳转
+ 1、点击{新建营销邮件};
+ 2、验证跳转的URL是否包含{template/myTemplate}</t>
+  </si>
+  <si>
+    <t>15.8070秒</t>
+  </si>
+  <si>
+    <t>2019-04-11 17:34:11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,7 +460,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -297,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -309,6 +524,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -551,49 +769,6 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="2057400" cy="660083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1417320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_send_ordinary_mail.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18545175" y="190500"/>
-          <a:ext cx="1591056" cy="1417320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -961,13 +1136,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -975,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -989,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1009,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1052,89 +1227,594 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="120" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="120" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="120" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="120" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="120" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="120" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="120" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="/home"/>
+    <hyperlink ref="E3" r:id="rId2" location="/home"/>
+    <hyperlink ref="E4" r:id="rId3" location="/home"/>
+    <hyperlink ref="E5" r:id="rId4" location="/home"/>
+    <hyperlink ref="E6" r:id="rId5" location="/home"/>
+    <hyperlink ref="E7" r:id="rId6" location="/home"/>
+    <hyperlink ref="E8" r:id="rId7" location="/home"/>
+    <hyperlink ref="E9" r:id="rId8" location="/home"/>
+    <hyperlink ref="E11" r:id="rId9" location="/home"/>
+    <hyperlink ref="E12" r:id="rId10" location="/home"/>
+    <hyperlink ref="E13" r:id="rId11" location="/home"/>
+    <hyperlink ref="E14" r:id="rId12" location="/home"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1154,23 +1834,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1185,10 +1865,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1202,13 +1882,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1223,10 +1903,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1240,13 +1920,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1261,10 +1941,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1278,13 +1958,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1299,10 +1979,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1316,13 +1996,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1337,10 +2017,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="201">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -78,19 +78,19 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-04-11 17:31:18</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:34:13</t>
-  </si>
-  <si>
-    <t>2.917分钟</t>
-  </si>
-  <si>
-    <t>9.1470秒</t>
-  </si>
-  <si>
-    <t>46.8290秒</t>
+    <t>2019-04-18 19:23:35</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:35:19</t>
+  </si>
+  <si>
+    <t>11.733分钟</t>
+  </si>
+  <si>
+    <t>1.0110秒</t>
+  </si>
+  <si>
+    <t>56.9930秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -117,28 +117,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 4.7%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '6.2%', '空闲值': '93.6%'}</t>
+    <t>{'使用率': ' 10.9%', '当前频率': '1394.0Hz', '用户占用率': '6.2%', '系统占用率': '9.2%', '空闲值': '83.1%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '2.49GB', '使用率': '68.5%', '占用': '5.41GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.02GB', '使用率': '49.1%', '占用': '3.88GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.05GB', '剩余量': '813.45GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.0GB', '剩余量': '813.45GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '2.3432MB', '网卡最大下行': '8.33MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.67', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'网卡最大上行': '1.5922MB', '网卡最大下行': '6.055MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.25', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -208,7 +208,7 @@
     <t>收件人:</t>
   </si>
   <si>
-    <t>9.5040秒</t>
+    <t>11.1390秒</t>
   </si>
   <si>
     <t>.........</t>
@@ -217,7 +217,7 @@
     <t>后超</t>
   </si>
   <si>
-    <t>2019-04-11 17:31:45</t>
+    <t>2019-04-18 19:24:22</t>
   </si>
   <si>
     <t>SCRM.workbench.three_table_st</t>
@@ -240,7 +240,26 @@
     <t>标记为星标邮件成功</t>
   </si>
   <si>
-    <t>2019-04-11 17:31:47</t>
+    <t>11.6160秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:24:30</t>
+  </si>
+  <si>
+    <t>test_create_task</t>
+  </si>
+  <si>
+    <t>验证新增任务快捷功能是否能正常跳转
+ 1、点击{新增任务};</t>
+  </si>
+  <si>
+    <t>任务主题 *</t>
+  </si>
+  <si>
+    <t>13.4630秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:24:36</t>
   </si>
   <si>
     <t>test_today_task</t>
@@ -253,32 +272,16 @@
  4、点击【确定】，并提示{任务新增成功}，刷新浏览器</t>
   </si>
   <si>
-    <t>今日任务(7)</t>
-  </si>
-  <si>
-    <t>今日任务(6)</t>
-  </si>
-  <si>
-    <t>24.1230秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:32:11</t>
-  </si>
-  <si>
-    <t>test_create_task</t>
-  </si>
-  <si>
-    <t>验证新增任务快捷功能是否能正常跳转
- 1、点击{新增任务};</t>
-  </si>
-  <si>
-    <t>任务主题 *</t>
-  </si>
-  <si>
-    <t>29.5750秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:32:15</t>
+    <t>今日任务(15)</t>
+  </si>
+  <si>
+    <t>今日任务(14)</t>
+  </si>
+  <si>
+    <t>21.0020秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:24:52</t>
   </si>
   <si>
     <t>SCRM.workbench.work_effectiveness_st</t>
@@ -297,13 +300,13 @@
  4、刷新浏览器查看是否+1</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:32:30</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>32.1780秒</t>
   </si>
   <si>
     <t>test_marketing_fixed</t>
@@ -318,10 +321,60 @@
     <t>True</t>
   </si>
   <si>
-    <t>23.6920秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:32:39</t>
+    <t>17.5280秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:24:54</t>
+  </si>
+  <si>
+    <t>SCRM.jurisdiction.coordination_app_st</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>CoordinationApp</t>
+  </si>
+  <si>
+    <t>test_close_SkyDrive</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/manage/authority_setting</t>
+  </si>
+  <si>
+    <t>关闭网盘管理权限，验证网盘管理是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，关闭{网盘管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/document/public};
+ 3、验证是否存在{新建文件}</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>51.1280秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:10</t>
+  </si>
+  <si>
+    <t>SCRM.jurisdiction.sale_manage_st</t>
+  </si>
+  <si>
+    <t>SaleManage</t>
+  </si>
+  <si>
+    <t>test_close_distribution</t>
+  </si>
+  <si>
+    <t>关闭分配权限，验证分配按钮是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{分配}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{分配}是否存在;</t>
+  </si>
+  <si>
+    <t>1.034分钟</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:13</t>
   </si>
   <si>
     <t>test_marketing_standard</t>
@@ -333,10 +386,10 @@
  3、验证跳转的URL是否包含{/flow/flow_new?type=1}</t>
   </si>
   <si>
-    <t>16.5550秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:32:55</t>
+    <t>20.2020秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:16</t>
   </si>
   <si>
     <t>test_create_customer</t>
@@ -349,13 +402,10 @@
  4、刷新浏览器查看是否+1</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30.1520秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:33:00</t>
+    <t>29.8910秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:23</t>
   </si>
   <si>
     <t>SCRM.workbench.work_effectiveness_st.WorkEffectiveness</t>
@@ -370,7 +420,7 @@
     <t>跳过原因: 创建邮件后，延迟比较严重..</t>
   </si>
   <si>
-    <t>2019-04-11 17:33:03</t>
+    <t>2019-04-18 19:25:27</t>
   </si>
   <si>
     <t>test_marketing_week</t>
@@ -382,10 +432,25 @@
  3、验证跳转的URL是否包含{/flow_new?type=3&amp;value=birth_day}</t>
   </si>
   <si>
-    <t>27.5630秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:33:23</t>
+    <t>14.7090秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:31</t>
+  </si>
+  <si>
+    <t>test_open_SkyDrive</t>
+  </si>
+  <si>
+    <t>打开网盘管理权限，验证网盘管理是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，打开{网盘管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/document/public};
+ 3、验证是否存在{上传}</t>
+  </si>
+  <si>
+    <t>29.6300秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:40</t>
   </si>
   <si>
     <t>test_quick_create_contacts</t>
@@ -398,10 +463,10 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>13.6840秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:33:37</t>
+    <t>15.0870秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:25:46</t>
   </si>
   <si>
     <t>test_quick_create_customer</t>
@@ -414,10 +479,21 @@
     <t>客户名称</t>
   </si>
   <si>
-    <t>17.1080秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:33:55</t>
+    <t>17.1130秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:26:04</t>
+  </si>
+  <si>
+    <t>test_close_export</t>
+  </si>
+  <si>
+    <t>关闭导出权限，验证导出按钮是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{导出}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{导出客户}是否存在;</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:26:10</t>
   </si>
   <si>
     <t>test_quick_create_marketing</t>
@@ -428,17 +504,207 @@
  2、验证跳转的URL是否包含{template/myTemplate}</t>
   </si>
   <si>
-    <t>15.8070秒</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:34:11</t>
+    <t>27.2290秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:26:31</t>
+  </si>
+  <si>
+    <t>test_close_field</t>
+  </si>
+  <si>
+    <t>关闭设置属性字段分配权限，验证设置属性字段是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{设置属性字段}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/tag?state=contact};
+ 3、验证是否存在{属性字段}</t>
+  </si>
+  <si>
+    <t>1.092分钟</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:27:16</t>
+  </si>
+  <si>
+    <t>test_close_import</t>
+  </si>
+  <si>
+    <t>关闭导入权限，验证导入按钮是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{导入}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{导入客户/联系人}是否存在;</t>
+  </si>
+  <si>
+    <t>41.7650秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:27:58</t>
+  </si>
+  <si>
+    <t>test_close_private</t>
+  </si>
+  <si>
+    <t>关闭私海管理权限，验证私海管理是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{私海管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/filed?state=contact};
+ 3、验证是否存在{私海客户限额}</t>
+  </si>
+  <si>
+    <t>47.9600秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:28:46</t>
+  </si>
+  <si>
+    <t>test_close_public</t>
+  </si>
+  <si>
+    <t>关闭公海管理权限，验证公海管理是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{公海管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/tag?state=contact};
+ 3、验证是否存在{公海客户}</t>
+  </si>
+  <si>
+    <t>56.7570秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:29:43</t>
+  </si>
+  <si>
+    <t>test_close_tag</t>
+  </si>
+  <si>
+    <t>关闭标签管理权限，验证标签管理是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{标签管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/globalClient/rule};
+ 3、验证是否存在{标签}</t>
+  </si>
+  <si>
+    <t>56.3210秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:30:40</t>
+  </si>
+  <si>
+    <t>test_open_distribution</t>
+  </si>
+  <si>
+    <t>开启分配权限，验证分配按钮是否存在
+ 1、使用超管账号，进入权限管理后台，开启{分配}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{分配}是否存在;</t>
+  </si>
+  <si>
+    <t>52.4720秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:31:32</t>
+  </si>
+  <si>
+    <t>test_open_export</t>
+  </si>
+  <si>
+    <t>开启导出权限，验证导出按钮是否存在
+ 1、使用超管账号，进入权限管理后台，开启{导出}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{导出客户}是否存在;</t>
+  </si>
+  <si>
+    <t>1.011分钟</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:32:33</t>
+  </si>
+  <si>
+    <t>test_open_field</t>
+  </si>
+  <si>
+    <t>开启设置属性字段分配权限，验证设置属性字段是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{设置属性字段}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/tag?state=contact};
+ 3、验证是否存在{属性字段}</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:/work_file/auto_script/UI/SCRM/jurisdiction/sale_manage_st.py", line 239, in test_open_field
+    self.assertEqual(self.first, self.second)
+  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 851, in assertEqual
+    assertion_func(first, second, msg=msg)
+  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 844, in _baseAssertEqual
+    raise self.failureException(msg)
+AssertionError: False != True
+</t>
+  </si>
+  <si>
+    <t>54.6280秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:33:28</t>
+  </si>
+  <si>
+    <t>test_open_import</t>
+  </si>
+  <si>
+    <t>开启导入权限，验证导入按钮是否存在
+ 1、使用超管账号，进入权限管理后台，开启{导入}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{导入客户/联系人}是否存在</t>
+  </si>
+  <si>
+    <t>24.1160秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:33:53</t>
+  </si>
+  <si>
+    <t>test_open_private</t>
+  </si>
+  <si>
+    <t>开启私海管理权限，验证私海管理是否存在
+ 1、使用超管账号，进入权限管理后台，开启{私海管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/filed?state=contact};
+ 3、验证是否存在{私海客户限额}</t>
+  </si>
+  <si>
+    <t>28.8820秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:34:22</t>
+  </si>
+  <si>
+    <t>test_open_public</t>
+  </si>
+  <si>
+    <t>开启公海管理权限，验证公海管理是否存在
+ 1、使用超管账号，进入权限管理后台，开启{公海管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/globalClient/rule};
+ 3、验证是否存在{公海客户}</t>
+  </si>
+  <si>
+    <t>31.6710秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:34:54</t>
+  </si>
+  <si>
+    <t>test_open_tag</t>
+  </si>
+  <si>
+    <t>开启标签管理权限，验证标签管理是否存在
+ 1、使用超管账号，进入权限管理后台，开启{标签管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/globalClient/rule};
+ 3、验证是否存在{标签}</t>
+  </si>
+  <si>
+    <t>19.4350秒</t>
+  </si>
+  <si>
+    <t>2019-04-18 19:35:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +733,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF800000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -512,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -527,6 +799,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -769,6 +1044,49 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="2057400" cy="660083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9906</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1417320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_open_field.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18545175" y="36766500"/>
+          <a:ext cx="1591056" cy="1417320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1199,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1336,7 +1654,7 @@
         <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>64</v>
@@ -1345,33 +1663,33 @@
         <v>65</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>77</v>
@@ -1391,13 +1709,13 @@
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>80</v>
@@ -1415,10 +1733,10 @@
         <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>64</v>
@@ -1427,39 +1745,39 @@
         <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>64</v>
@@ -1468,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
@@ -1482,25 +1800,25 @@
         <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>64</v>
@@ -1509,39 +1827,39 @@
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>64</v>
@@ -1550,39 +1868,39 @@
         <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>64</v>
@@ -1591,80 +1909,80 @@
         <v>65</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>64</v>
@@ -1673,48 +1991,48 @@
         <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
@@ -1728,25 +2046,25 @@
         <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>64</v>
@@ -1755,39 +2073,39 @@
         <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>64</v>
@@ -1796,7 +2114,660 @@
         <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="120" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="120" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="120" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="120" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="120" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="120" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="120" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="120" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="120" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="120" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1807,14 +2778,31 @@
     <hyperlink ref="E5" r:id="rId4" location="/home"/>
     <hyperlink ref="E6" r:id="rId5" location="/home"/>
     <hyperlink ref="E7" r:id="rId6" location="/home"/>
-    <hyperlink ref="E8" r:id="rId7" location="/home"/>
-    <hyperlink ref="E9" r:id="rId8" location="/home"/>
-    <hyperlink ref="E11" r:id="rId9" location="/home"/>
-    <hyperlink ref="E12" r:id="rId10" location="/home"/>
+    <hyperlink ref="E8" r:id="rId7" location="/manage/authority_setting"/>
+    <hyperlink ref="E9" r:id="rId8" location="/manage/authority_setting"/>
+    <hyperlink ref="E10" r:id="rId9" location="/home"/>
+    <hyperlink ref="E11" r:id="rId10" location="/home"/>
     <hyperlink ref="E13" r:id="rId11" location="/home"/>
-    <hyperlink ref="E14" r:id="rId12" location="/home"/>
+    <hyperlink ref="E14" r:id="rId12" location="/manage/authority_setting"/>
+    <hyperlink ref="E15" r:id="rId13" location="/home"/>
+    <hyperlink ref="E16" r:id="rId14" location="/home"/>
+    <hyperlink ref="E17" r:id="rId15" location="/manage/authority_setting"/>
+    <hyperlink ref="E18" r:id="rId16" location="/home"/>
+    <hyperlink ref="E19" r:id="rId17" location="/manage/authority_setting"/>
+    <hyperlink ref="E20" r:id="rId18" location="/manage/authority_setting"/>
+    <hyperlink ref="E21" r:id="rId19" location="/manage/authority_setting"/>
+    <hyperlink ref="E22" r:id="rId20" location="/manage/authority_setting"/>
+    <hyperlink ref="E23" r:id="rId21" location="/manage/authority_setting"/>
+    <hyperlink ref="E24" r:id="rId22" location="/manage/authority_setting"/>
+    <hyperlink ref="E25" r:id="rId23" location="/manage/authority_setting"/>
+    <hyperlink ref="E26" r:id="rId24" location="/manage/authority_setting"/>
+    <hyperlink ref="E27" r:id="rId25" location="/manage/authority_setting"/>
+    <hyperlink ref="E28" r:id="rId26" location="/manage/authority_setting"/>
+    <hyperlink ref="E29" r:id="rId27" location="/manage/authority_setting"/>
+    <hyperlink ref="E30" r:id="rId28" location="/manage/authority_setting"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -1834,13 +2822,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="246">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -66,7 +66,7 @@
     <t>用例最长耗时</t>
   </si>
   <si>
-    <t>V1.7.0</t>
+    <t>V1.7.5</t>
   </si>
   <si>
     <t>线上环境</t>
@@ -78,19 +78,19 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-04-18 19:23:35</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:35:19</t>
-  </si>
-  <si>
-    <t>11.733分钟</t>
-  </si>
-  <si>
-    <t>1.0110秒</t>
-  </si>
-  <si>
-    <t>56.9930秒</t>
+    <t>2019-04-19 16:54:50</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:06:26</t>
+  </si>
+  <si>
+    <t>11.600分钟</t>
+  </si>
+  <si>
+    <t>1.0020秒</t>
+  </si>
+  <si>
+    <t>59.0770秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -117,25 +117,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 10.9%', '当前频率': '1394.0Hz', '用户占用率': '6.2%', '系统占用率': '9.2%', '空闲值': '83.1%'}</t>
+    <t>{'使用率': ' 6.2%', '当前频率': '1870.0Hz', '用户占用率': '1.6%', '系统占用率': '0.0%', '空闲值': '98.3%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.02GB', '使用率': '49.1%', '占用': '3.88GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.650GB', '使用率': '66.5%', '占用': '5.25GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.0GB', '剩余量': '813.45GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.05GB', '剩余量': '813.45GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.5922MB', '网卡最大下行': '6.055MB'}</t>
+    <t>{'网卡最大上行': '1.9027MB', '网卡最大下行': '7.417MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.25', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -183,53 +183,19 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>SCRM.workbench.shortcut_function_st</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>ShortcutFunction</t>
-  </si>
-  <si>
-    <t>test_create_mail</t>
+    <t>SCRM.workbench.three_table_st</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>ThreeTable</t>
+  </si>
+  <si>
+    <t>test_mail_star</t>
   </si>
   <si>
     <t>https://www.scrm365.cn/#/home</t>
-  </si>
-  <si>
-    <t>验证新建邮件快捷功能是否能正常跳转
- 1、点击{新建邮件};</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>收件人:</t>
-  </si>
-  <si>
-    <t>11.1390秒</t>
-  </si>
-  <si>
-    <t>.........</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:24:22</t>
-  </si>
-  <si>
-    <t>SCRM.workbench.three_table_st</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>ThreeTable</t>
-  </si>
-  <si>
-    <t>test_mail_star</t>
   </si>
   <si>
     <t>验证星标邮件是否成功
@@ -237,29 +203,22 @@
  2、点击星标</t>
   </si>
   <si>
+    <t>成功</t>
+  </si>
+  <si>
     <t>标记为星标邮件成功</t>
   </si>
   <si>
-    <t>11.6160秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:24:30</t>
-  </si>
-  <si>
-    <t>test_create_task</t>
-  </si>
-  <si>
-    <t>验证新增任务快捷功能是否能正常跳转
- 1、点击{新增任务};</t>
-  </si>
-  <si>
-    <t>任务主题 *</t>
-  </si>
-  <si>
-    <t>13.4630秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:24:36</t>
+    <t>3.9780秒</t>
+  </si>
+  <si>
+    <t>.........</t>
+  </si>
+  <si>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:55:36</t>
   </si>
   <si>
     <t>test_today_task</t>
@@ -272,16 +231,146 @@
  4、点击【确定】，并提示{任务新增成功}，刷新浏览器</t>
   </si>
   <si>
+    <t>今日任务(16)</t>
+  </si>
+  <si>
     <t>今日任务(15)</t>
   </si>
   <si>
-    <t>今日任务(14)</t>
-  </si>
-  <si>
-    <t>21.0020秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:24:52</t>
+    <t>26.3440秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:05</t>
+  </si>
+  <si>
+    <t>SCRM.workbench.shortcut_function_st</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>ShortcutFunction</t>
+  </si>
+  <si>
+    <t>test_create_mail</t>
+  </si>
+  <si>
+    <t>验证新建邮件快捷功能是否能正常跳转
+ 1、点击{新建邮件};</t>
+  </si>
+  <si>
+    <t>收件人:</t>
+  </si>
+  <si>
+    <t>15.7440秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:06</t>
+  </si>
+  <si>
+    <t>test_create_task</t>
+  </si>
+  <si>
+    <t>验证新增任务快捷功能是否能正常跳转
+ 1、点击{新增任务};</t>
+  </si>
+  <si>
+    <t>任务主题 *</t>
+  </si>
+  <si>
+    <t>14.2980秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:22</t>
+  </si>
+  <si>
+    <t>SCRM.jurisdiction.coordination_app_st</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>CoordinationApp</t>
+  </si>
+  <si>
+    <t>test_close_SkyDrive</t>
+  </si>
+  <si>
+    <t>https://www.scrm365.cn/#/manage/authority_setting</t>
+  </si>
+  <si>
+    <t>关闭网盘管理权限，验证网盘管理是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，关闭{网盘管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/document/public};
+ 3、验证是否存在{新建文件}</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>55.0870秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:24</t>
+  </si>
+  <si>
+    <t>SCRM.jurisdiction.company_manage_st</t>
+  </si>
+  <si>
+    <t>CompanyManage</t>
+  </si>
+  <si>
+    <t>test_close_company_info</t>
+  </si>
+  <si>
+    <t>关闭验证公司信息维护，验证账户管理是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{公司管理}，关闭{公司信息维护}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{账户管理}</t>
+  </si>
+  <si>
+    <t>39.0830秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:29</t>
+  </si>
+  <si>
+    <t>test_marketing_fixed</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件流程固定日期快捷功能是否能正常跳转
+ 1、点击{新建营销邮件流程};
+ 2、选择{固定日期型}，点击{确定};
+ 3、验证跳转的URL是否包含{/flow/flow_new?type=2&amp;value=}</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>13.1960秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:36</t>
+  </si>
+  <si>
+    <t>SCRM.jurisdiction.sale_manage_st</t>
+  </si>
+  <si>
+    <t>SaleManage</t>
+  </si>
+  <si>
+    <t>test_close_distribution</t>
+  </si>
+  <si>
+    <t>关闭分配权限，验证分配按钮是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{分配}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{分配}是否存在;</t>
+  </si>
+  <si>
+    <t>56.9200秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:43</t>
   </si>
   <si>
     <t>SCRM.workbench.work_effectiveness_st</t>
@@ -300,81 +389,43 @@
  4、刷新浏览器查看是否+1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>32.1780秒</t>
-  </si>
-  <si>
-    <t>test_marketing_fixed</t>
-  </si>
-  <si>
-    <t>验证新建营销邮件流程固定日期快捷功能是否能正常跳转
- 1、点击{新建营销邮件流程};
- 2、选择{固定日期型}，点击{确定};
- 3、验证跳转的URL是否包含{/flow/flow_new?type=2&amp;value=}</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>17.5280秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:24:54</t>
-  </si>
-  <si>
-    <t>SCRM.jurisdiction.coordination_app_st</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>CoordinationApp</t>
-  </si>
-  <si>
-    <t>test_close_SkyDrive</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/manage/authority_setting</t>
-  </si>
-  <si>
-    <t>关闭网盘管理权限，验证网盘管理是否存在
- 1、使用超管账号，进入权限管理后台，切换至{协同应用}，关闭{网盘管理}权限，并提示{权限更新成功};
- 2、使用设置的账号访问{/#/document/public};
- 3、验证是否存在{新建文件}</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>51.1280秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:10</t>
-  </si>
-  <si>
-    <t>SCRM.jurisdiction.sale_manage_st</t>
-  </si>
-  <si>
-    <t>SaleManage</t>
-  </si>
-  <si>
-    <t>test_close_distribution</t>
-  </si>
-  <si>
-    <t>关闭分配权限，验证分配按钮是否存在
- 1、使用超管账号，进入权限管理后台，关闭{分配}权限，并提示{权限更新成功};
- 2、使用设置的账号进行验证{分配}是否存在;</t>
-  </si>
-  <si>
-    <t>1.034分钟</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:13</t>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 146, in operation_element
+    return self.support.until(EC.presence_of_element_located(element))
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/support/wait.py", line 80, in until
+    raise TimeoutException(message, screen, stacktrace)
+selenium.common.exceptions.TimeoutException: Message: 
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 150, in operation_element
+    return self.support.until(EC.presence_of_element_located(element))
+  File "C:/Program Files (x86)/Python3.7/lib/site-packages/selenium/webdriver/support/wait.py", line 80, in until
+    raise TimeoutException(message, screen, stacktrace)
+selenium.common.exceptions.TimeoutException: Message: 
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "D:/work_file/auto_script/UI/SCRM/workbench/work_effectiveness_st.py", line 83, in test_create_contacts
+    message = driver.message_top_box()
+  File "D:/work_file/auto_script/UI/SCRM/workbench/currency.py", line 144, in message_top_box
+    return self.is_text(self.message)
+  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 191, in is_text
+    value = self.operation_element(element).text
+  File "D:/work_file/auto_script/UI/model/SeleniumElement.py", line 152, in operation_element
+    raise ValueError(`呀！元素:{}异常啦，异常原因:{}`.format(element, exc))
+ValueError: 呀！元素:(`xpath`, "(//div[@class=`ivu-message`])[1]/div/div/div/div/span")异常啦，异常原因:Message: 
+</t>
+  </si>
+  <si>
+    <t>1.123分钟</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:54</t>
   </si>
   <si>
     <t>test_marketing_standard</t>
@@ -386,10 +437,56 @@
  3、验证跳转的URL是否包含{/flow/flow_new?type=1}</t>
   </si>
   <si>
-    <t>20.2020秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:16</t>
+    <t>18.1690秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:56:55</t>
+  </si>
+  <si>
+    <t>test_marketing_week</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件流程周期快捷功能是否能正常跳转
+ 1、点击{新建营销邮件流程};
+ 2、选择{周期型}，选择{生日}，点击{确定};
+ 3、验证跳转的URL是否包含{/flow_new?type=3&amp;value=birth_day}</t>
+  </si>
+  <si>
+    <t>12.1610秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:08</t>
+  </si>
+  <si>
+    <t>test_close_mail_list</t>
+  </si>
+  <si>
+    <t>关闭通讯录权限，验证通讯录是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，关闭{通讯录}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/others/task/field};
+ 3、验证是否存在{企业通讯录}</t>
+  </si>
+  <si>
+    <t>52.4320秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:17</t>
+  </si>
+  <si>
+    <t>test_quick_create_contacts</t>
+  </si>
+  <si>
+    <t>验证新增联系人快捷功能是否能正常跳转
+ 1、点击{新增联系人};</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>12.1330秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:20</t>
   </si>
   <si>
     <t>test_create_customer</t>
@@ -402,10 +499,13 @@
  4、刷新浏览器查看是否+1</t>
   </si>
   <si>
-    <t>29.8910秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:23</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>26.6060秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:21</t>
   </si>
   <si>
     <t>SCRM.workbench.work_effectiveness_st.WorkEffectiveness</t>
@@ -420,22 +520,141 @@
     <t>跳过原因: 创建邮件后，延迟比较严重..</t>
   </si>
   <si>
-    <t>2019-04-18 19:25:27</t>
-  </si>
-  <si>
-    <t>test_marketing_week</t>
-  </si>
-  <si>
-    <t>验证新建营销邮件流程周期快捷功能是否能正常跳转
- 1、点击{新建营销邮件流程};
- 2、选择{周期型}，选择{生日}，点击{确定};
- 3、验证跳转的URL是否包含{/flow_new?type=3&amp;value=birth_day}</t>
-  </si>
-  <si>
-    <t>14.7090秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:31</t>
+    <t>2019-04-19 16:57:26</t>
+  </si>
+  <si>
+    <t>test_close_user_manage</t>
+  </si>
+  <si>
+    <t>关闭验证用户管理，验证用户和部门是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{公司管理}，关闭{用户管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{用户和部门}</t>
+  </si>
+  <si>
+    <t>1.118分钟</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:37</t>
+  </si>
+  <si>
+    <t>test_quick_create_customer</t>
+  </si>
+  <si>
+    <t>验证新增客户快捷功能是否能正常跳转
+ 1、点击{新增客户};</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>19.6270秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:40</t>
+  </si>
+  <si>
+    <t>test_close_export</t>
+  </si>
+  <si>
+    <t>关闭导出权限，验证导出按钮是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{导出}权限，并提示{权限更新成功};
+ 2、使用设置的账号进行验证{导出客户}是否存在;</t>
+  </si>
+  <si>
+    <t>1.038分钟</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:45</t>
+  </si>
+  <si>
+    <t>test_quick_create_marketing</t>
+  </si>
+  <si>
+    <t>验证新建营销邮件快捷功能是否能正常跳转
+ 1、点击{新建营销邮件};
+ 2、验证跳转的URL是否包含{template/myTemplate}</t>
+  </si>
+  <si>
+    <t>7.0240秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:57:48</t>
+  </si>
+  <si>
+    <t>test_close_notice_column</t>
+  </si>
+  <si>
+    <t>关闭公告栏目权限，验证{公告}栏目的新增栏目是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，关闭{公告栏目管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{公告栏目}</t>
+  </si>
+  <si>
+    <t>45.6360秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:58:03</t>
+  </si>
+  <si>
+    <t>test_open_company_info</t>
+  </si>
+  <si>
+    <t>打开验证公司信息维护，验证账户管理是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{公司管理}，打开{公司信息维护}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{账户管理}</t>
+  </si>
+  <si>
+    <t>40.8970秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:58:18</t>
+  </si>
+  <si>
+    <t>test_close_field</t>
+  </si>
+  <si>
+    <t>关闭设置属性字段分配权限，验证设置属性字段是否存在
+ 1、使用超管账号，进入权限管理后台，关闭{设置属性字段}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/salesManagement/tag?state=contact};
+ 3、验证是否存在{属性字段}</t>
+  </si>
+  <si>
+    <t>49.3070秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:58:35</t>
+  </si>
+  <si>
+    <t>test_close_notice_manage</t>
+  </si>
+  <si>
+    <t>关闭公告管理权限，验证{公告}管理的新增公告是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，关闭{公告管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{新增公告}</t>
+  </si>
+  <si>
+    <t>48.9130秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:58:52</t>
+  </si>
+  <si>
+    <t>test_open_user_manage</t>
+  </si>
+  <si>
+    <t>开启验证用户管理，验证用户和部门是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{公司管理}，开启{用户管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{用户和部门}</t>
+  </si>
+  <si>
+    <t>46.4570秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:59:05</t>
   </si>
   <si>
     <t>test_open_SkyDrive</t>
@@ -447,82 +666,10 @@
  3、验证是否存在{上传}</t>
   </si>
   <si>
-    <t>29.6300秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:40</t>
-  </si>
-  <si>
-    <t>test_quick_create_contacts</t>
-  </si>
-  <si>
-    <t>验证新增联系人快捷功能是否能正常跳转
- 1、点击{新增联系人};</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>15.0870秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:25:46</t>
-  </si>
-  <si>
-    <t>test_quick_create_customer</t>
-  </si>
-  <si>
-    <t>验证新增客户快捷功能是否能正常跳转
- 1、点击{新增客户};</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>17.1130秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:26:04</t>
-  </si>
-  <si>
-    <t>test_close_export</t>
-  </si>
-  <si>
-    <t>关闭导出权限，验证导出按钮是否存在
- 1、使用超管账号，进入权限管理后台，关闭{导出}权限，并提示{权限更新成功};
- 2、使用设置的账号进行验证{导出客户}是否存在;</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:26:10</t>
-  </si>
-  <si>
-    <t>test_quick_create_marketing</t>
-  </si>
-  <si>
-    <t>验证新建营销邮件快捷功能是否能正常跳转
- 1、点击{新建营销邮件};
- 2、验证跳转的URL是否包含{template/myTemplate}</t>
-  </si>
-  <si>
-    <t>27.2290秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:26:31</t>
-  </si>
-  <si>
-    <t>test_close_field</t>
-  </si>
-  <si>
-    <t>关闭设置属性字段分配权限，验证设置属性字段是否存在
- 1、使用超管账号，进入权限管理后台，关闭{设置属性字段}权限，并提示{权限更新成功};
- 2、使用设置的账号访问{/#/manage/salesManagement/tag?state=contact};
- 3、验证是否存在{属性字段}</t>
-  </si>
-  <si>
-    <t>1.092分钟</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:27:16</t>
+    <t>25.7600秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:59:19</t>
   </si>
   <si>
     <t>test_close_import</t>
@@ -533,10 +680,40 @@
  2、使用设置的账号进行验证{导入客户/联系人}是否存在;</t>
   </si>
   <si>
-    <t>41.7650秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:27:58</t>
+    <t>1.002分钟</t>
+  </si>
+  <si>
+    <t>2019-04-19 16:59:35</t>
+  </si>
+  <si>
+    <t>test_open_mail_list</t>
+  </si>
+  <si>
+    <t>打开通讯录权限，验证通讯录是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，打开{通讯录}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/others/task/field};
+ 3、验证是否存在{企业通讯录}</t>
+  </si>
+  <si>
+    <t>41.0870秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:00:00</t>
+  </si>
+  <si>
+    <t>test_open_notice_column</t>
+  </si>
+  <si>
+    <t>打开公告栏目权限，验证{公告}栏目的新增栏目是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，打开{公告栏目管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{公告栏目}</t>
+  </si>
+  <si>
+    <t>25.9380秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:00:26</t>
   </si>
   <si>
     <t>test_close_private</t>
@@ -548,10 +725,22 @@
  3、验证是否存在{私海客户限额}</t>
   </si>
   <si>
-    <t>47.9600秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:28:46</t>
+    <t>2019-04-19 17:00:35</t>
+  </si>
+  <si>
+    <t>test_open_notice_manage</t>
+  </si>
+  <si>
+    <t>开启公告管理权限，验证{公告}管理的新增公告是否存在
+ 1、使用超管账号，进入权限管理后台，切换至{协同应用}，开启{公告管理}权限，并提示{权限更新成功};
+ 2、使用设置的账号访问{/#/manage/notice/list};
+ 3、验证是否存在{新增公告}</t>
+  </si>
+  <si>
+    <t>28.1970秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:00:55</t>
   </si>
   <si>
     <t>test_close_public</t>
@@ -563,10 +752,10 @@
  3、验证是否存在{公海客户}</t>
   </si>
   <si>
-    <t>56.7570秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:29:43</t>
+    <t>1.111分钟</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:01:42</t>
   </si>
   <si>
     <t>test_close_tag</t>
@@ -578,10 +767,10 @@
  3、验证是否存在{标签}</t>
   </si>
   <si>
-    <t>56.3210秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:30:40</t>
+    <t>57.0320秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:02:39</t>
   </si>
   <si>
     <t>test_open_distribution</t>
@@ -592,10 +781,10 @@
  2、使用设置的账号进行验证{分配}是否存在;</t>
   </si>
   <si>
-    <t>52.4720秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:31:32</t>
+    <t>24.1350秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:03:04</t>
   </si>
   <si>
     <t>test_open_export</t>
@@ -606,10 +795,10 @@
  2、使用设置的账号进行验证{导出客户}是否存在;</t>
   </si>
   <si>
-    <t>1.011分钟</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:32:33</t>
+    <t>30.9730秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:03:35</t>
   </si>
   <si>
     <t>test_open_field</t>
@@ -635,10 +824,10 @@
 </t>
   </si>
   <si>
-    <t>54.6280秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:33:28</t>
+    <t>48.2550秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:04:24</t>
   </si>
   <si>
     <t>test_open_import</t>
@@ -649,10 +838,10 @@
  2、使用设置的账号进行验证{导入客户/联系人}是否存在</t>
   </si>
   <si>
-    <t>24.1160秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:33:53</t>
+    <t>27.9180秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:04:52</t>
   </si>
   <si>
     <t>test_open_private</t>
@@ -664,10 +853,10 @@
  3、验证是否存在{私海客户限额}</t>
   </si>
   <si>
-    <t>28.8820秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:34:22</t>
+    <t>31.2110秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:05:24</t>
   </si>
   <si>
     <t>test_open_public</t>
@@ -679,10 +868,10 @@
  3、验证是否存在{公海客户}</t>
   </si>
   <si>
-    <t>31.6710秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:34:54</t>
+    <t>29.9350秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:05:54</t>
   </si>
   <si>
     <t>test_open_tag</t>
@@ -694,17 +883,17 @@
  3、验证是否存在{标签}</t>
   </si>
   <si>
-    <t>19.4350秒</t>
-  </si>
-  <si>
-    <t>2019-04-18 19:35:14</t>
+    <t>26.9960秒</t>
+  </si>
+  <si>
+    <t>2019-04-19 17:06:21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +916,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -784,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -802,6 +997,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1061,13 +1259,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9906</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1417320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1085,7 +1283,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18545175" y="36766500"/>
+          <a:off x="18545175" y="52006500"/>
           <a:ext cx="1591056" cy="1417320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1454,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1474,7 +1672,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1517,7 +1715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1627,75 +1825,75 @@
     </row>
     <row r="3" spans="1:13" ht="120" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>64</v>
@@ -1704,33 +1902,33 @@
         <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>83</v>
@@ -1753,31 +1951,31 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>64</v>
@@ -1786,39 +1984,39 @@
         <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>64</v>
@@ -1827,162 +2025,159 @@
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>115</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>64</v>
@@ -1991,80 +2186,80 @@
         <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>64</v>
@@ -2073,39 +2268,39 @@
         <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>64</v>
@@ -2114,39 +2309,39 @@
         <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="120" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>64</v>
@@ -2155,80 +2350,80 @@
         <v>65</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="120" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>64</v>
@@ -2237,39 +2432,39 @@
         <v>65</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>64</v>
@@ -2278,39 +2473,39 @@
         <v>65</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="120" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>64</v>
@@ -2319,39 +2514,39 @@
         <v>65</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="120" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>64</v>
@@ -2360,39 +2555,39 @@
         <v>65</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="120" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>64</v>
@@ -2401,39 +2596,39 @@
         <v>65</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="120" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>64</v>
@@ -2442,39 +2637,39 @@
         <v>65</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="120" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>64</v>
@@ -2483,39 +2678,39 @@
         <v>65</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="120" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>64</v>
@@ -2524,39 +2719,39 @@
         <v>65</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="120" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>64</v>
@@ -2565,77 +2760,80 @@
         <v>65</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="120" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="120" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>64</v>
@@ -2644,39 +2842,39 @@
         <v>65</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="120" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>64</v>
@@ -2685,39 +2883,39 @@
         <v>65</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="120" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>64</v>
@@ -2726,39 +2924,39 @@
         <v>65</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="120" customHeight="1">
       <c r="A30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>64</v>
@@ -2767,7 +2965,414 @@
         <v>65</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="120" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="120" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="120" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="120" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="120" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="120" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="120" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="120" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="120" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="120" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2776,20 +3381,20 @@
     <hyperlink ref="E3" r:id="rId2" location="/home"/>
     <hyperlink ref="E4" r:id="rId3" location="/home"/>
     <hyperlink ref="E5" r:id="rId4" location="/home"/>
-    <hyperlink ref="E6" r:id="rId5" location="/home"/>
-    <hyperlink ref="E7" r:id="rId6" location="/home"/>
-    <hyperlink ref="E8" r:id="rId7" location="/manage/authority_setting"/>
+    <hyperlink ref="E6" r:id="rId5" location="/manage/authority_setting"/>
+    <hyperlink ref="E7" r:id="rId6" location="/manage/authority_setting"/>
+    <hyperlink ref="E8" r:id="rId7" location="/home"/>
     <hyperlink ref="E9" r:id="rId8" location="/manage/authority_setting"/>
     <hyperlink ref="E10" r:id="rId9" location="/home"/>
     <hyperlink ref="E11" r:id="rId10" location="/home"/>
-    <hyperlink ref="E13" r:id="rId11" location="/home"/>
-    <hyperlink ref="E14" r:id="rId12" location="/manage/authority_setting"/>
-    <hyperlink ref="E15" r:id="rId13" location="/home"/>
-    <hyperlink ref="E16" r:id="rId14" location="/home"/>
+    <hyperlink ref="E12" r:id="rId11" location="/home"/>
+    <hyperlink ref="E13" r:id="rId12" location="/manage/authority_setting"/>
+    <hyperlink ref="E14" r:id="rId13" location="/home"/>
+    <hyperlink ref="E15" r:id="rId14" location="/home"/>
     <hyperlink ref="E17" r:id="rId15" location="/manage/authority_setting"/>
     <hyperlink ref="E18" r:id="rId16" location="/home"/>
     <hyperlink ref="E19" r:id="rId17" location="/manage/authority_setting"/>
-    <hyperlink ref="E20" r:id="rId18" location="/manage/authority_setting"/>
+    <hyperlink ref="E20" r:id="rId18" location="/home"/>
     <hyperlink ref="E21" r:id="rId19" location="/manage/authority_setting"/>
     <hyperlink ref="E22" r:id="rId20" location="/manage/authority_setting"/>
     <hyperlink ref="E23" r:id="rId21" location="/manage/authority_setting"/>
@@ -2800,9 +3405,19 @@
     <hyperlink ref="E28" r:id="rId26" location="/manage/authority_setting"/>
     <hyperlink ref="E29" r:id="rId27" location="/manage/authority_setting"/>
     <hyperlink ref="E30" r:id="rId28" location="/manage/authority_setting"/>
+    <hyperlink ref="E31" r:id="rId29" location="/manage/authority_setting"/>
+    <hyperlink ref="E32" r:id="rId30" location="/manage/authority_setting"/>
+    <hyperlink ref="E33" r:id="rId31" location="/manage/authority_setting"/>
+    <hyperlink ref="E34" r:id="rId32" location="/manage/authority_setting"/>
+    <hyperlink ref="E35" r:id="rId33" location="/manage/authority_setting"/>
+    <hyperlink ref="E36" r:id="rId34" location="/manage/authority_setting"/>
+    <hyperlink ref="E37" r:id="rId35" location="/manage/authority_setting"/>
+    <hyperlink ref="E38" r:id="rId36" location="/manage/authority_setting"/>
+    <hyperlink ref="E39" r:id="rId37" location="/manage/authority_setting"/>
+    <hyperlink ref="E40" r:id="rId38" location="/manage/authority_setting"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -2822,13 +3437,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -78,19 +78,19 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-04-28 16:40:49</t>
-  </si>
-  <si>
-    <t>2019-04-28 16:42:06</t>
-  </si>
-  <si>
-    <t>1.283分钟</t>
-  </si>
-  <si>
-    <t>14.7600秒</t>
-  </si>
-  <si>
-    <t>40.1500秒</t>
+    <t>2019-05-07 09:10:37</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:11:08</t>
+  </si>
+  <si>
+    <t>31.0000秒</t>
+  </si>
+  <si>
+    <t>2.7600秒</t>
+  </si>
+  <si>
+    <t>10.2300秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -117,28 +117,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 3.1%', '当前频率': '986.0Hz', '用户占用率': '3.0%', '系统占用率': '6.1%', '空闲值': '87.9%'}</t>
+    <t>{'使用率': ' 3.1%', '当前频率': '782.0Hz', '用户占用率': '1.5%', '系统占用率': '3.1%', '空闲值': '93.8%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.088GB', '使用率': '60.9%', '占用': '4.820GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.499GB', '使用率': '55.8%', '占用': '4.41GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.2GB', '剩余量': '813.23GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.21GB', '剩余量': '813.29GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '2.310MB', '网卡最大下行': '9.457MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.25', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'网卡最大上行': '0.8974MB', '网卡最大下行': '3.0419MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.50', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -183,7 +183,7 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>three_table_st</t>
+    <t>SCRM.workbench.three_table_st</t>
   </si>
   <si>
     <t>中</t>
@@ -192,48 +192,10 @@
     <t>ThreeTable</t>
   </si>
   <si>
-    <t>test_mail_star</t>
+    <t>test_today_task</t>
   </si>
   <si>
     <t>https://www.scrm365.cn/#/home</t>
-  </si>
-  <si>
-    <t>验证星标邮件是否成功
- 1、选择第{1}条邮件;
- 2、点击星标</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>标记为星标邮件成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:/work_file/auto_script/UI/SCRM/workbench/three_table_st.py", line 42, in test_mail_star
-    self.assertEqual(self.first, self.second)
-  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 851, in assertEqual
-    assertion_func(first, second, msg=msg)
-  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 1232, in assertMultiLineEqual
-    self.fail(self._formatMessage(msg, standardMsg))
-  File "C:/Program Files (x86)/Python3.7/lib/unittest/case.py", line 692, in fail
-    raise self.failureException(msg)
-AssertionError: `undefined,标记为星标邮件失败` != `标记为星标邮件成功`
-- undefined,标记为星标邮件失败
-+ 标记为星标邮件成功
-</t>
-  </si>
-  <si>
-    <t>40.151秒</t>
-  </si>
-  <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2019-04-28 16:41:47</t>
-  </si>
-  <si>
-    <t>test_today_task</t>
   </si>
   <si>
     <t>验证新增任务后今日任务统计是否+1
@@ -246,83 +208,100 @@
     <t>成功</t>
   </si>
   <si>
-    <t>今日任务(19)</t>
-  </si>
-  <si>
-    <t>今日任务(18)</t>
-  </si>
-  <si>
-    <t>14.769秒</t>
+    <t>今日任务(25)</t>
+  </si>
+  <si>
+    <t>今日任务(24)</t>
+  </si>
+  <si>
+    <t>10.238秒</t>
   </si>
   <si>
     <t>.........</t>
   </si>
   <si>
-    <t>2019-04-28 16:42:03</t>
-  </si>
-  <si>
-    <t>shortcut_function_st.ShortcutFunction</t>
+    <t>后超</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:11:04</t>
+  </si>
+  <si>
+    <t>test_mail_star</t>
+  </si>
+  <si>
+    <t>验证星标邮件是否成功
+ 1、选择第{1}条邮件;
+ 2、点击星标</t>
+  </si>
+  <si>
+    <t>标记为星标邮件成功</t>
+  </si>
+  <si>
+    <t>2.763秒</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:10:54</t>
+  </si>
+  <si>
+    <t>SCRM.workbench.shortcut_function_st.ShortcutFunction</t>
   </si>
   <si>
     <t>ShortcutFunction</t>
   </si>
   <si>
+    <t>test_quick_create_marketing</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>跳过原因: None</t>
+  </si>
+  <si>
+    <t>test_quick_create_customer</t>
+  </si>
+  <si>
+    <t>test_quick_create_contacts</t>
+  </si>
+  <si>
+    <t>test_marketing_week</t>
+  </si>
+  <si>
+    <t>test_marketing_standard</t>
+  </si>
+  <si>
+    <t>test_marketing_fixed</t>
+  </si>
+  <si>
+    <t>test_create_task</t>
+  </si>
+  <si>
     <t>test_create_mail</t>
   </si>
   <si>
-    <t>跳过</t>
-  </si>
-  <si>
-    <t>跳过原因: None</t>
-  </si>
-  <si>
-    <t>2019-04-28 16:42:05</t>
-  </si>
-  <si>
-    <t>test_create_task</t>
-  </si>
-  <si>
-    <t>test_marketing_fixed</t>
-  </si>
-  <si>
-    <t>test_marketing_standard</t>
-  </si>
-  <si>
-    <t>test_marketing_week</t>
-  </si>
-  <si>
-    <t>test_quick_create_contacts</t>
-  </si>
-  <si>
-    <t>test_quick_create_customer</t>
-  </si>
-  <si>
-    <t>test_quick_create_marketing</t>
-  </si>
-  <si>
-    <t>work_effectiveness_st.WorkEffectiveness</t>
+    <t>SCRM.workbench.work_effectiveness_st.WorkEffectiveness</t>
   </si>
   <si>
     <t>WorkEffectiveness</t>
   </si>
   <si>
+    <t>test_send_ordinary_mail</t>
+  </si>
+  <si>
+    <t>跳过原因: 创建邮件后，延迟比较严重..</t>
+  </si>
+  <si>
+    <t>test_create_customer</t>
+  </si>
+  <si>
     <t>test_create_contacts</t>
-  </si>
-  <si>
-    <t>test_create_customer</t>
-  </si>
-  <si>
-    <t>test_send_ordinary_mail</t>
-  </si>
-  <si>
-    <t>跳过原因: 创建邮件后，延迟比较严重..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,12 +318,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -402,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -417,9 +390,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -662,49 +632,6 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="2057400" cy="660083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>8001</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1497044</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="test_mail_star.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18545175" y="190500"/>
-          <a:ext cx="2322576" cy="1497044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1086,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1233,11 +1160,14 @@
       <c r="J2" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="120" customHeight="1">
@@ -1251,485 +1181,485 @@
         <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +1668,6 @@
     <hyperlink ref="E3" r:id="rId2" location="/home"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1758,13 +1687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -78,19 +78,19 @@
     <t>['后超']</t>
   </si>
   <si>
-    <t>2019-05-07 09:10:37</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:11:08</t>
-  </si>
-  <si>
-    <t>31.0000秒</t>
-  </si>
-  <si>
-    <t>2.7600秒</t>
-  </si>
-  <si>
-    <t>10.2300秒</t>
+    <t>2019-05-07 09:49:22</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:50:56</t>
+  </si>
+  <si>
+    <t>1.567分钟</t>
+  </si>
+  <si>
+    <t>34.8400秒</t>
+  </si>
+  <si>
+    <t>36.4000秒</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -117,25 +117,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 3.1%', '当前频率': '782.0Hz', '用户占用率': '1.5%', '系统占用率': '3.1%', '空闲值': '93.8%'}</t>
+    <t>{'使用率': ' 6.2%', '当前频率': '1394.0Hz', '用户占用率': '0.0%', '系统占用率': '1.6%', '空闲值': '98.3%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.499GB', '使用率': '55.8%', '占用': '4.41GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.35GB', '使用率': '44.9%', '占用': '3.554GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.21GB', '剩余量': '813.29GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '17.GB', '剩余量': '813.60GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.8974MB', '网卡最大下行': '3.0419MB'}</t>
+    <t>{'网卡最大上行': '0.9724MB', '网卡最大下行': '3.2397MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.50', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -208,13 +208,13 @@
     <t>成功</t>
   </si>
   <si>
-    <t>今日任务(25)</t>
-  </si>
-  <si>
-    <t>今日任务(24)</t>
-  </si>
-  <si>
-    <t>10.238秒</t>
+    <t>今日任务(27)</t>
+  </si>
+  <si>
+    <t>今日任务(26)</t>
+  </si>
+  <si>
+    <t>34.849秒</t>
   </si>
   <si>
     <t>.........</t>
@@ -223,7 +223,7 @@
     <t>后超</t>
   </si>
   <si>
-    <t>2019-05-07 09:11:04</t>
+    <t>2019-05-07 09:50:53</t>
   </si>
   <si>
     <t>test_mail_star</t>
@@ -237,10 +237,10 @@
     <t>标记为星标邮件成功</t>
   </si>
   <si>
-    <t>2.763秒</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:10:54</t>
+    <t>36.406秒</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:50:17</t>
   </si>
   <si>
     <t>SCRM.workbench.shortcut_function_st.ShortcutFunction</t>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>跳过原因: None</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:49:23</t>
   </si>
   <si>
     <t>test_quick_create_customer</t>
@@ -1249,7 +1252,7 @@
         <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
@@ -1263,7 +1266,7 @@
         <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>65</v>
@@ -1290,7 +1293,7 @@
         <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" customHeight="1">
@@ -1304,7 +1307,7 @@
         <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
@@ -1331,7 +1334,7 @@
         <v>65</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
@@ -1345,7 +1348,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>65</v>
@@ -1372,7 +1375,7 @@
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
@@ -1386,7 +1389,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>65</v>
@@ -1413,7 +1416,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
@@ -1427,7 +1430,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>65</v>
@@ -1454,7 +1457,7 @@
         <v>65</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
@@ -1468,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>65</v>
@@ -1495,7 +1498,7 @@
         <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
@@ -1509,7 +1512,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
@@ -1536,21 +1539,21 @@
         <v>65</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>65</v>
@@ -1565,7 +1568,7 @@
         <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>65</v>
@@ -1577,21 +1580,21 @@
         <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>65</v>
@@ -1618,21 +1621,21 @@
         <v>65</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>65</v>
@@ -1659,7 +1662,7 @@
         <v>65</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="263">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -75,22 +75,19 @@
     <t>Python3.7.0</t>
   </si>
   <si>
-    <t>['后超']</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:49:22</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:50:56</t>
-  </si>
-  <si>
-    <t>1.567分钟</t>
-  </si>
-  <si>
-    <t>34.8400秒</t>
-  </si>
-  <si>
-    <t>36.4000秒</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>2019-05-29 09:03:21</t>
+  </si>
+  <si>
+    <t>2019-05-29 09:03:35</t>
+  </si>
+  <si>
+    <t>14.00秒</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>测试机配置明细单</t>
@@ -117,28 +114,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 6.2%', '当前频率': '1394.0Hz', '用户占用率': '0.0%', '系统占用率': '1.6%', '空闲值': '98.3%'}</t>
+    <t>{'使用率': ' 20.3%', '当前频率': '1394.0Hz', '用户占用率': '13.6%', '系统占用率': '4.5%', '空闲值': '78.8%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.35GB', '使用率': '44.9%', '占用': '3.554GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.899GB', '使用率': '63.3%', '占用': '5.01GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '17.GB', '剩余量': '813.60GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.18GB', '剩余量': '813.32GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.9724MB', '网卡最大下行': '3.2397MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.50', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'网卡最大上行': '0.5410MB', '网卡最大下行': '1.6367MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.76', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -183,128 +180,638 @@
     <t>用例完成时间</t>
   </si>
   <si>
-    <t>SCRM.workbench.three_table_st</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>ThreeTable</t>
-  </si>
-  <si>
-    <t>test_today_task</t>
-  </si>
-  <si>
-    <t>https://www.scrm365.cn/#/home</t>
-  </si>
-  <si>
-    <t>验证新增任务后今日任务统计是否+1
- 1、点击{新增任务};
- 2、任务主题输入{测试任务主题};
- 3、负责人选择当前登录的人员;
- 4、点击【确定】，并提示{任务新增成功}，刷新浏览器</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>今日任务(27)</t>
-  </si>
-  <si>
-    <t>今日任务(26)</t>
-  </si>
-  <si>
-    <t>34.849秒</t>
+    <t>SCRM.login.login_repeat_st.TestLogin</t>
   </si>
   <si>
     <t>.........</t>
   </si>
   <si>
-    <t>后超</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:50:53</t>
-  </si>
-  <si>
-    <t>test_mail_star</t>
-  </si>
-  <si>
-    <t>验证星标邮件是否成功
- 1、选择第{1}条邮件;
- 2、点击星标</t>
-  </si>
-  <si>
-    <t>标记为星标邮件成功</t>
-  </si>
-  <si>
-    <t>36.406秒</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:50:17</t>
-  </si>
-  <si>
-    <t>SCRM.workbench.shortcut_function_st.ShortcutFunction</t>
-  </si>
-  <si>
-    <t>ShortcutFunction</t>
-  </si>
-  <si>
-    <t>test_quick_create_marketing</t>
+    <t>TestLogin</t>
+  </si>
+  <si>
+    <t>test_repeat_login_1</t>
   </si>
   <si>
     <t>跳过</t>
   </si>
   <si>
-    <t>跳过原因: None</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:49:23</t>
-  </si>
-  <si>
-    <t>test_quick_create_customer</t>
-  </si>
-  <si>
-    <t>test_quick_create_contacts</t>
-  </si>
-  <si>
-    <t>test_marketing_week</t>
-  </si>
-  <si>
-    <t>test_marketing_standard</t>
-  </si>
-  <si>
-    <t>test_marketing_fixed</t>
-  </si>
-  <si>
-    <t>test_create_task</t>
-  </si>
-  <si>
-    <t>test_create_mail</t>
-  </si>
-  <si>
-    <t>SCRM.workbench.work_effectiveness_st.WorkEffectiveness</t>
-  </si>
-  <si>
-    <t>WorkEffectiveness</t>
-  </si>
-  <si>
-    <t>test_send_ordinary_mail</t>
-  </si>
-  <si>
-    <t>跳过原因: 创建邮件后，延迟比较严重..</t>
-  </si>
-  <si>
-    <t>test_create_customer</t>
-  </si>
-  <si>
-    <t>test_create_contacts</t>
+    <t>跳过原因: 太多，暂跳</t>
+  </si>
+  <si>
+    <t>2019-05-29 09:03:22</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_10</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_100</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_101</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_102</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_103</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_104</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_105</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_106</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_107</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_108</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_109</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_11</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_110</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_111</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_112</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_113</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_114</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_115</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_116</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_117</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_118</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_119</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_12</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_120</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_121</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_122</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_123</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_124</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_125</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_126</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_127</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_128</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_129</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_13</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_130</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_131</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_132</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_133</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_134</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_135</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_136</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_137</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_138</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_139</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_14</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_140</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_141</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_142</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_143</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_144</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_145</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_146</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_147</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_148</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_149</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_15</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_150</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_151</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_152</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_153</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_154</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_155</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_156</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_157</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_158</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_159</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_16</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_160</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_161</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_162</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_163</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_164</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_165</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_166</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_167</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_168</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_169</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_17</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_170</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_171</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_172</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_173</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_174</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_175</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_176</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_177</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_178</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_179</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_18</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_180</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_181</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_182</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_183</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_184</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_185</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_186</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_187</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_188</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_189</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_19</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_190</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_191</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_192</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_193</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_194</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_195</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_196</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_197</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_198</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_199</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_2</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_20</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_200</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_201</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_202</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_203</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_21</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_22</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_23</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_24</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_25</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_26</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_27</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_28</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_29</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_3</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_30</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_31</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_32</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_33</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_34</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_35</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_36</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_37</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_38</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_39</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_4</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_40</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_41</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_42</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_43</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_44</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_45</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_46</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_47</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_48</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_49</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_5</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_50</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_51</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_52</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_53</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_54</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_55</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_56</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_57</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_58</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_59</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_6</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_60</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_61</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_62</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_63</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_64</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_65</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_66</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_67</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_68</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_69</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_7</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_70</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_71</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_72</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_73</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_74</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_75</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_76</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_77</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_78</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_79</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_8</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_80</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_81</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_82</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_83</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_84</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_85</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_86</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_87</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_88</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_89</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_9</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_90</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_91</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_92</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_93</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_94</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_95</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_96</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_97</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_98</t>
+  </si>
+  <si>
+    <t>test_test_repeat_login_99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,12 +828,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -378,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -390,9 +891,6 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1002,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1030,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1050,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1093,583 +1591,8369 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="120" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="120" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="120" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="120" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="120" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="120" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="120" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="120" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="120" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="120" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="120" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="120" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="120" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="120" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="120" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>78</v>
+      <c r="E33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="120" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="120" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="120" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="120" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="120" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="120" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="120" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="120" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="120" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="120" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="120" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="120" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="120" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="120" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="120" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="120" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="120" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="120" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="120" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="120" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="120" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="120" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="120" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="120" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="120" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="120" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="120" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="120" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="120" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="120" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="120" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="120" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="120" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="120" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="120" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="120" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="120" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="120" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="120" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="120" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="120" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="120" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="120" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="120" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="120" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="120" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="120" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="120" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="120" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="120" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="120" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="120" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="120" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="120" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="120" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="120" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="120" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="120" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="120" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="120" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="120" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="120" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="120" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="120" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="120" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="120" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="120" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="120" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="120" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="120" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="120" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="120" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="120" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="120" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="120" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="120" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="120" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="120" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="120" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="120" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="120" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="120" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="120" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="120" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="120" customHeight="1">
+      <c r="A118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="120" customHeight="1">
+      <c r="A119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="120" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="120" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="120" customHeight="1">
+      <c r="A122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="120" customHeight="1">
+      <c r="A123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="120" customHeight="1">
+      <c r="A124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="120" customHeight="1">
+      <c r="A125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="120" customHeight="1">
+      <c r="A126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="120" customHeight="1">
+      <c r="A127" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="120" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="120" customHeight="1">
+      <c r="A129" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="120" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="120" customHeight="1">
+      <c r="A131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="120" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="120" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="120" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="120" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="120" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="120" customHeight="1">
+      <c r="A137" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="120" customHeight="1">
+      <c r="A138" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="120" customHeight="1">
+      <c r="A139" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="120" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="120" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="120" customHeight="1">
+      <c r="A142" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="120" customHeight="1">
+      <c r="A143" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="120" customHeight="1">
+      <c r="A144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="120" customHeight="1">
+      <c r="A145" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="120" customHeight="1">
+      <c r="A146" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="120" customHeight="1">
+      <c r="A147" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="120" customHeight="1">
+      <c r="A148" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="120" customHeight="1">
+      <c r="A149" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="120" customHeight="1">
+      <c r="A150" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="120" customHeight="1">
+      <c r="A151" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="120" customHeight="1">
+      <c r="A152" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="120" customHeight="1">
+      <c r="A153" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="120" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="120" customHeight="1">
+      <c r="A155" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="120" customHeight="1">
+      <c r="A156" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="120" customHeight="1">
+      <c r="A157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="120" customHeight="1">
+      <c r="A158" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="120" customHeight="1">
+      <c r="A159" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="120" customHeight="1">
+      <c r="A160" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="120" customHeight="1">
+      <c r="A161" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="120" customHeight="1">
+      <c r="A162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="120" customHeight="1">
+      <c r="A163" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="120" customHeight="1">
+      <c r="A164" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="120" customHeight="1">
+      <c r="A165" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="120" customHeight="1">
+      <c r="A166" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="120" customHeight="1">
+      <c r="A167" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="120" customHeight="1">
+      <c r="A168" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="120" customHeight="1">
+      <c r="A169" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="120" customHeight="1">
+      <c r="A170" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="120" customHeight="1">
+      <c r="A171" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="120" customHeight="1">
+      <c r="A172" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="120" customHeight="1">
+      <c r="A173" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="120" customHeight="1">
+      <c r="A174" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="120" customHeight="1">
+      <c r="A175" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="120" customHeight="1">
+      <c r="A176" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="120" customHeight="1">
+      <c r="A177" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="120" customHeight="1">
+      <c r="A178" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="120" customHeight="1">
+      <c r="A179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="120" customHeight="1">
+      <c r="A180" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="120" customHeight="1">
+      <c r="A181" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="120" customHeight="1">
+      <c r="A182" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="120" customHeight="1">
+      <c r="A183" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="120" customHeight="1">
+      <c r="A184" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="120" customHeight="1">
+      <c r="A185" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="120" customHeight="1">
+      <c r="A186" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="120" customHeight="1">
+      <c r="A187" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="120" customHeight="1">
+      <c r="A188" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="120" customHeight="1">
+      <c r="A189" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="120" customHeight="1">
+      <c r="A190" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="120" customHeight="1">
+      <c r="A191" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M191" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="120" customHeight="1">
+      <c r="A192" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="120" customHeight="1">
+      <c r="A193" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="120" customHeight="1">
+      <c r="A194" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="120" customHeight="1">
+      <c r="A195" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="120" customHeight="1">
+      <c r="A196" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="120" customHeight="1">
+      <c r="A197" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="120" customHeight="1">
+      <c r="A198" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="120" customHeight="1">
+      <c r="A199" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="120" customHeight="1">
+      <c r="A200" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="120" customHeight="1">
+      <c r="A201" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="120" customHeight="1">
+      <c r="A202" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="120" customHeight="1">
+      <c r="A203" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="120" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="/home"/>
-    <hyperlink ref="E3" r:id="rId2" location="/home"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1690,23 +9974,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1721,10 +10005,10 @@
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1738,13 +10022,13 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1759,10 +10043,10 @@
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1776,13 +10060,13 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1797,10 +10081,10 @@
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1814,13 +10098,13 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1835,10 +10119,10 @@
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1852,13 +10136,13 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1873,10 +10157,10 @@
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="262">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -78,13 +78,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2019-06-03 09:21:42</t>
-  </si>
-  <si>
-    <t>2019-06-03 09:21:56</t>
-  </si>
-  <si>
-    <t>14.00秒</t>
+    <t>2019-06-03 15:41:26</t>
+  </si>
+  <si>
+    <t>2019-06-03 15:41:39</t>
+  </si>
+  <si>
+    <t>13.00秒</t>
   </si>
   <si>
     <t>0</t>
@@ -114,28 +114,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 34.4%', '当前频率': '2482.0Hz', '用户占用率': '30.8%', '系统占用率': '7.7%', '空闲值': '60.0%'}</t>
+    <t>{'使用率': ' 18.8%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '13.0%', '空闲值': '79.7%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.17GB', '使用率': '47.2%', '占用': '3.732GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.530GB', '使用率': '55.4%', '占用': '4.37GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.16GB', '剩余量': '813.34GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.23GB', '剩余量': '813.27GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.0117MB', '网卡最大下行': '0.061382MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'网卡最大上行': '0.02899MB', '网卡最大下行': '0.09150MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>跳过原因: 太多，暂跳</t>
-  </si>
-  <si>
-    <t>2019-06-03 09:21:43</t>
   </si>
   <si>
     <t>test_test_repeat_login_10</t>
@@ -1668,7 +1665,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="120" customHeight="1">
@@ -1682,7 +1679,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
@@ -1709,7 +1706,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" customHeight="1">
@@ -1723,7 +1720,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>55</v>
@@ -1750,7 +1747,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
@@ -1764,7 +1761,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>55</v>
@@ -1791,7 +1788,7 @@
         <v>55</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" customHeight="1">
@@ -1805,7 +1802,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
@@ -1832,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
@@ -1846,7 +1843,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
@@ -1873,7 +1870,7 @@
         <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
@@ -1887,7 +1884,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
@@ -1914,7 +1911,7 @@
         <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
@@ -1928,7 +1925,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
@@ -1955,7 +1952,7 @@
         <v>55</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
@@ -1969,7 +1966,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
@@ -1996,7 +1993,7 @@
         <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
@@ -2010,7 +2007,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
@@ -2037,7 +2034,7 @@
         <v>55</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
@@ -2051,7 +2048,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
@@ -2078,7 +2075,7 @@
         <v>55</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
@@ -2092,7 +2089,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>55</v>
@@ -2119,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
@@ -2133,7 +2130,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>55</v>
@@ -2160,7 +2157,7 @@
         <v>55</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="120" customHeight="1">
@@ -2174,7 +2171,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>55</v>
@@ -2201,7 +2198,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="120" customHeight="1">
@@ -2215,7 +2212,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>55</v>
@@ -2242,7 +2239,7 @@
         <v>55</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" customHeight="1">
@@ -2256,7 +2253,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>55</v>
@@ -2283,7 +2280,7 @@
         <v>55</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
@@ -2297,7 +2294,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>55</v>
@@ -2324,7 +2321,7 @@
         <v>55</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="120" customHeight="1">
@@ -2338,7 +2335,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
@@ -2365,7 +2362,7 @@
         <v>55</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="120" customHeight="1">
@@ -2379,7 +2376,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>55</v>
@@ -2406,7 +2403,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="120" customHeight="1">
@@ -2420,7 +2417,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -2447,7 +2444,7 @@
         <v>55</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="120" customHeight="1">
@@ -2461,7 +2458,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -2488,7 +2485,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="120" customHeight="1">
@@ -2502,7 +2499,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -2529,7 +2526,7 @@
         <v>55</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="120" customHeight="1">
@@ -2543,7 +2540,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>55</v>
@@ -2570,7 +2567,7 @@
         <v>55</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="120" customHeight="1">
@@ -2584,7 +2581,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -2611,7 +2608,7 @@
         <v>55</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="120" customHeight="1">
@@ -2625,7 +2622,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
@@ -2652,7 +2649,7 @@
         <v>55</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="120" customHeight="1">
@@ -2666,7 +2663,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
@@ -2693,7 +2690,7 @@
         <v>55</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="120" customHeight="1">
@@ -2707,7 +2704,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>55</v>
@@ -2734,7 +2731,7 @@
         <v>55</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="120" customHeight="1">
@@ -2748,7 +2745,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>55</v>
@@ -2775,7 +2772,7 @@
         <v>55</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="120" customHeight="1">
@@ -2789,7 +2786,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>55</v>
@@ -2816,7 +2813,7 @@
         <v>55</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="120" customHeight="1">
@@ -2830,7 +2827,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>55</v>
@@ -2857,7 +2854,7 @@
         <v>55</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="120" customHeight="1">
@@ -2871,7 +2868,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>55</v>
@@ -2898,7 +2895,7 @@
         <v>55</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="120" customHeight="1">
@@ -2912,7 +2909,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>55</v>
@@ -2939,7 +2936,7 @@
         <v>55</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" customHeight="1">
@@ -2953,7 +2950,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>55</v>
@@ -2980,7 +2977,7 @@
         <v>55</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" customHeight="1">
@@ -2994,7 +2991,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>55</v>
@@ -3021,7 +3018,7 @@
         <v>55</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="120" customHeight="1">
@@ -3035,7 +3032,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>55</v>
@@ -3062,7 +3059,7 @@
         <v>55</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="120" customHeight="1">
@@ -3076,7 +3073,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>55</v>
@@ -3103,7 +3100,7 @@
         <v>55</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="120" customHeight="1">
@@ -3117,7 +3114,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>55</v>
@@ -3144,7 +3141,7 @@
         <v>55</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="120" customHeight="1">
@@ -3158,7 +3155,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>55</v>
@@ -3185,7 +3182,7 @@
         <v>55</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="120" customHeight="1">
@@ -3199,7 +3196,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>55</v>
@@ -3226,7 +3223,7 @@
         <v>55</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="120" customHeight="1">
@@ -3240,7 +3237,7 @@
         <v>56</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>55</v>
@@ -3267,7 +3264,7 @@
         <v>55</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="120" customHeight="1">
@@ -3281,7 +3278,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>55</v>
@@ -3308,7 +3305,7 @@
         <v>55</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
@@ -3322,7 +3319,7 @@
         <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>55</v>
@@ -3349,7 +3346,7 @@
         <v>55</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="120" customHeight="1">
@@ -3363,7 +3360,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -3390,7 +3387,7 @@
         <v>55</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="120" customHeight="1">
@@ -3404,7 +3401,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -3431,7 +3428,7 @@
         <v>55</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="120" customHeight="1">
@@ -3445,7 +3442,7 @@
         <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>55</v>
@@ -3472,7 +3469,7 @@
         <v>55</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="120" customHeight="1">
@@ -3486,7 +3483,7 @@
         <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>55</v>
@@ -3513,7 +3510,7 @@
         <v>55</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="120" customHeight="1">
@@ -3527,7 +3524,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>55</v>
@@ -3554,7 +3551,7 @@
         <v>55</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="120" customHeight="1">
@@ -3568,7 +3565,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -3595,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="120" customHeight="1">
@@ -3609,7 +3606,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>55</v>
@@ -3636,7 +3633,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="120" customHeight="1">
@@ -3650,7 +3647,7 @@
         <v>56</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -3677,7 +3674,7 @@
         <v>55</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="120" customHeight="1">
@@ -3691,7 +3688,7 @@
         <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>55</v>
@@ -3718,7 +3715,7 @@
         <v>55</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="120" customHeight="1">
@@ -3732,7 +3729,7 @@
         <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>55</v>
@@ -3759,7 +3756,7 @@
         <v>55</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="120" customHeight="1">
@@ -3773,7 +3770,7 @@
         <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>55</v>
@@ -3800,7 +3797,7 @@
         <v>55</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="120" customHeight="1">
@@ -3814,7 +3811,7 @@
         <v>56</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>55</v>
@@ -3841,7 +3838,7 @@
         <v>55</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="120" customHeight="1">
@@ -3855,7 +3852,7 @@
         <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>55</v>
@@ -3882,7 +3879,7 @@
         <v>55</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="120" customHeight="1">
@@ -3896,7 +3893,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>55</v>
@@ -3923,7 +3920,7 @@
         <v>55</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="120" customHeight="1">
@@ -3937,7 +3934,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>55</v>
@@ -3964,7 +3961,7 @@
         <v>55</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="120" customHeight="1">
@@ -3978,7 +3975,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>55</v>
@@ -4005,7 +4002,7 @@
         <v>55</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="120" customHeight="1">
@@ -4019,7 +4016,7 @@
         <v>56</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>55</v>
@@ -4046,7 +4043,7 @@
         <v>55</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="120" customHeight="1">
@@ -4060,7 +4057,7 @@
         <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>55</v>
@@ -4087,7 +4084,7 @@
         <v>55</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="120" customHeight="1">
@@ -4101,7 +4098,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>55</v>
@@ -4128,7 +4125,7 @@
         <v>55</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="120" customHeight="1">
@@ -4142,7 +4139,7 @@
         <v>56</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>55</v>
@@ -4169,7 +4166,7 @@
         <v>55</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="120" customHeight="1">
@@ -4183,7 +4180,7 @@
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>55</v>
@@ -4210,7 +4207,7 @@
         <v>55</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="120" customHeight="1">
@@ -4224,7 +4221,7 @@
         <v>56</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>55</v>
@@ -4251,7 +4248,7 @@
         <v>55</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="120" customHeight="1">
@@ -4265,7 +4262,7 @@
         <v>56</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -4292,7 +4289,7 @@
         <v>55</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="120" customHeight="1">
@@ -4306,7 +4303,7 @@
         <v>56</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>55</v>
@@ -4333,7 +4330,7 @@
         <v>55</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="120" customHeight="1">
@@ -4347,7 +4344,7 @@
         <v>56</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>55</v>
@@ -4374,7 +4371,7 @@
         <v>55</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="120" customHeight="1">
@@ -4388,7 +4385,7 @@
         <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>55</v>
@@ -4415,7 +4412,7 @@
         <v>55</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="120" customHeight="1">
@@ -4429,7 +4426,7 @@
         <v>56</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
@@ -4456,7 +4453,7 @@
         <v>55</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="120" customHeight="1">
@@ -4470,7 +4467,7 @@
         <v>56</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>55</v>
@@ -4497,7 +4494,7 @@
         <v>55</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="120" customHeight="1">
@@ -4511,7 +4508,7 @@
         <v>56</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
@@ -4538,7 +4535,7 @@
         <v>55</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="120" customHeight="1">
@@ -4552,7 +4549,7 @@
         <v>56</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>55</v>
@@ -4579,7 +4576,7 @@
         <v>55</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="120" customHeight="1">
@@ -4593,7 +4590,7 @@
         <v>56</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -4620,7 +4617,7 @@
         <v>55</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="120" customHeight="1">
@@ -4634,7 +4631,7 @@
         <v>56</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>55</v>
@@ -4661,7 +4658,7 @@
         <v>55</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="120" customHeight="1">
@@ -4675,7 +4672,7 @@
         <v>56</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>55</v>
@@ -4702,7 +4699,7 @@
         <v>55</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="120" customHeight="1">
@@ -4716,7 +4713,7 @@
         <v>56</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>55</v>
@@ -4743,7 +4740,7 @@
         <v>55</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="120" customHeight="1">
@@ -4757,7 +4754,7 @@
         <v>56</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -4784,7 +4781,7 @@
         <v>55</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="120" customHeight="1">
@@ -4798,7 +4795,7 @@
         <v>56</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>55</v>
@@ -4825,7 +4822,7 @@
         <v>55</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="120" customHeight="1">
@@ -4839,7 +4836,7 @@
         <v>56</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
@@ -4866,7 +4863,7 @@
         <v>55</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="120" customHeight="1">
@@ -4880,7 +4877,7 @@
         <v>56</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
@@ -4907,7 +4904,7 @@
         <v>55</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="120" customHeight="1">
@@ -4921,7 +4918,7 @@
         <v>56</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>55</v>
@@ -4948,7 +4945,7 @@
         <v>55</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="120" customHeight="1">
@@ -4962,7 +4959,7 @@
         <v>56</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>55</v>
@@ -4989,7 +4986,7 @@
         <v>55</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="120" customHeight="1">
@@ -5003,7 +5000,7 @@
         <v>56</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>55</v>
@@ -5030,7 +5027,7 @@
         <v>55</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="120" customHeight="1">
@@ -5044,7 +5041,7 @@
         <v>56</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>55</v>
@@ -5071,7 +5068,7 @@
         <v>55</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="120" customHeight="1">
@@ -5085,7 +5082,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>55</v>
@@ -5112,7 +5109,7 @@
         <v>55</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="120" customHeight="1">
@@ -5126,7 +5123,7 @@
         <v>56</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>55</v>
@@ -5153,7 +5150,7 @@
         <v>55</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="120" customHeight="1">
@@ -5167,7 +5164,7 @@
         <v>56</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -5194,7 +5191,7 @@
         <v>55</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="120" customHeight="1">
@@ -5208,7 +5205,7 @@
         <v>56</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>55</v>
@@ -5235,7 +5232,7 @@
         <v>55</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="120" customHeight="1">
@@ -5249,7 +5246,7 @@
         <v>56</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>55</v>
@@ -5276,7 +5273,7 @@
         <v>55</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="120" customHeight="1">
@@ -5290,7 +5287,7 @@
         <v>56</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>55</v>
@@ -5317,7 +5314,7 @@
         <v>55</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="120" customHeight="1">
@@ -5331,7 +5328,7 @@
         <v>56</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>55</v>
@@ -5358,7 +5355,7 @@
         <v>55</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="120" customHeight="1">
@@ -5372,7 +5369,7 @@
         <v>56</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>55</v>
@@ -5399,7 +5396,7 @@
         <v>55</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="120" customHeight="1">
@@ -5413,7 +5410,7 @@
         <v>56</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>55</v>
@@ -5440,7 +5437,7 @@
         <v>55</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="120" customHeight="1">
@@ -5454,7 +5451,7 @@
         <v>56</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>55</v>
@@ -5481,7 +5478,7 @@
         <v>55</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="120" customHeight="1">
@@ -5495,7 +5492,7 @@
         <v>56</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>55</v>
@@ -5522,7 +5519,7 @@
         <v>55</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="120" customHeight="1">
@@ -5536,7 +5533,7 @@
         <v>56</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>55</v>
@@ -5563,7 +5560,7 @@
         <v>55</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="120" customHeight="1">
@@ -5577,7 +5574,7 @@
         <v>56</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>55</v>
@@ -5604,7 +5601,7 @@
         <v>55</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="120" customHeight="1">
@@ -5618,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>55</v>
@@ -5645,7 +5642,7 @@
         <v>55</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="120" customHeight="1">
@@ -5659,7 +5656,7 @@
         <v>56</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>55</v>
@@ -5686,7 +5683,7 @@
         <v>55</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="120" customHeight="1">
@@ -5700,7 +5697,7 @@
         <v>56</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -5727,7 +5724,7 @@
         <v>55</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="120" customHeight="1">
@@ -5741,7 +5738,7 @@
         <v>56</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>55</v>
@@ -5768,7 +5765,7 @@
         <v>55</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="120" customHeight="1">
@@ -5782,7 +5779,7 @@
         <v>56</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>55</v>
@@ -5809,7 +5806,7 @@
         <v>55</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="120" customHeight="1">
@@ -5823,7 +5820,7 @@
         <v>56</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>55</v>
@@ -5850,7 +5847,7 @@
         <v>55</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="120" customHeight="1">
@@ -5864,7 +5861,7 @@
         <v>56</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>55</v>
@@ -5891,7 +5888,7 @@
         <v>55</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="120" customHeight="1">
@@ -5905,7 +5902,7 @@
         <v>56</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>55</v>
@@ -5932,7 +5929,7 @@
         <v>55</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="120" customHeight="1">
@@ -5946,7 +5943,7 @@
         <v>56</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>55</v>
@@ -5973,7 +5970,7 @@
         <v>55</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="120" customHeight="1">
@@ -5987,7 +5984,7 @@
         <v>56</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>55</v>
@@ -6014,7 +6011,7 @@
         <v>55</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="120" customHeight="1">
@@ -6028,7 +6025,7 @@
         <v>56</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>55</v>
@@ -6055,7 +6052,7 @@
         <v>55</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="120" customHeight="1">
@@ -6069,7 +6066,7 @@
         <v>56</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -6096,7 +6093,7 @@
         <v>55</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="120" customHeight="1">
@@ -6110,7 +6107,7 @@
         <v>56</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>55</v>
@@ -6137,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="120" customHeight="1">
@@ -6151,7 +6148,7 @@
         <v>56</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>55</v>
@@ -6178,7 +6175,7 @@
         <v>55</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="120" customHeight="1">
@@ -6192,7 +6189,7 @@
         <v>56</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>55</v>
@@ -6219,7 +6216,7 @@
         <v>55</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="120" customHeight="1">
@@ -6233,7 +6230,7 @@
         <v>56</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>55</v>
@@ -6260,7 +6257,7 @@
         <v>55</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="120" customHeight="1">
@@ -6274,7 +6271,7 @@
         <v>56</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>55</v>
@@ -6301,7 +6298,7 @@
         <v>55</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="120" customHeight="1">
@@ -6315,7 +6312,7 @@
         <v>56</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>55</v>
@@ -6342,7 +6339,7 @@
         <v>55</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="120" customHeight="1">
@@ -6356,7 +6353,7 @@
         <v>56</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>55</v>
@@ -6383,7 +6380,7 @@
         <v>55</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="120" customHeight="1">
@@ -6397,7 +6394,7 @@
         <v>56</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>55</v>
@@ -6424,7 +6421,7 @@
         <v>55</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="120" customHeight="1">
@@ -6438,7 +6435,7 @@
         <v>56</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>55</v>
@@ -6465,7 +6462,7 @@
         <v>55</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="120" customHeight="1">
@@ -6479,7 +6476,7 @@
         <v>56</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>55</v>
@@ -6506,7 +6503,7 @@
         <v>55</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="120" customHeight="1">
@@ -6520,7 +6517,7 @@
         <v>56</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>55</v>
@@ -6547,7 +6544,7 @@
         <v>55</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="120" customHeight="1">
@@ -6561,7 +6558,7 @@
         <v>56</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>55</v>
@@ -6588,7 +6585,7 @@
         <v>55</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="120" customHeight="1">
@@ -6602,7 +6599,7 @@
         <v>56</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>55</v>
@@ -6629,7 +6626,7 @@
         <v>55</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="120" customHeight="1">
@@ -6643,7 +6640,7 @@
         <v>56</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>55</v>
@@ -6670,7 +6667,7 @@
         <v>55</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="120" customHeight="1">
@@ -6684,7 +6681,7 @@
         <v>56</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>55</v>
@@ -6711,7 +6708,7 @@
         <v>55</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="120" customHeight="1">
@@ -6725,7 +6722,7 @@
         <v>56</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>55</v>
@@ -6752,7 +6749,7 @@
         <v>55</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="120" customHeight="1">
@@ -6766,7 +6763,7 @@
         <v>56</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>55</v>
@@ -6793,7 +6790,7 @@
         <v>55</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="120" customHeight="1">
@@ -6807,7 +6804,7 @@
         <v>56</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>55</v>
@@ -6834,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="120" customHeight="1">
@@ -6848,7 +6845,7 @@
         <v>56</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>55</v>
@@ -6875,7 +6872,7 @@
         <v>55</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="120" customHeight="1">
@@ -6889,7 +6886,7 @@
         <v>56</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>55</v>
@@ -6916,7 +6913,7 @@
         <v>55</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="120" customHeight="1">
@@ -6930,7 +6927,7 @@
         <v>56</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>55</v>
@@ -6957,7 +6954,7 @@
         <v>55</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="120" customHeight="1">
@@ -6971,7 +6968,7 @@
         <v>56</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -6998,7 +6995,7 @@
         <v>55</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="120" customHeight="1">
@@ -7012,7 +7009,7 @@
         <v>56</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>55</v>
@@ -7039,7 +7036,7 @@
         <v>55</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="120" customHeight="1">
@@ -7053,7 +7050,7 @@
         <v>56</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>55</v>
@@ -7080,7 +7077,7 @@
         <v>55</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="120" customHeight="1">
@@ -7094,7 +7091,7 @@
         <v>56</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>55</v>
@@ -7121,7 +7118,7 @@
         <v>55</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="120" customHeight="1">
@@ -7135,7 +7132,7 @@
         <v>56</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>55</v>
@@ -7162,7 +7159,7 @@
         <v>55</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="120" customHeight="1">
@@ -7176,7 +7173,7 @@
         <v>56</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>55</v>
@@ -7203,7 +7200,7 @@
         <v>55</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="120" customHeight="1">
@@ -7217,7 +7214,7 @@
         <v>56</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>55</v>
@@ -7244,7 +7241,7 @@
         <v>55</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="120" customHeight="1">
@@ -7258,7 +7255,7 @@
         <v>56</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>55</v>
@@ -7285,7 +7282,7 @@
         <v>55</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="120" customHeight="1">
@@ -7299,7 +7296,7 @@
         <v>56</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>55</v>
@@ -7326,7 +7323,7 @@
         <v>55</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="120" customHeight="1">
@@ -7340,7 +7337,7 @@
         <v>56</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>55</v>
@@ -7367,7 +7364,7 @@
         <v>55</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="120" customHeight="1">
@@ -7381,7 +7378,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>55</v>
@@ -7408,7 +7405,7 @@
         <v>55</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="120" customHeight="1">
@@ -7422,7 +7419,7 @@
         <v>56</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>55</v>
@@ -7449,7 +7446,7 @@
         <v>55</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="120" customHeight="1">
@@ -7463,7 +7460,7 @@
         <v>56</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>55</v>
@@ -7490,7 +7487,7 @@
         <v>55</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="120" customHeight="1">
@@ -7504,7 +7501,7 @@
         <v>56</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>55</v>
@@ -7531,7 +7528,7 @@
         <v>55</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="120" customHeight="1">
@@ -7545,7 +7542,7 @@
         <v>56</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>55</v>
@@ -7572,7 +7569,7 @@
         <v>55</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="120" customHeight="1">
@@ -7586,7 +7583,7 @@
         <v>56</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>55</v>
@@ -7613,7 +7610,7 @@
         <v>55</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="120" customHeight="1">
@@ -7627,7 +7624,7 @@
         <v>56</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>55</v>
@@ -7654,7 +7651,7 @@
         <v>55</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="120" customHeight="1">
@@ -7668,7 +7665,7 @@
         <v>56</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>55</v>
@@ -7695,7 +7692,7 @@
         <v>55</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="120" customHeight="1">
@@ -7709,7 +7706,7 @@
         <v>56</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>55</v>
@@ -7736,7 +7733,7 @@
         <v>55</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="120" customHeight="1">
@@ -7750,7 +7747,7 @@
         <v>56</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>55</v>
@@ -7777,7 +7774,7 @@
         <v>55</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="120" customHeight="1">
@@ -7791,7 +7788,7 @@
         <v>56</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>55</v>
@@ -7818,7 +7815,7 @@
         <v>55</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="120" customHeight="1">
@@ -7832,7 +7829,7 @@
         <v>56</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>55</v>
@@ -7859,7 +7856,7 @@
         <v>55</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="120" customHeight="1">
@@ -7873,7 +7870,7 @@
         <v>56</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>55</v>
@@ -7900,7 +7897,7 @@
         <v>55</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="120" customHeight="1">
@@ -7914,7 +7911,7 @@
         <v>56</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>55</v>
@@ -7941,7 +7938,7 @@
         <v>55</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="120" customHeight="1">
@@ -7955,7 +7952,7 @@
         <v>56</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>55</v>
@@ -7982,7 +7979,7 @@
         <v>55</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="120" customHeight="1">
@@ -7996,7 +7993,7 @@
         <v>56</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>55</v>
@@ -8023,7 +8020,7 @@
         <v>55</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="120" customHeight="1">
@@ -8037,7 +8034,7 @@
         <v>56</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>55</v>
@@ -8064,7 +8061,7 @@
         <v>55</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="120" customHeight="1">
@@ -8078,7 +8075,7 @@
         <v>56</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>55</v>
@@ -8105,7 +8102,7 @@
         <v>55</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="120" customHeight="1">
@@ -8119,7 +8116,7 @@
         <v>56</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>55</v>
@@ -8146,7 +8143,7 @@
         <v>55</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="120" customHeight="1">
@@ -8160,7 +8157,7 @@
         <v>56</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>55</v>
@@ -8187,7 +8184,7 @@
         <v>55</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="120" customHeight="1">
@@ -8201,7 +8198,7 @@
         <v>56</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>55</v>
@@ -8228,7 +8225,7 @@
         <v>55</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="120" customHeight="1">
@@ -8242,7 +8239,7 @@
         <v>56</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>55</v>
@@ -8269,7 +8266,7 @@
         <v>55</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="120" customHeight="1">
@@ -8283,7 +8280,7 @@
         <v>56</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>55</v>
@@ -8310,7 +8307,7 @@
         <v>55</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="120" customHeight="1">
@@ -8324,7 +8321,7 @@
         <v>56</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>55</v>
@@ -8351,7 +8348,7 @@
         <v>55</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="120" customHeight="1">
@@ -8365,7 +8362,7 @@
         <v>56</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>55</v>
@@ -8392,7 +8389,7 @@
         <v>55</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="120" customHeight="1">
@@ -8406,7 +8403,7 @@
         <v>56</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>55</v>
@@ -8433,7 +8430,7 @@
         <v>55</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="120" customHeight="1">
@@ -8447,7 +8444,7 @@
         <v>56</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>55</v>
@@ -8474,7 +8471,7 @@
         <v>55</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="120" customHeight="1">
@@ -8488,7 +8485,7 @@
         <v>56</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>55</v>
@@ -8515,7 +8512,7 @@
         <v>55</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="120" customHeight="1">
@@ -8529,7 +8526,7 @@
         <v>56</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>55</v>
@@ -8556,7 +8553,7 @@
         <v>55</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="120" customHeight="1">
@@ -8570,7 +8567,7 @@
         <v>56</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>55</v>
@@ -8597,7 +8594,7 @@
         <v>55</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="120" customHeight="1">
@@ -8611,7 +8608,7 @@
         <v>56</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>55</v>
@@ -8638,7 +8635,7 @@
         <v>55</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="120" customHeight="1">
@@ -8652,7 +8649,7 @@
         <v>56</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>55</v>
@@ -8679,7 +8676,7 @@
         <v>55</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="120" customHeight="1">
@@ -8693,7 +8690,7 @@
         <v>56</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>55</v>
@@ -8720,7 +8717,7 @@
         <v>55</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="120" customHeight="1">
@@ -8734,7 +8731,7 @@
         <v>56</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>55</v>
@@ -8761,7 +8758,7 @@
         <v>55</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="120" customHeight="1">
@@ -8775,7 +8772,7 @@
         <v>56</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>55</v>
@@ -8802,7 +8799,7 @@
         <v>55</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="120" customHeight="1">
@@ -8816,7 +8813,7 @@
         <v>56</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>55</v>
@@ -8843,7 +8840,7 @@
         <v>55</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="120" customHeight="1">
@@ -8857,7 +8854,7 @@
         <v>56</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>55</v>
@@ -8884,7 +8881,7 @@
         <v>55</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="120" customHeight="1">
@@ -8898,7 +8895,7 @@
         <v>56</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>55</v>
@@ -8925,7 +8922,7 @@
         <v>55</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="120" customHeight="1">
@@ -8939,7 +8936,7 @@
         <v>56</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>55</v>
@@ -8966,7 +8963,7 @@
         <v>55</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="120" customHeight="1">
@@ -8980,7 +8977,7 @@
         <v>56</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>55</v>
@@ -9007,7 +9004,7 @@
         <v>55</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="120" customHeight="1">
@@ -9021,7 +9018,7 @@
         <v>56</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>55</v>
@@ -9048,7 +9045,7 @@
         <v>55</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="120" customHeight="1">
@@ -9062,7 +9059,7 @@
         <v>56</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>55</v>
@@ -9089,7 +9086,7 @@
         <v>55</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="120" customHeight="1">
@@ -9103,7 +9100,7 @@
         <v>56</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>55</v>
@@ -9130,7 +9127,7 @@
         <v>55</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="120" customHeight="1">
@@ -9144,7 +9141,7 @@
         <v>56</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>55</v>
@@ -9171,7 +9168,7 @@
         <v>55</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="120" customHeight="1">
@@ -9185,7 +9182,7 @@
         <v>56</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>55</v>
@@ -9212,7 +9209,7 @@
         <v>55</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="120" customHeight="1">
@@ -9226,7 +9223,7 @@
         <v>56</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>55</v>
@@ -9253,7 +9250,7 @@
         <v>55</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="120" customHeight="1">
@@ -9267,7 +9264,7 @@
         <v>56</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>55</v>
@@ -9294,7 +9291,7 @@
         <v>55</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="120" customHeight="1">
@@ -9308,7 +9305,7 @@
         <v>56</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>55</v>
@@ -9335,7 +9332,7 @@
         <v>55</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="120" customHeight="1">
@@ -9349,7 +9346,7 @@
         <v>56</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>55</v>
@@ -9376,7 +9373,7 @@
         <v>55</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="120" customHeight="1">
@@ -9390,7 +9387,7 @@
         <v>56</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>55</v>
@@ -9417,7 +9414,7 @@
         <v>55</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="120" customHeight="1">
@@ -9431,7 +9428,7 @@
         <v>56</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>55</v>
@@ -9458,7 +9455,7 @@
         <v>55</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="120" customHeight="1">
@@ -9472,7 +9469,7 @@
         <v>56</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>55</v>
@@ -9499,7 +9496,7 @@
         <v>55</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="120" customHeight="1">
@@ -9513,7 +9510,7 @@
         <v>56</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>55</v>
@@ -9540,7 +9537,7 @@
         <v>55</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="120" customHeight="1">
@@ -9554,7 +9551,7 @@
         <v>56</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>55</v>
@@ -9581,7 +9578,7 @@
         <v>55</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="120" customHeight="1">
@@ -9595,7 +9592,7 @@
         <v>56</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>55</v>
@@ -9622,7 +9619,7 @@
         <v>55</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="120" customHeight="1">
@@ -9636,7 +9633,7 @@
         <v>56</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>55</v>
@@ -9663,7 +9660,7 @@
         <v>55</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="120" customHeight="1">
@@ -9677,7 +9674,7 @@
         <v>56</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>55</v>
@@ -9704,7 +9701,7 @@
         <v>55</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="120" customHeight="1">
@@ -9718,7 +9715,7 @@
         <v>56</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>55</v>
@@ -9745,7 +9742,7 @@
         <v>55</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="120" customHeight="1">
@@ -9759,7 +9756,7 @@
         <v>56</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>55</v>
@@ -9786,7 +9783,7 @@
         <v>55</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="120" customHeight="1">
@@ -9800,7 +9797,7 @@
         <v>56</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>55</v>
@@ -9827,7 +9824,7 @@
         <v>55</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="120" customHeight="1">
@@ -9841,7 +9838,7 @@
         <v>56</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>55</v>
@@ -9868,7 +9865,7 @@
         <v>55</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="120" customHeight="1">
@@ -9882,7 +9879,7 @@
         <v>56</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>55</v>
@@ -9909,7 +9906,7 @@
         <v>55</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="120" customHeight="1">
@@ -9923,7 +9920,7 @@
         <v>56</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>55</v>
@@ -9950,7 +9947,7 @@
         <v>55</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -78,13 +78,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2019-06-03 15:41:26</t>
-  </si>
-  <si>
-    <t>2019-06-03 15:41:39</t>
-  </si>
-  <si>
-    <t>13.00秒</t>
+    <t>2019-06-06 09:46:26</t>
+  </si>
+  <si>
+    <t>2019-06-06 09:46:40</t>
+  </si>
+  <si>
+    <t>14.00秒</t>
   </si>
   <si>
     <t>0</t>
@@ -114,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 18.8%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '13.0%', '空闲值': '79.7%'}</t>
+    <t>{'使用率': ' 4.7%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '0.0%', '空闲值': '99.8%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.530GB', '使用率': '55.4%', '占用': '4.37GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '4.08GB', '使用率': '48.4%', '占用': '3.825GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.23GB', '剩余量': '813.27GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.24GB', '剩余量': '813.26GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.02899MB', '网卡最大下行': '0.09150MB'}</t>
+    <t>{'网卡最大上行': '0.034249MB', '网卡最大下行': '0.30933MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="263">
   <si>
     <t>SCRM线上环境UI自动化测试报告</t>
   </si>
@@ -78,13 +78,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2019-06-06 09:46:26</t>
-  </si>
-  <si>
-    <t>2019-06-06 09:46:40</t>
-  </si>
-  <si>
-    <t>14.00秒</t>
+    <t>2019-06-06 18:03:56</t>
+  </si>
+  <si>
+    <t>2019-06-06 18:04:12</t>
+  </si>
+  <si>
+    <t>16.00秒</t>
   </si>
   <si>
     <t>0</t>
@@ -114,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 4.7%', '当前频率': '782.0Hz', '用户占用率': '0.0%', '系统占用率': '0.0%', '空闲值': '99.8%'}</t>
+    <t>{'使用率': ' 10.9%', '当前频率': '782.0Hz', '用户占用率': '6.2%', '系统占用率': '1.6%', '空闲值': '92.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '4.08GB', '使用率': '48.4%', '占用': '3.825GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.91GB', '使用率': '63.1%', '占用': '4.99GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.24GB', '剩余量': '813.26GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.58GB', '剩余量': '812.92GB', '使用率': '2.2%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.034249MB', '网卡最大下行': '0.30933MB'}</t>
+    <t>{'网卡最大上行': '0.23578MB', '网卡最大下行': '1.1334MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>跳过原因: 太多，暂跳</t>
+  </si>
+  <si>
+    <t>2019-06-06 18:03:57</t>
   </si>
   <si>
     <t>test_test_repeat_login_10</t>
@@ -1665,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="120" customHeight="1">
@@ -1679,7 +1682,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
@@ -1706,7 +1709,7 @@
         <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" customHeight="1">
@@ -1720,7 +1723,7 @@
         <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>55</v>
@@ -1747,7 +1750,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" customHeight="1">
@@ -1761,7 +1764,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>55</v>
@@ -1788,7 +1791,7 @@
         <v>55</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" customHeight="1">
@@ -1802,7 +1805,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
@@ -1829,7 +1832,7 @@
         <v>55</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" customHeight="1">
@@ -1843,7 +1846,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
@@ -1870,7 +1873,7 @@
         <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" customHeight="1">
@@ -1884,7 +1887,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
@@ -1911,7 +1914,7 @@
         <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="120" customHeight="1">
@@ -1925,7 +1928,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
@@ -1952,7 +1955,7 @@
         <v>55</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="120" customHeight="1">
@@ -1966,7 +1969,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
@@ -1993,7 +1996,7 @@
         <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" customHeight="1">
@@ -2007,7 +2010,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
@@ -2034,7 +2037,7 @@
         <v>55</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="120" customHeight="1">
@@ -2048,7 +2051,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
@@ -2075,7 +2078,7 @@
         <v>55</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1">
@@ -2089,7 +2092,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>55</v>
@@ -2116,7 +2119,7 @@
         <v>55</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="120" customHeight="1">
@@ -2130,7 +2133,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>55</v>
@@ -2157,7 +2160,7 @@
         <v>55</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="120" customHeight="1">
@@ -2171,7 +2174,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>55</v>
@@ -2198,7 +2201,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="120" customHeight="1">
@@ -2212,7 +2215,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>55</v>
@@ -2239,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="120" customHeight="1">
@@ -2253,7 +2256,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>55</v>
@@ -2280,7 +2283,7 @@
         <v>55</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="120" customHeight="1">
@@ -2294,7 +2297,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>55</v>
@@ -2321,7 +2324,7 @@
         <v>55</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="120" customHeight="1">
@@ -2335,7 +2338,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
@@ -2362,7 +2365,7 @@
         <v>55</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="120" customHeight="1">
@@ -2376,7 +2379,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>55</v>
@@ -2403,7 +2406,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="120" customHeight="1">
@@ -2417,7 +2420,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -2444,7 +2447,7 @@
         <v>55</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="120" customHeight="1">
@@ -2458,7 +2461,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -2485,7 +2488,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="120" customHeight="1">
@@ -2499,7 +2502,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -2526,7 +2529,7 @@
         <v>55</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="120" customHeight="1">
@@ -2540,7 +2543,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>55</v>
@@ -2567,7 +2570,7 @@
         <v>55</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="120" customHeight="1">
@@ -2581,7 +2584,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -2608,7 +2611,7 @@
         <v>55</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="120" customHeight="1">
@@ -2622,7 +2625,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
@@ -2649,7 +2652,7 @@
         <v>55</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="120" customHeight="1">
@@ -2663,7 +2666,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>55</v>
@@ -2690,7 +2693,7 @@
         <v>55</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="120" customHeight="1">
@@ -2704,7 +2707,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>55</v>
@@ -2731,7 +2734,7 @@
         <v>55</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="120" customHeight="1">
@@ -2745,7 +2748,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>55</v>
@@ -2772,7 +2775,7 @@
         <v>55</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="120" customHeight="1">
@@ -2786,7 +2789,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>55</v>
@@ -2813,7 +2816,7 @@
         <v>55</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="120" customHeight="1">
@@ -2827,7 +2830,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>55</v>
@@ -2854,7 +2857,7 @@
         <v>55</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="120" customHeight="1">
@@ -2868,7 +2871,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>55</v>
@@ -2895,7 +2898,7 @@
         <v>55</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="120" customHeight="1">
@@ -2909,7 +2912,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>55</v>
@@ -2936,7 +2939,7 @@
         <v>55</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="120" customHeight="1">
@@ -2950,7 +2953,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>55</v>
@@ -2977,7 +2980,7 @@
         <v>55</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" customHeight="1">
@@ -2991,7 +2994,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>55</v>
@@ -3018,7 +3021,7 @@
         <v>55</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="120" customHeight="1">
@@ -3032,7 +3035,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>55</v>
@@ -3059,7 +3062,7 @@
         <v>55</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="120" customHeight="1">
@@ -3073,7 +3076,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>55</v>
@@ -3100,7 +3103,7 @@
         <v>55</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="120" customHeight="1">
@@ -3114,7 +3117,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>55</v>
@@ -3141,7 +3144,7 @@
         <v>55</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="120" customHeight="1">
@@ -3155,7 +3158,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>55</v>
@@ -3182,7 +3185,7 @@
         <v>55</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="120" customHeight="1">
@@ -3196,7 +3199,7 @@
         <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>55</v>
@@ -3223,7 +3226,7 @@
         <v>55</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="120" customHeight="1">
@@ -3237,7 +3240,7 @@
         <v>56</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>55</v>
@@ -3264,7 +3267,7 @@
         <v>55</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="120" customHeight="1">
@@ -3278,7 +3281,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>55</v>
@@ -3305,7 +3308,7 @@
         <v>55</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
@@ -3319,7 +3322,7 @@
         <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>55</v>
@@ -3346,7 +3349,7 @@
         <v>55</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="120" customHeight="1">
@@ -3360,7 +3363,7 @@
         <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -3387,7 +3390,7 @@
         <v>55</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="120" customHeight="1">
@@ -3401,7 +3404,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -3428,7 +3431,7 @@
         <v>55</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="120" customHeight="1">
@@ -3442,7 +3445,7 @@
         <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>55</v>
@@ -3469,7 +3472,7 @@
         <v>55</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="120" customHeight="1">
@@ -3483,7 +3486,7 @@
         <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>55</v>
@@ -3510,7 +3513,7 @@
         <v>55</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="120" customHeight="1">
@@ -3524,7 +3527,7 @@
         <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>55</v>
@@ -3551,7 +3554,7 @@
         <v>55</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="120" customHeight="1">
@@ -3565,7 +3568,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>55</v>
@@ -3592,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="120" customHeight="1">
@@ -3606,7 +3609,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>55</v>
@@ -3633,7 +3636,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="120" customHeight="1">
@@ -3647,7 +3650,7 @@
         <v>56</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -3674,7 +3677,7 @@
         <v>55</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="120" customHeight="1">
@@ -3688,7 +3691,7 @@
         <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>55</v>
@@ -3715,7 +3718,7 @@
         <v>55</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="120" customHeight="1">
@@ -3729,7 +3732,7 @@
         <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>55</v>
@@ -3756,7 +3759,7 @@
         <v>55</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="120" customHeight="1">
@@ -3770,7 +3773,7 @@
         <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>55</v>
@@ -3797,7 +3800,7 @@
         <v>55</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="120" customHeight="1">
@@ -3811,7 +3814,7 @@
         <v>56</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>55</v>
@@ -3838,7 +3841,7 @@
         <v>55</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="120" customHeight="1">
@@ -3852,7 +3855,7 @@
         <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>55</v>
@@ -3879,7 +3882,7 @@
         <v>55</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="120" customHeight="1">
@@ -3893,7 +3896,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>55</v>
@@ -3920,7 +3923,7 @@
         <v>55</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="120" customHeight="1">
@@ -3934,7 +3937,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>55</v>
@@ -3961,7 +3964,7 @@
         <v>55</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="120" customHeight="1">
@@ -3975,7 +3978,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>55</v>
@@ -4002,7 +4005,7 @@
         <v>55</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="120" customHeight="1">
@@ -4016,7 +4019,7 @@
         <v>56</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>55</v>
@@ -4043,7 +4046,7 @@
         <v>55</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="120" customHeight="1">
@@ -4057,7 +4060,7 @@
         <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>55</v>
@@ -4084,7 +4087,7 @@
         <v>55</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="120" customHeight="1">
@@ -4098,7 +4101,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>55</v>
@@ -4125,7 +4128,7 @@
         <v>55</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="120" customHeight="1">
@@ -4139,7 +4142,7 @@
         <v>56</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>55</v>
@@ -4166,7 +4169,7 @@
         <v>55</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="120" customHeight="1">
@@ -4180,7 +4183,7 @@
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>55</v>
@@ -4207,7 +4210,7 @@
         <v>55</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="120" customHeight="1">
@@ -4221,7 +4224,7 @@
         <v>56</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>55</v>
@@ -4248,7 +4251,7 @@
         <v>55</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="120" customHeight="1">
@@ -4262,7 +4265,7 @@
         <v>56</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -4289,7 +4292,7 @@
         <v>55</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="120" customHeight="1">
@@ -4303,7 +4306,7 @@
         <v>56</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>55</v>
@@ -4330,7 +4333,7 @@
         <v>55</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="120" customHeight="1">
@@ -4344,7 +4347,7 @@
         <v>56</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>55</v>
@@ -4371,7 +4374,7 @@
         <v>55</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="120" customHeight="1">
@@ -4385,7 +4388,7 @@
         <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>55</v>
@@ -4412,7 +4415,7 @@
         <v>55</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="120" customHeight="1">
@@ -4426,7 +4429,7 @@
         <v>56</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>55</v>
@@ -4453,7 +4456,7 @@
         <v>55</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="120" customHeight="1">
@@ -4467,7 +4470,7 @@
         <v>56</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>55</v>
@@ -4494,7 +4497,7 @@
         <v>55</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="120" customHeight="1">
@@ -4508,7 +4511,7 @@
         <v>56</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
@@ -4535,7 +4538,7 @@
         <v>55</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="120" customHeight="1">
@@ -4549,7 +4552,7 @@
         <v>56</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>55</v>
@@ -4576,7 +4579,7 @@
         <v>55</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="120" customHeight="1">
@@ -4590,7 +4593,7 @@
         <v>56</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -4617,7 +4620,7 @@
         <v>55</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="120" customHeight="1">
@@ -4631,7 +4634,7 @@
         <v>56</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>55</v>
@@ -4658,7 +4661,7 @@
         <v>55</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="120" customHeight="1">
@@ -4672,7 +4675,7 @@
         <v>56</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>55</v>
@@ -4699,7 +4702,7 @@
         <v>55</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="120" customHeight="1">
@@ -4713,7 +4716,7 @@
         <v>56</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>55</v>
@@ -4740,7 +4743,7 @@
         <v>55</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="120" customHeight="1">
@@ -4754,7 +4757,7 @@
         <v>56</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>55</v>
@@ -4781,7 +4784,7 @@
         <v>55</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="120" customHeight="1">
@@ -4795,7 +4798,7 @@
         <v>56</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>55</v>
@@ -4822,7 +4825,7 @@
         <v>55</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="120" customHeight="1">
@@ -4836,7 +4839,7 @@
         <v>56</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>55</v>
@@ -4863,7 +4866,7 @@
         <v>55</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="120" customHeight="1">
@@ -4877,7 +4880,7 @@
         <v>56</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
@@ -4904,7 +4907,7 @@
         <v>55</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="120" customHeight="1">
@@ -4918,7 +4921,7 @@
         <v>56</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>55</v>
@@ -4945,7 +4948,7 @@
         <v>55</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="120" customHeight="1">
@@ -4959,7 +4962,7 @@
         <v>56</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>55</v>
@@ -4986,7 +4989,7 @@
         <v>55</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="120" customHeight="1">
@@ -5000,7 +5003,7 @@
         <v>56</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>55</v>
@@ -5027,7 +5030,7 @@
         <v>55</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="120" customHeight="1">
@@ -5041,7 +5044,7 @@
         <v>56</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>55</v>
@@ -5068,7 +5071,7 @@
         <v>55</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="120" customHeight="1">
@@ -5082,7 +5085,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>55</v>
@@ -5109,7 +5112,7 @@
         <v>55</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="120" customHeight="1">
@@ -5123,7 +5126,7 @@
         <v>56</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>55</v>
@@ -5150,7 +5153,7 @@
         <v>55</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="120" customHeight="1">
@@ -5164,7 +5167,7 @@
         <v>56</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -5191,7 +5194,7 @@
         <v>55</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="120" customHeight="1">
@@ -5205,7 +5208,7 @@
         <v>56</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>55</v>
@@ -5232,7 +5235,7 @@
         <v>55</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="120" customHeight="1">
@@ -5246,7 +5249,7 @@
         <v>56</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>55</v>
@@ -5273,7 +5276,7 @@
         <v>55</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="120" customHeight="1">
@@ -5287,7 +5290,7 @@
         <v>56</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>55</v>
@@ -5314,7 +5317,7 @@
         <v>55</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="120" customHeight="1">
@@ -5328,7 +5331,7 @@
         <v>56</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>55</v>
@@ -5355,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="120" customHeight="1">
@@ -5369,7 +5372,7 @@
         <v>56</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>55</v>
@@ -5396,7 +5399,7 @@
         <v>55</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="120" customHeight="1">
@@ -5410,7 +5413,7 @@
         <v>56</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>55</v>
@@ -5437,7 +5440,7 @@
         <v>55</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="120" customHeight="1">
@@ -5451,7 +5454,7 @@
         <v>56</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>55</v>
@@ -5478,7 +5481,7 @@
         <v>55</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="120" customHeight="1">
@@ -5492,7 +5495,7 @@
         <v>56</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>55</v>
@@ -5519,7 +5522,7 @@
         <v>55</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="120" customHeight="1">
@@ -5533,7 +5536,7 @@
         <v>56</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>55</v>
@@ -5560,7 +5563,7 @@
         <v>55</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="120" customHeight="1">
@@ -5574,7 +5577,7 @@
         <v>56</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>55</v>
@@ -5601,7 +5604,7 @@
         <v>55</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="120" customHeight="1">
@@ -5615,7 +5618,7 @@
         <v>56</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>55</v>
@@ -5642,7 +5645,7 @@
         <v>55</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="120" customHeight="1">
@@ -5656,7 +5659,7 @@
         <v>56</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>55</v>
@@ -5683,7 +5686,7 @@
         <v>55</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="120" customHeight="1">
@@ -5697,7 +5700,7 @@
         <v>56</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>55</v>
@@ -5724,7 +5727,7 @@
         <v>55</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="120" customHeight="1">
@@ -5738,7 +5741,7 @@
         <v>56</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>55</v>
@@ -5765,7 +5768,7 @@
         <v>55</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="120" customHeight="1">
@@ -5779,7 +5782,7 @@
         <v>56</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>55</v>
@@ -5806,7 +5809,7 @@
         <v>55</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="120" customHeight="1">
@@ -5820,7 +5823,7 @@
         <v>56</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>55</v>
@@ -5847,7 +5850,7 @@
         <v>55</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="120" customHeight="1">
@@ -5861,7 +5864,7 @@
         <v>56</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>55</v>
@@ -5888,7 +5891,7 @@
         <v>55</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="120" customHeight="1">
@@ -5902,7 +5905,7 @@
         <v>56</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>55</v>
@@ -5929,7 +5932,7 @@
         <v>55</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="120" customHeight="1">
@@ -5943,7 +5946,7 @@
         <v>56</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>55</v>
@@ -5970,7 +5973,7 @@
         <v>55</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="120" customHeight="1">
@@ -5984,7 +5987,7 @@
         <v>56</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>55</v>
@@ -6011,7 +6014,7 @@
         <v>55</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="120" customHeight="1">
@@ -6025,7 +6028,7 @@
         <v>56</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>55</v>
@@ -6052,7 +6055,7 @@
         <v>55</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="120" customHeight="1">
@@ -6066,7 +6069,7 @@
         <v>56</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -6093,7 +6096,7 @@
         <v>55</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="120" customHeight="1">
@@ -6107,7 +6110,7 @@
         <v>56</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>55</v>
@@ -6134,7 +6137,7 @@
         <v>55</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="120" customHeight="1">
@@ -6148,7 +6151,7 @@
         <v>56</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>55</v>
@@ -6175,7 +6178,7 @@
         <v>55</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="120" customHeight="1">
@@ -6189,7 +6192,7 @@
         <v>56</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>55</v>
@@ -6216,7 +6219,7 @@
         <v>55</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="120" customHeight="1">
@@ -6230,7 +6233,7 @@
         <v>56</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>55</v>
@@ -6257,7 +6260,7 @@
         <v>55</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="120" customHeight="1">
@@ -6271,7 +6274,7 @@
         <v>56</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>55</v>
@@ -6298,7 +6301,7 @@
         <v>55</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="120" customHeight="1">
@@ -6312,7 +6315,7 @@
         <v>56</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>55</v>
@@ -6339,7 +6342,7 @@
         <v>55</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="120" customHeight="1">
@@ -6353,7 +6356,7 @@
         <v>56</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>55</v>
@@ -6380,7 +6383,7 @@
         <v>55</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="120" customHeight="1">
@@ -6394,7 +6397,7 @@
         <v>56</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>55</v>
@@ -6421,7 +6424,7 @@
         <v>55</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="120" customHeight="1">
@@ -6435,7 +6438,7 @@
         <v>56</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>55</v>
@@ -6462,7 +6465,7 @@
         <v>55</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="120" customHeight="1">
@@ -6476,7 +6479,7 @@
         <v>56</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>55</v>
@@ -6503,7 +6506,7 @@
         <v>55</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="120" customHeight="1">
@@ -6517,7 +6520,7 @@
         <v>56</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>55</v>
@@ -6544,7 +6547,7 @@
         <v>55</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="120" customHeight="1">
@@ -6558,7 +6561,7 @@
         <v>56</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>55</v>
@@ -6585,7 +6588,7 @@
         <v>55</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="120" customHeight="1">
@@ -6599,7 +6602,7 @@
         <v>56</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>55</v>
@@ -6626,7 +6629,7 @@
         <v>55</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="120" customHeight="1">
@@ -6640,7 +6643,7 @@
         <v>56</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>55</v>
@@ -6667,7 +6670,7 @@
         <v>55</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="120" customHeight="1">
@@ -6681,7 +6684,7 @@
         <v>56</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>55</v>
@@ -6708,7 +6711,7 @@
         <v>55</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="120" customHeight="1">
@@ -6722,7 +6725,7 @@
         <v>56</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>55</v>
@@ -6749,7 +6752,7 @@
         <v>55</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="120" customHeight="1">
@@ -6763,7 +6766,7 @@
         <v>56</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>55</v>
@@ -6790,7 +6793,7 @@
         <v>55</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="120" customHeight="1">
@@ -6804,7 +6807,7 @@
         <v>56</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>55</v>
@@ -6831,7 +6834,7 @@
         <v>55</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="120" customHeight="1">
@@ -6845,7 +6848,7 @@
         <v>56</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>55</v>
@@ -6872,7 +6875,7 @@
         <v>55</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="120" customHeight="1">
@@ -6886,7 +6889,7 @@
         <v>56</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>55</v>
@@ -6913,7 +6916,7 @@
         <v>55</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="120" customHeight="1">
@@ -6927,7 +6930,7 @@
         <v>56</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>55</v>
@@ -6954,7 +6957,7 @@
         <v>55</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="120" customHeight="1">
@@ -6968,7 +6971,7 @@
         <v>56</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -6995,7 +6998,7 @@
         <v>55</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="120" customHeight="1">
@@ -7009,7 +7012,7 @@
         <v>56</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>55</v>
@@ -7036,7 +7039,7 @@
         <v>55</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="120" customHeight="1">
@@ -7050,7 +7053,7 @@
         <v>56</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>55</v>
@@ -7077,7 +7080,7 @@
         <v>55</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="120" customHeight="1">
@@ -7091,7 +7094,7 @@
         <v>56</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>55</v>
@@ -7118,7 +7121,7 @@
         <v>55</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="120" customHeight="1">
@@ -7132,7 +7135,7 @@
         <v>56</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>55</v>
@@ -7159,7 +7162,7 @@
         <v>55</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="120" customHeight="1">
@@ -7173,7 +7176,7 @@
         <v>56</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>55</v>
@@ -7200,7 +7203,7 @@
         <v>55</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="120" customHeight="1">
@@ -7214,7 +7217,7 @@
         <v>56</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>55</v>
@@ -7241,7 +7244,7 @@
         <v>55</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="120" customHeight="1">
@@ -7255,7 +7258,7 @@
         <v>56</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>55</v>
@@ -7282,7 +7285,7 @@
         <v>55</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="120" customHeight="1">
@@ -7296,7 +7299,7 @@
         <v>56</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>55</v>
@@ -7323,7 +7326,7 @@
         <v>55</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="120" customHeight="1">
@@ -7337,7 +7340,7 @@
         <v>56</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>55</v>
@@ -7364,7 +7367,7 @@
         <v>55</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="120" customHeight="1">
@@ -7378,7 +7381,7 @@
         <v>56</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>55</v>
@@ -7405,7 +7408,7 @@
         <v>55</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="120" customHeight="1">
@@ -7419,7 +7422,7 @@
         <v>56</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>55</v>
@@ -7446,7 +7449,7 @@
         <v>55</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="120" customHeight="1">
@@ -7460,7 +7463,7 @@
         <v>56</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>55</v>
@@ -7487,7 +7490,7 @@
         <v>55</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="120" customHeight="1">
@@ -7501,7 +7504,7 @@
         <v>56</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>55</v>
@@ -7528,7 +7531,7 @@
         <v>55</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="120" customHeight="1">
@@ -7542,7 +7545,7 @@
         <v>56</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>55</v>
@@ -7569,7 +7572,7 @@
         <v>55</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="120" customHeight="1">
@@ -7583,7 +7586,7 @@
         <v>56</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>55</v>
@@ -7610,7 +7613,7 @@
         <v>55</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="120" customHeight="1">
@@ -7624,7 +7627,7 @@
         <v>56</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>55</v>
@@ -7651,7 +7654,7 @@
         <v>55</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="120" customHeight="1">
@@ -7665,7 +7668,7 @@
         <v>56</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>55</v>
@@ -7692,7 +7695,7 @@
         <v>55</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="120" customHeight="1">
@@ -7706,7 +7709,7 @@
         <v>56</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>55</v>
@@ -7733,7 +7736,7 @@
         <v>55</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="120" customHeight="1">
@@ -7747,7 +7750,7 @@
         <v>56</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>55</v>
@@ -7774,7 +7777,7 @@
         <v>55</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="120" customHeight="1">
@@ -7788,7 +7791,7 @@
         <v>56</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>55</v>
@@ -7815,7 +7818,7 @@
         <v>55</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="120" customHeight="1">
@@ -7829,7 +7832,7 @@
         <v>56</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>55</v>
@@ -7856,7 +7859,7 @@
         <v>55</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="120" customHeight="1">
@@ -7870,7 +7873,7 @@
         <v>56</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>55</v>
@@ -7897,7 +7900,7 @@
         <v>55</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="120" customHeight="1">
@@ -7911,7 +7914,7 @@
         <v>56</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>55</v>
@@ -7938,7 +7941,7 @@
         <v>55</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="120" customHeight="1">
@@ -7952,7 +7955,7 @@
         <v>56</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>55</v>
@@ -7979,7 +7982,7 @@
         <v>55</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="120" customHeight="1">
@@ -7993,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>55</v>
@@ -8020,7 +8023,7 @@
         <v>55</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="120" customHeight="1">
@@ -8034,7 +8037,7 @@
         <v>56</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>55</v>
@@ -8061,7 +8064,7 @@
         <v>55</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="120" customHeight="1">
@@ -8075,7 +8078,7 @@
         <v>56</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>55</v>
@@ -8102,7 +8105,7 @@
         <v>55</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="120" customHeight="1">
@@ -8116,7 +8119,7 @@
         <v>56</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>55</v>
@@ -8143,7 +8146,7 @@
         <v>55</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="120" customHeight="1">
@@ -8157,7 +8160,7 @@
         <v>56</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>55</v>
@@ -8184,7 +8187,7 @@
         <v>55</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="120" customHeight="1">
@@ -8198,7 +8201,7 @@
         <v>56</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>55</v>
@@ -8225,7 +8228,7 @@
         <v>55</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="120" customHeight="1">
@@ -8239,7 +8242,7 @@
         <v>56</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>55</v>
@@ -8266,7 +8269,7 @@
         <v>55</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="120" customHeight="1">
@@ -8280,7 +8283,7 @@
         <v>56</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>55</v>
@@ -8307,7 +8310,7 @@
         <v>55</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="120" customHeight="1">
@@ -8321,7 +8324,7 @@
         <v>56</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>55</v>
@@ -8348,7 +8351,7 @@
         <v>55</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="120" customHeight="1">
@@ -8362,7 +8365,7 @@
         <v>56</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>55</v>
@@ -8389,7 +8392,7 @@
         <v>55</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="120" customHeight="1">
@@ -8403,7 +8406,7 @@
         <v>56</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>55</v>
@@ -8430,7 +8433,7 @@
         <v>55</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="120" customHeight="1">
@@ -8444,7 +8447,7 @@
         <v>56</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>55</v>
@@ -8471,7 +8474,7 @@
         <v>55</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="120" customHeight="1">
@@ -8485,7 +8488,7 @@
         <v>56</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>55</v>
@@ -8512,7 +8515,7 @@
         <v>55</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="120" customHeight="1">
@@ -8526,7 +8529,7 @@
         <v>56</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>55</v>
@@ -8553,7 +8556,7 @@
         <v>55</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="120" customHeight="1">
@@ -8567,7 +8570,7 @@
         <v>56</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>55</v>
@@ -8594,7 +8597,7 @@
         <v>55</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="120" customHeight="1">
@@ -8608,7 +8611,7 @@
         <v>56</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>55</v>
@@ -8635,7 +8638,7 @@
         <v>55</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="120" customHeight="1">
@@ -8649,7 +8652,7 @@
         <v>56</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>55</v>
@@ -8676,7 +8679,7 @@
         <v>55</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="120" customHeight="1">
@@ -8690,7 +8693,7 @@
         <v>56</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>55</v>
@@ -8717,7 +8720,7 @@
         <v>55</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="120" customHeight="1">
@@ -8731,7 +8734,7 @@
         <v>56</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>55</v>
@@ -8758,7 +8761,7 @@
         <v>55</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="120" customHeight="1">
@@ -8772,7 +8775,7 @@
         <v>56</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>55</v>
@@ -8799,7 +8802,7 @@
         <v>55</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="120" customHeight="1">
@@ -8813,7 +8816,7 @@
         <v>56</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>55</v>
@@ -8840,7 +8843,7 @@
         <v>55</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="120" customHeight="1">
@@ -8854,7 +8857,7 @@
         <v>56</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>55</v>
@@ -8881,7 +8884,7 @@
         <v>55</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="120" customHeight="1">
@@ -8895,7 +8898,7 @@
         <v>56</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>55</v>
@@ -8922,7 +8925,7 @@
         <v>55</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="120" customHeight="1">
@@ -8936,7 +8939,7 @@
         <v>56</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>55</v>
@@ -8963,7 +8966,7 @@
         <v>55</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="120" customHeight="1">
@@ -8977,7 +8980,7 @@
         <v>56</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>55</v>
@@ -9004,7 +9007,7 @@
         <v>55</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="120" customHeight="1">
@@ -9018,7 +9021,7 @@
         <v>56</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>55</v>
@@ -9045,7 +9048,7 @@
         <v>55</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="120" customHeight="1">
@@ -9059,7 +9062,7 @@
         <v>56</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>55</v>
@@ -9086,7 +9089,7 @@
         <v>55</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="120" customHeight="1">
@@ -9100,7 +9103,7 @@
         <v>56</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>55</v>
@@ -9127,7 +9130,7 @@
         <v>55</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="120" customHeight="1">
@@ -9141,7 +9144,7 @@
         <v>56</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>55</v>
@@ -9168,7 +9171,7 @@
         <v>55</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="120" customHeight="1">
@@ -9182,7 +9185,7 @@
         <v>56</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>55</v>
@@ -9209,7 +9212,7 @@
         <v>55</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="120" customHeight="1">
@@ -9223,7 +9226,7 @@
         <v>56</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>55</v>
@@ -9250,7 +9253,7 @@
         <v>55</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="120" customHeight="1">
@@ -9264,7 +9267,7 @@
         <v>56</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>55</v>
@@ -9291,7 +9294,7 @@
         <v>55</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="120" customHeight="1">
@@ -9305,7 +9308,7 @@
         <v>56</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>55</v>
@@ -9332,7 +9335,7 @@
         <v>55</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="120" customHeight="1">
@@ -9346,7 +9349,7 @@
         <v>56</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>55</v>
@@ -9373,7 +9376,7 @@
         <v>55</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="120" customHeight="1">
@@ -9387,7 +9390,7 @@
         <v>56</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>55</v>
@@ -9414,7 +9417,7 @@
         <v>55</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="120" customHeight="1">
@@ -9428,7 +9431,7 @@
         <v>56</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>55</v>
@@ -9455,7 +9458,7 @@
         <v>55</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="120" customHeight="1">
@@ -9469,7 +9472,7 @@
         <v>56</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>55</v>
@@ -9496,7 +9499,7 @@
         <v>55</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="120" customHeight="1">
@@ -9510,7 +9513,7 @@
         <v>56</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>55</v>
@@ -9537,7 +9540,7 @@
         <v>55</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="120" customHeight="1">
@@ -9551,7 +9554,7 @@
         <v>56</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>55</v>
@@ -9578,7 +9581,7 @@
         <v>55</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="120" customHeight="1">
@@ -9592,7 +9595,7 @@
         <v>56</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>55</v>
@@ -9619,7 +9622,7 @@
         <v>55</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="120" customHeight="1">
@@ -9633,7 +9636,7 @@
         <v>56</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>55</v>
@@ -9660,7 +9663,7 @@
         <v>55</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="120" customHeight="1">
@@ -9674,7 +9677,7 @@
         <v>56</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>55</v>
@@ -9701,7 +9704,7 @@
         <v>55</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="120" customHeight="1">
@@ -9715,7 +9718,7 @@
         <v>56</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>55</v>
@@ -9742,7 +9745,7 @@
         <v>55</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="120" customHeight="1">
@@ -9756,7 +9759,7 @@
         <v>56</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>55</v>
@@ -9783,7 +9786,7 @@
         <v>55</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="120" customHeight="1">
@@ -9797,7 +9800,7 @@
         <v>56</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>55</v>
@@ -9824,7 +9827,7 @@
         <v>55</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="120" customHeight="1">
@@ -9838,7 +9841,7 @@
         <v>56</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>55</v>
@@ -9865,7 +9868,7 @@
         <v>55</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="120" customHeight="1">
@@ -9879,7 +9882,7 @@
         <v>56</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>55</v>
@@ -9906,7 +9909,7 @@
         <v>55</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="120" customHeight="1">
@@ -9920,7 +9923,7 @@
         <v>56</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>55</v>
@@ -9947,7 +9950,7 @@
         <v>55</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -78,13 +78,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2019-06-06 18:03:56</t>
-  </si>
-  <si>
-    <t>2019-06-06 18:04:12</t>
-  </si>
-  <si>
-    <t>16.00秒</t>
+    <t>2019-06-14 14:49:47</t>
+  </si>
+  <si>
+    <t>2019-06-14 14:50:01</t>
+  </si>
+  <si>
+    <t>14.00秒</t>
   </si>
   <si>
     <t>0</t>
@@ -114,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 10.9%', '当前频率': '782.0Hz', '用户占用率': '6.2%', '系统占用率': '1.6%', '空闲值': '92.0%'}</t>
+    <t>{'使用率': ' 4.7%', '当前频率': '1666.0Hz', '用户占用率': '1.6%', '系统占用率': '4.7%', '空闲值': '93.6%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '2.91GB', '使用率': '63.1%', '占用': '4.99GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.307GB', '使用率': '58.2%', '占用': '4.60GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.58GB', '剩余量': '812.92GB', '使用率': '2.2%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.7GB', '剩余量': '812.74GB', '使用率': '2.3%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.23578MB', '网卡最大下行': '1.1334MB'}</t>
+    <t>{'网卡最大上行': '1.4675MB', '网卡最大下行': '6.799MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -198,7 +198,7 @@
     <t>跳过原因: 太多，暂跳</t>
   </si>
   <si>
-    <t>2019-06-06 18:03:57</t>
+    <t>2019-06-14 14:49:48</t>
   </si>
   <si>
     <t>test_test_repeat_login_10</t>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -78,13 +78,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2019-06-14 14:49:47</t>
-  </si>
-  <si>
-    <t>2019-06-14 14:50:01</t>
-  </si>
-  <si>
-    <t>14.00秒</t>
+    <t>2019-06-15 11:14:04</t>
+  </si>
+  <si>
+    <t>2019-06-15 11:20:37</t>
+  </si>
+  <si>
+    <t>6.55分钟</t>
   </si>
   <si>
     <t>0</t>
@@ -114,25 +114,25 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 4.7%', '当前频率': '1666.0Hz', '用户占用率': '1.6%', '系统占用率': '4.7%', '空闲值': '93.6%'}</t>
+    <t>{'使用率': ' 12.3%', '当前频率': '1666.0Hz', '用户占用率': '7.7%', '系统占用率': '7.7%', '空闲值': '83.1%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.307GB', '使用率': '58.2%', '占用': '4.60GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '3.885GB', '使用率': '50.9%', '占用': '4.023GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.7GB', '剩余量': '812.74GB', '使用率': '2.3%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '18.75GB', '剩余量': '812.76GB', '使用率': '2.3%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '1.4675MB', '网卡最大下行': '6.799MB'}</t>
+    <t>{'网卡最大上行': '0.40093MB', '网卡最大下行': '0.5387MB'}</t>
   </si>
   <si>
     <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
@@ -198,7 +198,7 @@
     <t>跳过原因: 太多，暂跳</t>
   </si>
   <si>
-    <t>2019-06-14 14:49:48</t>
+    <t>2019-06-15 11:14:06</t>
   </si>
   <si>
     <t>test_test_repeat_login_10</t>

--- a/report/ExcelReport.xlsx
+++ b/report/ExcelReport.xlsx
@@ -78,13 +78,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>2019-06-15 11:14:04</t>
-  </si>
-  <si>
-    <t>2019-06-15 11:20:37</t>
-  </si>
-  <si>
-    <t>6.55分钟</t>
+    <t>2019-06-18 16:35:55</t>
+  </si>
+  <si>
+    <t>2019-06-18 16:42:25</t>
+  </si>
+  <si>
+    <t>6.50分钟</t>
   </si>
   <si>
     <t>0</t>
@@ -114,28 +114,28 @@
     <t>硬件配置情况</t>
   </si>
   <si>
-    <t>{'使用率': ' 12.3%', '当前频率': '1666.0Hz', '用户占用率': '7.7%', '系统占用率': '7.7%', '空闲值': '83.1%'}</t>
+    <t>{'使用率': ' 37.5%', '当前频率': '3401.0Hz', '用户占用率': '37.4%', '系统占用率': '9.4%', '空闲值': '53.0%'}</t>
   </si>
   <si>
     <t>{'名称': 'Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz', '核心数': 4, '位数': 64, '最大速度': 3401, '缓存数': 3, '一级缓存数': 1024, '二级缓存数': 6144, '系统位数': 'Win32_ComputerSystem', '电脑名称': 'LENOVO-PC'}</t>
   </si>
   <si>
-    <t>{'容量': '7.90GB', '空闲': '3.885GB', '使用率': '50.9%', '占用': '4.023GB'}</t>
+    <t>{'容量': '7.90GB', '空闲': '2.73GB', '使用率': '65.4%', '占用': '5.17GB'}</t>
   </si>
   <si>
     <t>{'条数': '1', '容量': '8.0GB', '位数': 64, '型号': 'HMA81GU6AFR8N-UH', '频率': '2400MHz', '厂家': 'SK Hynix'}</t>
   </si>
   <si>
-    <t>{'容量': '831.GB', '已使用量': '18.75GB', '剩余量': '812.76GB', '使用率': '2.3%'}</t>
+    <t>{'容量': '831.GB', '已使用量': '19.08GB', '剩余量': '812.43GB', '使用率': '2.3%'}</t>
   </si>
   <si>
     <t>{'品牌': 'WDC WD10EZEX-08WN4A0 SCSI Disk Device', '型号': 'WD-WCC6Y2VJ81FZ', '容量': '0.90TB'}</t>
   </si>
   <si>
-    <t>{'网卡最大上行': '0.40093MB', '网卡最大下行': '0.5387MB'}</t>
-  </si>
-  <si>
-    <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('192.168.5.210', '223.5.5.5'), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
+    <t>{'网卡最大上行': '2.225MB', '网卡最大下行': '4.503MB'}</t>
+  </si>
+  <si>
+    <t>{'ip地址': '192.168.4.6', '子网掩码': '255.255.254.0', 'MAC地址': '8C:16:45:E4:3B:F0', '网关地址': '192.168.5.254', 'DNS地址': ('114.114.114.114',), '网卡类别': 'Realtek PCIe GBE Family Controller #3'}</t>
   </si>
   <si>
     <t>{'电脑名称': 'lenovo-PC', '操作系统': 'Windows-7-6.1.7601-SP1', '操作系统位数': ('64bit', 'WindowsPE'), '计算机类型': 'AMD64'}</t>
@@ -198,7 +198,7 @@
     <t>跳过原因: 太多，暂跳</t>
   </si>
   <si>
-    <t>2019-06-15 11:14:06</t>
+    <t>2019-06-18 16:35:57</t>
   </si>
   <si>
     <t>test_test_repeat_login_10</t>
